--- a/product.xlsx
+++ b/product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 HTML 테스트2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE5E556-8266-406A-A756-6E1EABFD0C4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFD30D1-9559-427C-92D9-83ED32998ED6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="285" windowWidth="22935" windowHeight="14835" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="3075" yWindow="285" windowWidth="22935" windowHeight="14835" activeTab="4" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="592">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,63 +43,6 @@
   <si>
     <t>단가</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200000</t>
-  </si>
-  <si>
-    <t>3300000</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>3800000</t>
-  </si>
-  <si>
-    <t>7600000</t>
-  </si>
-  <si>
-    <t>7200000</t>
-  </si>
-  <si>
-    <t>7300000</t>
-  </si>
-  <si>
-    <t>7000000</t>
-  </si>
-  <si>
-    <t>6500000</t>
-  </si>
-  <si>
-    <t>6000000</t>
-  </si>
-  <si>
-    <t>4500000</t>
-  </si>
-  <si>
-    <t>4100000</t>
-  </si>
-  <si>
-    <t>3490000</t>
-  </si>
-  <si>
-    <t>4700000</t>
-  </si>
-  <si>
-    <t>3100000</t>
-  </si>
-  <si>
-    <t>3200000</t>
-  </si>
-  <si>
-    <t>2400000</t>
-  </si>
-  <si>
-    <t>2800000</t>
-  </si>
-  <si>
-    <t>2900000</t>
   </si>
   <si>
     <t>NR30SXA</t>
@@ -2854,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0F6C0-818E-4F46-886B-A324E86407FA}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B60"/>
     </sheetView>
   </sheetViews>
@@ -2874,475 +2817,357 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1000000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1000000</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1000000</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1000000</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1000000</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1000000</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1000000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1000000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1000000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1000000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1000000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1000000</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1000000</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1000000</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1000000</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1000000</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1000000</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1000000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1000000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1000000</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1000000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1000000</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1000000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1000000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1000000</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1000000</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1000000</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1000000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1000000</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1000000</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1000000</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1000000</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1000000</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1000000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1000000</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1000000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1000000</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1000000</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1000000</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1000000</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1000000</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1000000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1000000</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1000000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1000000</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1000000</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1000000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1000000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1000000</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1000000</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1000000</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1000000</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1000000</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1000000</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1000000</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1000000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1000000</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="3">
-        <v>1000000</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1000000</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B60" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3356,7 +3181,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3375,803 +3200,603 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>80</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B101" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4185,7 +3810,7 @@
   <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4204,1202 +3829,752 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2">
-        <v>9999999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3">
-        <v>9999999</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4">
-        <v>9999999</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5">
-        <v>9999999</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6">
-        <v>9999999</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7">
-        <v>9999999</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8">
-        <v>9999999</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9">
-        <v>9999999</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10">
-        <v>9999999</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11">
-        <v>9999999</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12">
-        <v>9999999</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13">
-        <v>9999999</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14">
-        <v>9999999</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15">
-        <v>9999999</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B16">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B17">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B18">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B19">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B20">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B21">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B22">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B23">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B24">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B25">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B26">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B27">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B28">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B29">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B30">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B31">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B32">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B33">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B34">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B35">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B36">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B37">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B38">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B39">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B40">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B41">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B42">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B43">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B44">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B45">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B46">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B47">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B48">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B49">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B50">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B51">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B52">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B53">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B54">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B55">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B56">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B57">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B58">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B59">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B60">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B61">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B62">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B63">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B64">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B65">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B66">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B67">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B68">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B69">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B70">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B71">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B72">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B73">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B74">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B75">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B76">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B77">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B78">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B79">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B80">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B81">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B82">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B83">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B84">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B85">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B86">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B87">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B88">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B89">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B90">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B91">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B92">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B93">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B94">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B95">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B96">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B97">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B98">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B99">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B100">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B101">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B102">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B103">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B104">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B105">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B106">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B107">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B108">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B109">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B110">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B111">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B112">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B113">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B114">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B115">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B116">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B117">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B118">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B119">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B120">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B121">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B122">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B123">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B124">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B125">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B126">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B127">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B128">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B129">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B130">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B131">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B132">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B133">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B134">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B135">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B136">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B137">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B138">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B139">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B140">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B141">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B142">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B143">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B144">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B145">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B146">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B147">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B148">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B149">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B150">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B151">
-        <v>9999999</v>
       </c>
     </row>
   </sheetData>
@@ -5413,7 +4588,7 @@
   <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5432,1290 +4607,807 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2">
-        <v>8000000</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B3">
-        <v>8000000</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4">
-        <v>8000000</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5">
-        <v>8000000</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6">
-        <v>8000000</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B7">
-        <v>8000000</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B8">
-        <v>8000000</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9">
-        <v>8000000</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B10">
-        <v>8000000</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B11">
-        <v>8000000</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12">
-        <v>8000000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13">
-        <v>8000000</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14">
-        <v>8000000</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B15">
-        <v>8000000</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B16">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B17">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B18">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B19">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B20">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B21">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B22">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B23">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B24">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B25">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B26">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B27">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B28">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B29">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B30">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B31">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B32">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B33">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B34">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B35">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B36">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B37">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B38">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B39">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B40">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B41">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B42">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B43">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B44">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B45">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B46">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B47">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B48">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B49">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B50">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B51">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B52">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B53">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B54">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B55">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B56">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B57">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B58">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B59">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B60">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B61">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B62">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B63">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B64">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B65">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B66">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B67">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B68">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B69">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B70">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B71">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B72">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B73">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B74">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B75">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B76">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B77">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B78">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B79">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B80">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B81">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B82">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B83">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B84">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B85">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B86">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B87">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B88">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B89">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B90">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B91">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B92">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B93">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B94">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B95">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B96">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B97">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B98">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B99">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B100">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B101">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B102">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B103">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B104">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B105">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B106">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B107">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B108">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B109">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B110">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B111">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B112">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B113">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B114">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B115">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B116">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B117">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B118">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B119">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B120">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B121">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B122">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B123">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B124">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B125">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B126">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B127">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B128">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B129">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B130">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B131">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B132">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B133">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B134">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B135">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B136">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B137">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B138">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B139">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B140">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B141">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B142">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B143">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B144">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B145">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B146">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B147">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B148">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B149">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B150">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B151">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B152">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B153">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B154">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B155">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B156">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B157">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B158">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B159">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B160">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B161">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B162">
-        <v>8000000</v>
       </c>
     </row>
   </sheetData>
@@ -6728,8 +5420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6748,970 +5440,607 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B2">
-        <v>8000000</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B3">
-        <v>8000000</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B4">
-        <v>8000000</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B5">
-        <v>8000000</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6">
-        <v>8000000</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B7">
-        <v>8000000</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B8">
-        <v>8000000</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B9">
-        <v>8000000</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10">
-        <v>8000000</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B11">
-        <v>8000000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B12">
-        <v>8000000</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B13">
-        <v>8000000</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B14">
-        <v>8000000</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15">
-        <v>8000000</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B16">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B17">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B18">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B19">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B20">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B21">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B22">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B23">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B24">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B25">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B26">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B27">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B28">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B29">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B30">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B31">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B32">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B33">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B34">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B35">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B36">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B37">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B38">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B39">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B40">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B41">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B42">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B43">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B44">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B45">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B46">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B47">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B48">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B49">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B50">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B51">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B52">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B53">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B54">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B55">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B56">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B57">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B58">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B59">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B60">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B61">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B62">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B63">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B64">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B65">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B66">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B67">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B68">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B69">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B70">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B71">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B72">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B73">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B74">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B75">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B76">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B77">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B78">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B79">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B80">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B81">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B82">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B83">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B84">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B85">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B86">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B87">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B88">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B89">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B90">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B91">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B92">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B93">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B94">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B95">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B96">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B97">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B98">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B99">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B100">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B101">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B102">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="B103">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B104">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B105">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B106">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B107">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B108">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B109">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B110">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B111">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B112">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B113">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B114">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B115">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B116">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B117">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B118">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B119">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B120">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B121">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B122">
-        <v>8000000</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFD30D1-9559-427C-92D9-83ED32998ED6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9301390-F1CE-4F43-99CB-026E2C5C5F95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="285" windowWidth="22935" windowHeight="14835" activeTab="4" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="2970" yWindow="165" windowWidth="29955" windowHeight="14835" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="595">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2389,6 +2389,18 @@
   </si>
   <si>
     <t>시티드 체스트 프레스 No.NT-T(R)-SCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2399,7 +2411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2412,6 +2424,23 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2454,12 +2483,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2481,9 +2513,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2795,111 +2834,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0F6C0-818E-4F46-886B-A324E86407FA}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="119.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>594</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3171,17 +3217,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{433F10A2-D63E-48EF-B649-DE88BE869ADE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B07383-1660-4A79-94B4-136B7CC3B622}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3190,99 +3239,102 @@
     <col min="2" max="2" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>80</v>
       </c>
@@ -3807,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49FA69-C3D6-4C48-94B8-65C77EC26B0E}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B151"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3819,85 +3871,88 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>174</v>
       </c>
@@ -4585,10 +4640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0439778-6087-4EC2-9E54-C36465E20AFC}">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B162"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4597,85 +4652,88 @@
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>324</v>
       </c>
@@ -5418,10 +5476,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5430,85 +5488,88 @@
     <col min="2" max="2" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>485</v>
       </c>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9301390-F1CE-4F43-99CB-026E2C5C5F95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855912A1-D4B3-43C0-B59A-9A6FBC974567}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="165" windowWidth="29955" windowHeight="14835" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="3315" yWindow="510" windowWidth="29955" windowHeight="14835" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -2837,7 +2837,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/product.xlsx
+++ b/product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855912A1-D4B3-43C0-B59A-9A6FBC974567}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA694048-B272-4FB0-B20B-A85F9D8E52B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="510" windowWidth="29955" windowHeight="14835" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="6465" yWindow="525" windowWidth="27855" windowHeight="14835" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="657">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2396,12 +2396,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/1.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/1.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/2.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/3.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/4.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>DSC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSC6X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/18.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/19.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/20.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/21.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/22.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/23.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/24.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/25.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/26.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/27.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/28.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/29.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/30.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/31.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/32.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/33.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/34.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/35.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/36.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/37.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/38.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/39.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/40.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/41.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/42.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/43.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/44.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/45.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/46.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/47.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/48.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/49.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/50.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/51.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/52.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/53.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/54.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/55.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/56.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/57.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/58.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/59.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/60.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/61.jpg?raw=true</t>
   </si>
 </sst>
 </file>
@@ -2834,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0F6C0-818E-4F46-886B-A324E86407FA}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2849,7 +3036,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2864,7 +3051,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2872,356 +3059,545 @@
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="C6" s="7" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
+      <c r="C9" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
+      <c r="A12" t="s">
+        <v>598</v>
       </c>
       <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>599</v>
       </c>
       <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="7" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="C15" s="7" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="7" t="s">
+        <v>656</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{433F10A2-D63E-48EF-B649-DE88BE869ADE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA694048-B272-4FB0-B20B-A85F9D8E52B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED086F-CE4F-4FE9-AAFF-194B3DC3CF74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="525" windowWidth="27855" windowHeight="14835" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="2250" yWindow="480" windowWidth="27855" windowHeight="14835" activeTab="6" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
-    <sheet name="개선" sheetId="2" r:id="rId2"/>
-    <sheet name="엠지스포츠" sheetId="3" r:id="rId3"/>
-    <sheet name="렉스코" sheetId="4" r:id="rId4"/>
-    <sheet name="뉴텍" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="개선" sheetId="2" r:id="rId3"/>
+    <sheet name="엠지스포츠" sheetId="3" r:id="rId4"/>
+    <sheet name="렉스코" sheetId="4" r:id="rId5"/>
+    <sheet name="뉴텍" sheetId="5" r:id="rId6"/>
+    <sheet name="고무블럭" sheetId="7" r:id="rId7"/>
+    <sheet name="에버롤" sheetId="8" r:id="rId8"/>
+    <sheet name="덤벨" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="693">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2588,7 +2592,128 @@
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/60.jpg?raw=true</t>
   </si>
   <si>
+    <t>일반 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코팅 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코팅 고무블럭 50T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아레나 코팅 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑블랙 코팅 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25T 마감재(실버) 일자 2400mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25T 마감재(실버) 모서리 300mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25T 마감재(실버) 역모서리 300mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50T 마감재(실버) 일자 2400mm</t>
+  </si>
+  <si>
+    <t>50T 마감재(실버) 모서리 300mm</t>
+  </si>
+  <si>
+    <t>50T 마감재(실버) 역모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(골드) 일자 2400mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(골드) 모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(골드) 역모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(블랙) 일자 2400mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(블랙) 모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(블랙) 역모서리 300mm</t>
+  </si>
+  <si>
+    <t>에버롤 1x10m (1롤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/61.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/3.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/4.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/17.jpg?raw=true</t>
   </si>
 </sst>
 </file>
@@ -3023,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0F6C0-818E-4F46-886B-A324E86407FA}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3591,17 +3716,33 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="7" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C62" r:id="rId1" xr:uid="{AA44E079-4BF9-4E2D-8433-E9076C55BC7E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECAAD47-0230-4AE7-98BF-12AAB34931EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B07383-1660-4A79-94B4-136B7CC3B622}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -4233,7 +4374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49FA69-C3D6-4C48-94B8-65C77EC26B0E}">
   <dimension ref="A1:C151"/>
   <sheetViews>
@@ -5014,7 +5155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0439778-6087-4EC2-9E54-C36465E20AFC}">
   <dimension ref="A1:C162"/>
   <sheetViews>
@@ -5850,7 +5991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
@@ -6484,4 +6625,265 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D717140-71E3-4387-B263-2EAE76897369}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="104.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>665</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>666</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>670</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>671</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>672</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C6A812BD-6B9B-46D8-841C-E92058CA0223}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{93DDE169-202A-4D56-9FBC-1480BE6F05D4}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true" xr:uid="{20559A6A-7977-4A9F-A3AB-20E1825E7DE3}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true" xr:uid="{F798E891-34A0-4C70-B64C-44AF0ABAD379}"/>
+    <hyperlink ref="C8" r:id="rId5" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true" xr:uid="{3C622B3C-45C6-43F9-B757-C8022E9011A0}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true" xr:uid="{1D34DC53-FCE7-4A5F-B2F0-7B0F59E00A0D}"/>
+    <hyperlink ref="C12" r:id="rId7" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true" xr:uid="{8B26FC89-5F61-4523-BB94-E88721A75C09}"/>
+    <hyperlink ref="C14" r:id="rId8" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true" xr:uid="{24807E20-02A5-4D0C-9F23-03A394A13B74}"/>
+    <hyperlink ref="C16" r:id="rId9" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true" xr:uid="{8A3CA73E-7849-4720-A5BC-4C01FF527090}"/>
+    <hyperlink ref="C18" r:id="rId10" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{BB4FF11A-225A-41A9-AB20-1DB71D0737FE}"/>
+    <hyperlink ref="C5" r:id="rId11" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{15D6AB17-A18A-4983-969C-0A8D0B520C1E}"/>
+    <hyperlink ref="C7" r:id="rId12" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{57D1E6C2-6A64-4240-9121-2F5F3C6D1EF9}"/>
+    <hyperlink ref="C9" r:id="rId13" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{E9943331-44FB-4E71-87A6-44DC560E7782}"/>
+    <hyperlink ref="C11" r:id="rId14" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{B94E731C-9635-4D23-83C2-05056AF18C79}"/>
+    <hyperlink ref="C13" r:id="rId15" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{49D7F9B5-0F5E-4A84-B80A-B4E361DF230F}"/>
+    <hyperlink ref="C15" r:id="rId16" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{F816808A-211A-411C-931E-3CF56AD22AE5}"/>
+    <hyperlink ref="C17" r:id="rId17" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true" xr:uid="{53A27BB9-FD16-4AB5-9CE2-BBDC148B3D1B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AFEC8E-FB48-43A5-A948-B5E5D3F0E2F8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="47.125" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822169-A351-4B2E-8F96-DE188C2AE8CE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="42.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/product.xlsx
+++ b/product.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED086F-CE4F-4FE9-AAFF-194B3DC3CF74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F6966-6C4D-4EA8-B3E2-6A2D8BD6F189}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="480" windowWidth="27855" windowHeight="14835" activeTab="6" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="6375" yWindow="450" windowWidth="27855" windowHeight="14835" activeTab="1" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="개선" sheetId="2" r:id="rId3"/>
-    <sheet name="엠지스포츠" sheetId="3" r:id="rId4"/>
-    <sheet name="렉스코" sheetId="4" r:id="rId5"/>
-    <sheet name="뉴텍" sheetId="5" r:id="rId6"/>
-    <sheet name="고무블럭" sheetId="7" r:id="rId7"/>
-    <sheet name="에버롤" sheetId="8" r:id="rId8"/>
-    <sheet name="덤벨" sheetId="9" r:id="rId9"/>
+    <sheet name="개선" sheetId="2" r:id="rId2"/>
+    <sheet name="엠지스포츠" sheetId="3" r:id="rId3"/>
+    <sheet name="렉스코" sheetId="4" r:id="rId4"/>
+    <sheet name="뉴텍" sheetId="5" r:id="rId5"/>
+    <sheet name="고무블럭" sheetId="7" r:id="rId6"/>
+    <sheet name="에버롤" sheetId="8" r:id="rId7"/>
+    <sheet name="덤벨" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3730,24 +3729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECAAD47-0230-4AE7-98BF-12AAB34931EF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B07383-1660-4A79-94B4-136B7CC3B622}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4374,7 +4360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49FA69-C3D6-4C48-94B8-65C77EC26B0E}">
   <dimension ref="A1:C151"/>
   <sheetViews>
@@ -5155,7 +5141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0439778-6087-4EC2-9E54-C36465E20AFC}">
   <dimension ref="A1:C162"/>
   <sheetViews>
@@ -5991,7 +5977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
@@ -6627,12 +6613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D717140-71E3-4387-B263-2EAE76897369}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6814,7 +6800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AFEC8E-FB48-43A5-A948-B5E5D3F0E2F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -6851,7 +6837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822169-A351-4B2E-8F96-DE188C2AE8CE}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F6966-6C4D-4EA8-B3E2-6A2D8BD6F189}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A12D0D-FD60-4F5E-8A54-FBE24F1408E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="450" windowWidth="27855" windowHeight="14835" activeTab="1" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="5760" yWindow="480" windowWidth="27855" windowHeight="14835" activeTab="2" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="814">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2713,6 +2713,372 @@
   </si>
   <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/4.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/18.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/19.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/20.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/21.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/22.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/23.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/24.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/25.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/26.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/27.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/28.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/29.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/30.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/31.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/32.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/33.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/34.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/35.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/36.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/37.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/38.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/39.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/40.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/41.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/42.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/43.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/44.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/45.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/46.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/47.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/48.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/49.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/50.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/51.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/52.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/53.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/54.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/55.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/56.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/57.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/58.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/59.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/60.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/61.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/62.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/63.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/64.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/65.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/66.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/67.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/68.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/69.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/70.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/71.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/72.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/73.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/74.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/75.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/76.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/77.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/78.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/79.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/80.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/81.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/82.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/83.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/84.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/85.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/86.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/87.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/88.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/89.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/90.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/91.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/92.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/93.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/94.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/95.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/96.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/97.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/98.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/99.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/100.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/101.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/102.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/103.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/104.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/105.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/106.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/107.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/108.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/109.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/110.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/111.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/112.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/113.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/114.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/115.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/116.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/117.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/118.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/119.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/120.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/121.jpg?raw=true</t>
   </si>
 </sst>
 </file>
@@ -3732,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B07383-1660-4A79-94B4-136B7CC3B622}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4364,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49FA69-C3D6-4C48-94B8-65C77EC26B0E}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5981,14 +6347,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.625" customWidth="1"/>
     <col min="2" max="2" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="117.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -6006,609 +6373,1095 @@
       <c r="A2" s="2" t="s">
         <v>471</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>474</v>
       </c>
+      <c r="C5" s="7" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="C6" s="7" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="C7" s="7" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="C9" s="7" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>481</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>483</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>484</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C39" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C40" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C41" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C45" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C48" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C49" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C50" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C51" s="7" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C52" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C53" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C55" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C57" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C59" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C60" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C61" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C62" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C63" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C64" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C65" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C66" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C67" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C68" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C69" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C70" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C71" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C72" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C74" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C75" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C77" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C78" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C79" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C80" s="7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C81" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C82" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C83" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C84" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C85" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C86" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C87" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C88" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C89" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C90" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C91" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C92" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C93" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C94" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C95" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C96" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C97" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C98" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C99" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C100" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C101" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C102" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C103" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C104" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C105" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C106" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C107" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C108" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C109" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C110" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C111" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C112" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C113" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C114" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C115" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C116" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C117" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C118" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C119" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C120" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C121" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>591</v>
       </c>
+      <c r="C122" s="7" t="s">
+        <v>813</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9ACC315A-3751-4757-9E69-3ADFCB9D9A51}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E88186CB-B48E-446A-B234-8695DAC13831}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{34323A21-C9BD-4ECB-8D5D-FECF0A98297E}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B0E49AF4-3298-4A5B-B65F-11C0D72CEEE0}"/>
+    <hyperlink ref="C8" r:id="rId5" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{1474BFFA-0B95-4B6E-A7B1-4DE154078DC3}"/>
+    <hyperlink ref="C11" r:id="rId6" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{A9195C19-9828-4961-9846-098D3C37CEE7}"/>
+    <hyperlink ref="C14" r:id="rId7" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{E93F5699-E4EF-4F0B-82F1-C36F67CDC50D}"/>
+    <hyperlink ref="C17" r:id="rId8" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{A0621FE2-3DB0-48E3-AF62-255869D026AD}"/>
+    <hyperlink ref="C20" r:id="rId9" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B9E8C883-9123-4667-BDB1-BB3D5EDBA6B3}"/>
+    <hyperlink ref="C23" r:id="rId10" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{F3347E73-CEE3-4FC7-ABD7-4D786407C305}"/>
+    <hyperlink ref="C26" r:id="rId11" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{49A04990-72F2-45C8-8C73-5F3940DC0100}"/>
+    <hyperlink ref="C29" r:id="rId12" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{9AB57346-FFC3-4047-A6C0-51A578654C5C}"/>
+    <hyperlink ref="C32" r:id="rId13" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{43E6020D-1A2D-4BFA-891E-EEB2CDF9315F}"/>
+    <hyperlink ref="C35" r:id="rId14" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{3A24C125-977E-4A2D-9FBA-1289B32B34B4}"/>
+    <hyperlink ref="C38" r:id="rId15" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B7B8B819-3662-45DB-84FB-C6CE39311D18}"/>
+    <hyperlink ref="C41" r:id="rId16" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{BD1EF33A-9670-4A92-B282-81C94D3D4D1C}"/>
+    <hyperlink ref="C44" r:id="rId17" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{653A937C-38F5-451B-A120-07BF6118FC70}"/>
+    <hyperlink ref="C47" r:id="rId18" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B146E3E6-8A53-4B3B-94D9-BA0536685EC8}"/>
+    <hyperlink ref="C50" r:id="rId19" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{D987F8DB-AC4D-4C62-B140-A437959016AB}"/>
+    <hyperlink ref="C53" r:id="rId20" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{0AB2798F-8C7D-4B41-B444-B73896CD56F1}"/>
+    <hyperlink ref="C56" r:id="rId21" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{4FEA4895-8B71-4AFC-8CD5-07E335F1AA49}"/>
+    <hyperlink ref="C59" r:id="rId22" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{37AFB607-1ABE-42A8-980A-66B44F84F9AB}"/>
+    <hyperlink ref="C62" r:id="rId23" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{D4AC4DEC-943C-4C2C-AE91-B97315A108A3}"/>
+    <hyperlink ref="C65" r:id="rId24" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{81EDF490-0876-48DB-83C5-64C47C29CCE8}"/>
+    <hyperlink ref="C68" r:id="rId25" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{EF25D314-3CD6-4555-A693-8C7838B39A23}"/>
+    <hyperlink ref="C71" r:id="rId26" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{16F437D7-0375-4C8C-A1B8-B2862561A7AD}"/>
+    <hyperlink ref="C74" r:id="rId27" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{BD7ADAAF-0437-42E2-B30F-E4B2138A6577}"/>
+    <hyperlink ref="C77" r:id="rId28" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{28EAF183-900F-4D43-8704-4ACF6B42AD1D}"/>
+    <hyperlink ref="C80" r:id="rId29" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{82C0929D-4715-445B-B74C-724125F5FF7F}"/>
+    <hyperlink ref="C83" r:id="rId30" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{35913DDA-723B-4907-9621-BB4E186B21F6}"/>
+    <hyperlink ref="C86" r:id="rId31" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{50F08F36-BFDB-451A-81F0-060290A6335D}"/>
+    <hyperlink ref="C89" r:id="rId32" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{44E50B6C-0AF1-47BB-B513-99B0DB425E01}"/>
+    <hyperlink ref="C92" r:id="rId33" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{9D15DAE2-39FF-47EF-973D-80E5D3EA12FE}"/>
+    <hyperlink ref="C95" r:id="rId34" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{32D0F0ED-7119-49F7-BA30-CF661E3DDDDC}"/>
+    <hyperlink ref="C98" r:id="rId35" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{2BF76DB9-B1D8-4B6C-A3F5-F52FEAB9CA94}"/>
+    <hyperlink ref="C101" r:id="rId36" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{51C84B01-7BA8-424D-8611-9B36A42C1FB2}"/>
+    <hyperlink ref="C104" r:id="rId37" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{4311B5FE-C300-417F-90A5-6E75444BD490}"/>
+    <hyperlink ref="C107" r:id="rId38" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{F79299D0-8DD7-4AE1-BA93-1818F8A31C98}"/>
+    <hyperlink ref="C110" r:id="rId39" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{7874A9E2-81F6-44FC-924B-F1A0613AAEF1}"/>
+    <hyperlink ref="C113" r:id="rId40" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{8DE79EDB-EDE0-4E6D-BEBF-426775B9F9B4}"/>
+    <hyperlink ref="C116" r:id="rId41" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{BC99BE56-4DD1-41FB-9CCC-E796F4FF6D21}"/>
+    <hyperlink ref="C119" r:id="rId42" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{6DAE31E2-93DC-419E-8FED-2892202CB4DB}"/>
+    <hyperlink ref="C122" r:id="rId43" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{FD6F523D-2ECA-491B-8EAB-654645D0337A}"/>
+    <hyperlink ref="C6" r:id="rId44" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{048B47CB-709C-4DCA-8F49-F05F17464307}"/>
+    <hyperlink ref="C9" r:id="rId45" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FD245DFF-57F0-44B8-9A8B-B6BE0C69522C}"/>
+    <hyperlink ref="C12" r:id="rId46" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{9FC1B671-F7FC-4366-AF9A-B6B495E73E4C}"/>
+    <hyperlink ref="C15" r:id="rId47" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FA831A9D-CFC3-4EE2-B404-64D9FE7F38B1}"/>
+    <hyperlink ref="C18" r:id="rId48" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{26C0F2A3-67A9-4FEA-88FE-08430D689BEB}"/>
+    <hyperlink ref="C21" r:id="rId49" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{7BDF2811-3242-444D-BC88-79DDEB9D9E03}"/>
+    <hyperlink ref="C24" r:id="rId50" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{92CB0AAC-0CAF-42CC-BD4C-22138FE2A3DC}"/>
+    <hyperlink ref="C27" r:id="rId51" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8A157B52-FDC7-45FD-8E20-152C116B864B}"/>
+    <hyperlink ref="C30" r:id="rId52" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{7488EC66-4392-4272-920D-D7BE0AFEC176}"/>
+    <hyperlink ref="C33" r:id="rId53" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B9104B09-6F42-4BA4-8BE5-68C80F8F79B9}"/>
+    <hyperlink ref="C36" r:id="rId54" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{95D27800-7AA8-46BC-931C-E5251B10F7E3}"/>
+    <hyperlink ref="C39" r:id="rId55" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{D2BB0AEA-D85F-4476-A620-01B93063121D}"/>
+    <hyperlink ref="C42" r:id="rId56" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C7FDC944-7511-4EB7-A40C-C902C217239D}"/>
+    <hyperlink ref="C45" r:id="rId57" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8BE11E2E-9F07-4DBD-B5FA-0FCCEA6ACC83}"/>
+    <hyperlink ref="C48" r:id="rId58" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{E8B03737-DF81-4F07-B713-F4D2F1EFB25B}"/>
+    <hyperlink ref="C51" r:id="rId59" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{4FAB1834-7B98-4791-9B82-F9474AA88788}"/>
+    <hyperlink ref="C54" r:id="rId60" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{7B96ACEA-A1B2-4AEC-8BE3-AE5A480BFAC3}"/>
+    <hyperlink ref="C57" r:id="rId61" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8BAA9540-62A6-4E95-BCEB-DF03A47F355A}"/>
+    <hyperlink ref="C60" r:id="rId62" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C7B87CF4-B3CB-4DB4-BE3C-F14F23FF9BA5}"/>
+    <hyperlink ref="C63" r:id="rId63" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B244C1C8-B314-4A44-88B4-F37062276768}"/>
+    <hyperlink ref="C66" r:id="rId64" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{93DDC2DF-B3B7-4007-A553-4E4DB9FF4082}"/>
+    <hyperlink ref="C69" r:id="rId65" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B0E0A7D8-1E3E-4700-9A2E-9B6E01A04FE1}"/>
+    <hyperlink ref="C72" r:id="rId66" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{87FFAACD-6236-4AA4-96FE-7410DDBB6054}"/>
+    <hyperlink ref="C75" r:id="rId67" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{4B47D633-6EDD-44AC-95C5-3D2F68A851AD}"/>
+    <hyperlink ref="C78" r:id="rId68" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8DBF2357-21F8-4BF9-996C-FF20A6EC37B1}"/>
+    <hyperlink ref="C81" r:id="rId69" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C10B04E5-7716-4BB2-A18F-82E340A9FEB7}"/>
+    <hyperlink ref="C84" r:id="rId70" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{3CF730EB-3B4E-479F-A5B2-B7399F5605D0}"/>
+    <hyperlink ref="C87" r:id="rId71" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{AFF31D43-515F-4BDE-B112-1AB97F35412E}"/>
+    <hyperlink ref="C90" r:id="rId72" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FE1065EF-E8CB-4D96-A9A1-D80742C68E1B}"/>
+    <hyperlink ref="C93" r:id="rId73" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{11FFBFCA-828D-4EB0-ACBE-B0B920720192}"/>
+    <hyperlink ref="C96" r:id="rId74" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{A4215493-D2C6-4AC7-B84E-91667F9EFBAB}"/>
+    <hyperlink ref="C99" r:id="rId75" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{61AB7617-7396-47ED-BAD0-CCE388B933A4}"/>
+    <hyperlink ref="C102" r:id="rId76" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{1ED77025-FD39-475D-A83D-060746F0F521}"/>
+    <hyperlink ref="C105" r:id="rId77" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FEEDCB09-C426-4F5B-A1F0-AB7E0F16354D}"/>
+    <hyperlink ref="C108" r:id="rId78" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{D69BDE7F-876C-4546-A65C-0AE2256F6138}"/>
+    <hyperlink ref="C111" r:id="rId79" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C2CADBA5-B2B0-4207-88BD-16A1B48C71D2}"/>
+    <hyperlink ref="C114" r:id="rId80" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{92642BE4-782D-43DC-8448-DCDE9E9B338C}"/>
+    <hyperlink ref="C117" r:id="rId81" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B9FEB0D1-492F-41BC-BC1A-62B62C447F1E}"/>
+    <hyperlink ref="C120" r:id="rId82" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{ECD053EB-CC0A-4E2D-96A2-AF4F708AA289}"/>
+    <hyperlink ref="C7" r:id="rId83" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{61A4B5AC-CE1F-4F47-BAC2-17014D95F855}"/>
+    <hyperlink ref="C10" r:id="rId84" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{230EEF84-5FA5-4A52-AA2B-E9F49C8BAFB6}"/>
+    <hyperlink ref="C13" r:id="rId85" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{69694FCF-7C88-4B84-9593-E8316C7A7A95}"/>
+    <hyperlink ref="C16" r:id="rId86" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{0CEC22EC-70BB-47A6-9E7F-7EAAE125B9EA}"/>
+    <hyperlink ref="C19" r:id="rId87" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{F5B4E25C-5688-48FC-B960-379BFB12EFF5}"/>
+    <hyperlink ref="C22" r:id="rId88" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{D02EB6AE-1F9D-4098-8831-B6AAAD0292D6}"/>
+    <hyperlink ref="C25" r:id="rId89" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{87612836-83BE-4FCD-B0E5-2865CDF99CC4}"/>
+    <hyperlink ref="C28" r:id="rId90" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{AC1F7B08-C6E8-4DCE-833A-78879858306A}"/>
+    <hyperlink ref="C31" r:id="rId91" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{E380768E-882A-48C7-8E13-D2A7DC559E93}"/>
+    <hyperlink ref="C34" r:id="rId92" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{010BF8BC-A478-4886-A787-78C05597C569}"/>
+    <hyperlink ref="C37" r:id="rId93" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{986932C0-B689-4048-B338-CC2D2BC54145}"/>
+    <hyperlink ref="C40" r:id="rId94" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{29335EAD-B54C-415E-8181-9A4F60579386}"/>
+    <hyperlink ref="C43" r:id="rId95" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{60B5F77D-8F44-4659-ABB4-4C1ED05F6E3A}"/>
+    <hyperlink ref="C46" r:id="rId96" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{E52AC57A-BE8F-4076-A1EE-9C326E7875D5}"/>
+    <hyperlink ref="C49" r:id="rId97" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{1DFB5EAD-6B83-4C6C-BDFF-932EFD2D1A47}"/>
+    <hyperlink ref="C52" r:id="rId98" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{1BE5D112-3B01-429C-A6B8-E4F8FFDDAF09}"/>
+    <hyperlink ref="C55" r:id="rId99" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{5BE094E6-F5D2-411B-B93E-0729D50D6F5E}"/>
+    <hyperlink ref="C58" r:id="rId100" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{A7DB73A4-5AB7-4417-A5D4-DE9AEBFD1767}"/>
+    <hyperlink ref="C61" r:id="rId101" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{05A4B1E3-15FD-4CC9-93F0-9CFF15DAFFE1}"/>
+    <hyperlink ref="C64" r:id="rId102" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{D12AB497-01FD-482F-A0A5-7F5800FCE8D3}"/>
+    <hyperlink ref="C67" r:id="rId103" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{9B99A616-6A44-4AF3-9BA7-F8C5F8F78507}"/>
+    <hyperlink ref="C70" r:id="rId104" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{4152B6ED-DCED-4533-AA1F-C1BDD7019681}"/>
+    <hyperlink ref="C73" r:id="rId105" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{1270F80E-11C7-4123-A29E-77D055EC9A1A}"/>
+    <hyperlink ref="C76" r:id="rId106" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{65B4C6D5-0C87-48D8-A6D5-84DF9A8DD02E}"/>
+    <hyperlink ref="C79" r:id="rId107" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{60A77885-3758-4192-83FE-9A1EFE611496}"/>
+    <hyperlink ref="C82" r:id="rId108" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{9D67976E-30FD-4BFD-8EA4-A84985323858}"/>
+    <hyperlink ref="C85" r:id="rId109" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{EC515CDC-6DF9-493A-BDBF-F22A94704369}"/>
+    <hyperlink ref="C88" r:id="rId110" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{4832038F-5B57-456D-B164-08E6B4960024}"/>
+    <hyperlink ref="C91" r:id="rId111" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{EC2D0268-8555-4678-958E-60299EEA843C}"/>
+    <hyperlink ref="C94" r:id="rId112" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{5D0EBAC0-8004-4CE7-9E15-F36C39035727}"/>
+    <hyperlink ref="C97" r:id="rId113" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{7C422AE6-06D9-4703-95B4-0B099803C8E2}"/>
+    <hyperlink ref="C100" r:id="rId114" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{CEC51637-599B-4D4A-9386-597085ED2758}"/>
+    <hyperlink ref="C103" r:id="rId115" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{2087EF4D-4E9D-48E8-87B4-7624BDE9B619}"/>
+    <hyperlink ref="C106" r:id="rId116" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{E1AF75A3-E0C1-46CA-A073-481F71210BD1}"/>
+    <hyperlink ref="C109" r:id="rId117" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{C5E572B3-E61F-43F9-B2DC-364DF71868F7}"/>
+    <hyperlink ref="C112" r:id="rId118" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{8EF40923-186E-4E9F-B410-CF6656891E4D}"/>
+    <hyperlink ref="C115" r:id="rId119" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{59CF7736-0EF8-4702-ACEC-2EAE4E5677BC}"/>
+    <hyperlink ref="C118" r:id="rId120" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{138AE6F7-C3D3-4010-B0A3-6C39A094456E}"/>
+    <hyperlink ref="C121" r:id="rId121" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{BE9B4865-DDCD-45DD-B9B0-7ACEDD77FBC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 테스트 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A12D0D-FD60-4F5E-8A54-FBE24F1408E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7430896B-F2C1-4AA8-9530-941DE3927FB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="480" windowWidth="27855" windowHeight="14835" activeTab="2" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="5760" yWindow="480" windowWidth="27855" windowHeight="14835" activeTab="5" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="엠지스포츠" sheetId="3" r:id="rId3"/>
     <sheet name="렉스코" sheetId="4" r:id="rId4"/>
     <sheet name="뉴텍" sheetId="5" r:id="rId5"/>
-    <sheet name="고무블럭" sheetId="7" r:id="rId6"/>
+    <sheet name="고무블럭,마감재" sheetId="7" r:id="rId6"/>
     <sheet name="에버롤" sheetId="8" r:id="rId7"/>
     <sheet name="덤벨" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -4730,7 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49FA69-C3D6-4C48-94B8-65C77EC26B0E}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -7470,8 +7470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D717140-71E3-4387-B263-2EAE76897369}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\고핏 견적서 사이트 완성2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7610D04-2224-4003-BC4F-29284774C4F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A6F94-FF87-4D6E-8F80-566ED60000EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="240" windowWidth="29730" windowHeight="14835" activeTab="1" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="7455" yWindow="240" windowWidth="29730" windowHeight="14835" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1144">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3595,6 +3595,500 @@
   <si>
     <t>PT 400B 케이블 크로스 오버 (랙/케이블)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/18.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/19.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/20.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/21.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/22.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/23.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/24.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/25.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/26.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/27.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/28.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/29.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/30.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/31.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/32.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/33.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/34.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/35.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/36.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/37.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/38.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/39.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/40.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/41.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/42.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/43.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/44.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/45.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/46.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/47.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/48.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/49.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/50.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/51.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/52.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/53.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/54.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/55.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/56.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/57.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/58.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/59.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/60.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/61.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/62.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/63.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/64.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/65.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/66.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/67.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/68.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/69.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/70.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/71.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/72.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/73.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/74.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/75.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/76.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/77.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/78.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/79.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/80.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/81.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/82.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/83.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/84.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/85.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/86.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/87.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/88.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/89.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/90.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/91.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/92.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/93.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/94.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/95.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/96.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/97.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/98.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/99.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/100.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/101.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/102.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/103.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/104.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/105.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/106.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/107.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/108.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/109.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/110.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/111.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/112.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/113.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/114.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/115.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/116.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/117.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/118.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/119.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/120.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/121.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/122.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/123.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/124.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/125.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/126.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/127.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/128.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/129.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/130.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/131.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/132.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/133.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/134.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/135.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/136.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/137.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/138.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/139.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/140.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/141.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/142.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/143.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/144.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/145.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/146.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/147.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/148.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/149.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/150.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/151.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/152.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/153.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/154.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/155.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/156.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/157.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/158.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/159.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/160.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/161.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/162.jpg?raw=true</t>
   </si>
 </sst>
 </file>
@@ -4614,7 +5108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B07383-1660-4A79-94B4-136B7CC3B622}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
@@ -6716,16 +7210,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0439778-6087-4EC2-9E54-C36465E20AFC}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="102.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -6743,809 +7238,1464 @@
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="C5" s="7" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="C6" s="7" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="C7" s="7" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="C9" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="C28" s="7" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="C29" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="C33" s="7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="C34" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="C35" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="7" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="7" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="C40" s="7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="C41" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="C42" s="7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="C43" s="7" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="C44" s="7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="C48" s="7" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="C50" s="7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="C52" s="7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="C53" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="C54" s="7" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="C55" s="7" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="C56" s="7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="7" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="C58" s="7" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="C59" s="7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="C60" s="7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="C61" s="7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="C62" s="7" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="C64" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="C66" s="7" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="C67" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="C68" s="7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="C69" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="C70" s="7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="C71" s="7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="C72" s="7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="C73" s="7" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="C74" s="7" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="C75" s="7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="C76" s="7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="C77" s="7" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="C78" s="7" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="C79" s="7" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="C80" s="7" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="C81" s="7" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="C82" s="7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="C83" s="7" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="C84" s="7" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="C85" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="C86" s="7" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="C87" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="C88" s="7" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="C89" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="C90" s="7" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="C91" s="7" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="C92" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="C93" s="7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="C94" s="7" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="C95" s="7" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="C96" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="C97" s="7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+      <c r="C98" s="7" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="C99" s="7" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="C100" s="7" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="C101" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="C102" s="7" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+      <c r="C103" s="7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="C104" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="C105" s="7" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="C106" s="7" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="C107" s="7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="C108" s="7" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="C109" s="7" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="C110" s="7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="C111" s="7" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="C112" s="7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="C113" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="C114" s="7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="C115" s="7" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+      <c r="C116" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="C117" s="7" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="C118" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="C119" s="7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+      <c r="C120" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="C121" s="7" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="C122" s="7" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="C123" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="C124" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="C125" s="7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="C126" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+      <c r="C127" s="7" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="C128" s="7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="C129" s="7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="C130" s="7" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="C131" s="7" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="C132" s="7" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+      <c r="C133" s="7" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="C134" s="7" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+      <c r="C135" s="7" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="C136" s="7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="C137" s="7" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="C138" s="7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="C139" s="7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="C140" s="7" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="C141" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+      <c r="C142" s="7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+      <c r="C143" s="7" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+      <c r="C144" s="7" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+      <c r="C145" s="7" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+      <c r="C146" s="7" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+      <c r="C147" s="7" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="C148" s="7" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+      <c r="C149" s="7" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="C150" s="7" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+      <c r="C151" s="7" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+      <c r="C152" s="7" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+      <c r="C153" s="7" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+      <c r="C154" s="7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+      <c r="C155" s="7" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+      <c r="C156" s="7" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+      <c r="C157" s="7" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+      <c r="C158" s="7" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
+      <c r="C159" s="7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+      <c r="C160" s="7" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+      <c r="C161" s="7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+      <c r="C162" s="7" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>371</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BA8CBE7F-583F-473F-9F06-40B5AC59A162}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{88EB0927-FF5E-4BA8-9A51-C9A1ED885241}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{69D13C9E-E887-429C-B3ED-ACF94F54FD4E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{923B579B-6498-4CF5-AEE5-418F8E331BB2}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{273CF200-1EE3-48F6-BBA1-68AACB418D43}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{5BD3A459-7ADC-4965-B6AF-C48AC321FE4E}"/>
+    <hyperlink ref="C14" r:id="rId7" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{D6EBEF80-9DE9-47E4-828C-9E81E5C5B5C9}"/>
+    <hyperlink ref="C18" r:id="rId8" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{F8794A2C-E4ED-488C-A8FC-0D2220049668}"/>
+    <hyperlink ref="C22" r:id="rId9" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{BFD898B3-1025-49C1-944C-467CC60B5833}"/>
+    <hyperlink ref="C26" r:id="rId10" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{F2E3010E-D63B-425F-B283-DDC56936ED79}"/>
+    <hyperlink ref="C30" r:id="rId11" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{82E36EE1-A817-437D-A485-1E2339631B72}"/>
+    <hyperlink ref="C34" r:id="rId12" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{6F265F5B-4858-4A5E-8718-C9FF0EB2F295}"/>
+    <hyperlink ref="C38" r:id="rId13" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{E77C0390-5AC3-43AE-9ED6-29E9292DEDBA}"/>
+    <hyperlink ref="C42" r:id="rId14" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{A9524BE8-6D1C-462E-B810-1547292E01C9}"/>
+    <hyperlink ref="C46" r:id="rId15" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{E295F635-5BFB-4ED6-9161-E9D6FDF7C840}"/>
+    <hyperlink ref="C50" r:id="rId16" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{0C3EFEDA-43E7-4970-9FEE-A8ECA2512FDD}"/>
+    <hyperlink ref="C54" r:id="rId17" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{602967DB-44E1-4AF0-9DE3-713C08C04E74}"/>
+    <hyperlink ref="C58" r:id="rId18" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{AA216772-6EC8-4F35-AED1-13748269B97A}"/>
+    <hyperlink ref="C62" r:id="rId19" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{8A2C7D19-BA1D-4CAD-A5D8-6229283CDA83}"/>
+    <hyperlink ref="C66" r:id="rId20" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{265B0D43-3297-40BD-8786-166931634997}"/>
+    <hyperlink ref="C70" r:id="rId21" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{BAECD9FD-D200-4EA5-8737-542090404D0B}"/>
+    <hyperlink ref="C74" r:id="rId22" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{914A49CA-09CB-4148-9CBB-A5A16F19E262}"/>
+    <hyperlink ref="C78" r:id="rId23" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{AC160382-3302-407F-A0B0-CC91B7E26936}"/>
+    <hyperlink ref="C82" r:id="rId24" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{68495518-0A97-4831-A4AB-A87D620EE3B5}"/>
+    <hyperlink ref="C86" r:id="rId25" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{C8447B43-CC43-4D9D-B922-A02DF35EE081}"/>
+    <hyperlink ref="C90" r:id="rId26" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{44734EAA-9746-47C7-9CF9-327867D5D7DA}"/>
+    <hyperlink ref="C94" r:id="rId27" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{9AA462FA-49A2-47E2-BC18-D7E89B67CF5A}"/>
+    <hyperlink ref="C98" r:id="rId28" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{48EFDF11-2BF7-4274-86C0-B325490E4DB2}"/>
+    <hyperlink ref="C102" r:id="rId29" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{EC4CF964-68A1-484A-807F-4D71D51B63EE}"/>
+    <hyperlink ref="C106" r:id="rId30" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{DEBCFA95-50A2-4559-8704-BA774947E5E8}"/>
+    <hyperlink ref="C110" r:id="rId31" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{2418B6B7-828A-4E4E-B02E-165CED102997}"/>
+    <hyperlink ref="C114" r:id="rId32" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{BC681D59-5119-4BB0-8823-8D791DF62872}"/>
+    <hyperlink ref="C118" r:id="rId33" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{A223A3AA-395D-4A70-89E7-F135F1542493}"/>
+    <hyperlink ref="C122" r:id="rId34" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{0FB23E60-BAE2-4C32-887F-055512F3032E}"/>
+    <hyperlink ref="C126" r:id="rId35" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{11AF76FE-544F-4AC8-8FA4-3C2EED98C035}"/>
+    <hyperlink ref="C130" r:id="rId36" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{CCA2DD56-D08D-4792-89F2-A7F126BDC951}"/>
+    <hyperlink ref="C134" r:id="rId37" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{98690AA3-7591-4C90-AC76-1E7460AF56BE}"/>
+    <hyperlink ref="C138" r:id="rId38" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{13B70ADB-ABF4-435F-B56B-FE99ABEC7DDA}"/>
+    <hyperlink ref="C142" r:id="rId39" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{CEDFB79B-AF8D-498C-ADBA-57917BD9287C}"/>
+    <hyperlink ref="C146" r:id="rId40" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{013C3753-137B-4385-8089-1DA586C30201}"/>
+    <hyperlink ref="C150" r:id="rId41" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{978AAB9B-7C53-409A-BDDB-7D841A412992}"/>
+    <hyperlink ref="C154" r:id="rId42" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{81D7B3DC-E37C-4E01-A170-2F24C985B424}"/>
+    <hyperlink ref="C158" r:id="rId43" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{63A7CC5D-889B-434B-8C6A-76B096CCC4A5}"/>
+    <hyperlink ref="C162" r:id="rId44" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true" xr:uid="{9F50810F-44A5-4204-9F84-41569D946919}"/>
+    <hyperlink ref="C7" r:id="rId45" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{FB63B2E3-8AEE-487A-A43D-7B4634AD083C}"/>
+    <hyperlink ref="C11" r:id="rId46" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{83211579-41D0-4925-BDD8-FD0CFBDA8C59}"/>
+    <hyperlink ref="C15" r:id="rId47" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{D99AE5E6-8EDD-4D96-AA51-057B9477E1DE}"/>
+    <hyperlink ref="C19" r:id="rId48" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{13CD5188-21BC-4366-A5B3-B004E2C67D23}"/>
+    <hyperlink ref="C23" r:id="rId49" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{F6B9CB55-A2E9-43BE-B150-5D7C6AEBDB41}"/>
+    <hyperlink ref="C27" r:id="rId50" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{B1892FD8-D911-4575-9B3C-2ED617883F67}"/>
+    <hyperlink ref="C31" r:id="rId51" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{1E05F42B-9F46-48F6-8303-D797EBCD9E9C}"/>
+    <hyperlink ref="C35" r:id="rId52" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{5E3BB578-A4F0-4654-8740-047736C55A99}"/>
+    <hyperlink ref="C39" r:id="rId53" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{18A4208E-A572-4AAE-AFF8-07FDD73E1057}"/>
+    <hyperlink ref="C43" r:id="rId54" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{0F2ED6F6-5667-4D52-A76C-98018F0AB8DF}"/>
+    <hyperlink ref="C47" r:id="rId55" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{4BD42136-57ED-4494-BF81-0E7F7BCA727A}"/>
+    <hyperlink ref="C51" r:id="rId56" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{50E198CA-476F-4B63-869E-860EFBE997CC}"/>
+    <hyperlink ref="C55" r:id="rId57" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{88AF9F9B-1E9A-4700-A475-7C5AEA278454}"/>
+    <hyperlink ref="C59" r:id="rId58" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{FD823738-960B-428C-AE19-AE4E63188D62}"/>
+    <hyperlink ref="C63" r:id="rId59" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{87E20BF8-7236-4EDE-8B0F-29DE3D1E3ACA}"/>
+    <hyperlink ref="C67" r:id="rId60" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{8B01AED8-A731-4D90-9D46-7E42F96582F6}"/>
+    <hyperlink ref="C71" r:id="rId61" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{D8A52E80-F280-4CD1-BD11-E315752AC14A}"/>
+    <hyperlink ref="C75" r:id="rId62" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{D085D54E-ED61-4114-B0EC-58C71B165C54}"/>
+    <hyperlink ref="C79" r:id="rId63" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{EEF7FBD7-196C-448F-8B94-FBC96994B136}"/>
+    <hyperlink ref="C83" r:id="rId64" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{806439C5-20E7-4A7C-9253-7EBC0388000D}"/>
+    <hyperlink ref="C87" r:id="rId65" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{80ED2E93-D47C-4AB5-9454-93A480ECCB8F}"/>
+    <hyperlink ref="C91" r:id="rId66" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{89E1C197-AA20-4D61-B487-C0B84A630845}"/>
+    <hyperlink ref="C95" r:id="rId67" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{F4387B8F-6A1B-4CD7-BEBC-DB0572549328}"/>
+    <hyperlink ref="C99" r:id="rId68" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{91DAC223-C602-4096-BAC9-3601EEE98FA5}"/>
+    <hyperlink ref="C103" r:id="rId69" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{351FE3D3-854F-4A59-B226-682A92DCB17E}"/>
+    <hyperlink ref="C107" r:id="rId70" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{1A376CC9-2BBF-469D-8416-61194416E4FF}"/>
+    <hyperlink ref="C111" r:id="rId71" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{4FEE31AB-6269-487C-847B-5960B35A86D0}"/>
+    <hyperlink ref="C115" r:id="rId72" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{3DDABADB-8C39-4215-A6A5-53B202AD10BD}"/>
+    <hyperlink ref="C119" r:id="rId73" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{D40CB211-0E74-4AF1-8896-43701BB99E75}"/>
+    <hyperlink ref="C123" r:id="rId74" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{E3978BB0-115F-4DEC-91CD-3823F69EF9F0}"/>
+    <hyperlink ref="C127" r:id="rId75" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{BBA7943A-A642-4183-8978-ABE13F5F5313}"/>
+    <hyperlink ref="C131" r:id="rId76" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{6873D2CB-2283-49FF-8C4B-B9E945A83C54}"/>
+    <hyperlink ref="C135" r:id="rId77" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{3FE12246-273D-47BB-BE06-2A8C5BFC3D69}"/>
+    <hyperlink ref="C139" r:id="rId78" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{18485459-6424-408D-86B1-EC5B1A3C4817}"/>
+    <hyperlink ref="C143" r:id="rId79" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{5E341660-656E-4299-9200-8B2C72447F1F}"/>
+    <hyperlink ref="C147" r:id="rId80" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{BC339F08-4019-4F14-B088-3DDEC7220088}"/>
+    <hyperlink ref="C151" r:id="rId81" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{32FD1CCD-1C0C-43E4-B5C1-13956A98244C}"/>
+    <hyperlink ref="C155" r:id="rId82" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{CBB72AEF-47F1-45AF-AEA4-1E1E30EC63EF}"/>
+    <hyperlink ref="C159" r:id="rId83" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true" xr:uid="{0CE0D4E3-4AEF-4A86-B1B2-4A62BA6D60E7}"/>
+    <hyperlink ref="C163" r:id="rId84" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{D1328806-F502-4E7D-94CE-4AB0B32EFE22}"/>
+    <hyperlink ref="C8" r:id="rId85" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{6EF00936-B3B5-4A20-99E3-28FBD3EF387E}"/>
+    <hyperlink ref="C12" r:id="rId86" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{E5837B77-6F2E-4D77-885C-B32D450CB18A}"/>
+    <hyperlink ref="C16" r:id="rId87" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{212201DE-5EF5-4668-AF78-4F6139F1B57E}"/>
+    <hyperlink ref="C20" r:id="rId88" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{5986FB98-E749-4A96-8818-DFA449A4E1A5}"/>
+    <hyperlink ref="C24" r:id="rId89" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{D63924E6-DFBD-4A79-8A69-7786CAD88BAE}"/>
+    <hyperlink ref="C28" r:id="rId90" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{E357A156-C9C8-4541-A8E6-8048E9A0CFDF}"/>
+    <hyperlink ref="C32" r:id="rId91" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{01A64FC1-E42B-41D6-B785-21B87F4F7C12}"/>
+    <hyperlink ref="C36" r:id="rId92" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{FF155235-F2F9-41E6-8767-C26AC5EB14B3}"/>
+    <hyperlink ref="C40" r:id="rId93" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{41BA4492-07BA-439C-A21E-6DC4598C0C40}"/>
+    <hyperlink ref="C44" r:id="rId94" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{45505260-4657-45B4-BADF-B148E950F781}"/>
+    <hyperlink ref="C48" r:id="rId95" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{E3A690AD-1BEB-4B95-ABEF-1A72034180CC}"/>
+    <hyperlink ref="C52" r:id="rId96" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{A322FF04-D7B0-4925-841D-D966AF645056}"/>
+    <hyperlink ref="C56" r:id="rId97" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{B1800AB1-0B4C-4AF5-B56D-BF111FE12004}"/>
+    <hyperlink ref="C60" r:id="rId98" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{FA82ADFC-F180-4485-A4B0-A5396ECBE727}"/>
+    <hyperlink ref="C64" r:id="rId99" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{03DA934B-0729-4114-A187-E4A7BDF33F1B}"/>
+    <hyperlink ref="C68" r:id="rId100" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{44F99796-BE01-4B40-8A1F-01BC525E426C}"/>
+    <hyperlink ref="C72" r:id="rId101" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{0A30E680-7620-4425-8DF7-262061430084}"/>
+    <hyperlink ref="C76" r:id="rId102" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{A4C23E14-D99C-4EED-8609-70DC5A3503CB}"/>
+    <hyperlink ref="C80" r:id="rId103" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{7A4DAE6D-C2A8-4E96-8BD1-6C4B9C0AEEB1}"/>
+    <hyperlink ref="C84" r:id="rId104" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{7D08FE79-1AB7-49E0-ADC0-26D627DFE5F3}"/>
+    <hyperlink ref="C88" r:id="rId105" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{4EA6BF98-B87F-410F-84FC-F25C24B0EF1B}"/>
+    <hyperlink ref="C92" r:id="rId106" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{84A7264D-67ED-4CEF-85D6-466FF22610E8}"/>
+    <hyperlink ref="C96" r:id="rId107" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{9C77EB2A-9CB6-406F-A3C7-487DAA58EF03}"/>
+    <hyperlink ref="C100" r:id="rId108" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{B3D0F6E1-2B47-436D-840C-3D989E0F4BFB}"/>
+    <hyperlink ref="C104" r:id="rId109" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{1EF2497F-444F-4D9A-B045-390E922690B7}"/>
+    <hyperlink ref="C108" r:id="rId110" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{FE52676F-3B34-45C2-9412-0E60B928BCDA}"/>
+    <hyperlink ref="C112" r:id="rId111" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{8020DBC2-A110-41B0-BA24-F79463A13E9B}"/>
+    <hyperlink ref="C116" r:id="rId112" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{B24FFBF7-0A7E-45E3-BB03-9ACB4B5765B3}"/>
+    <hyperlink ref="C120" r:id="rId113" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{198A0E5D-49AB-44CA-B528-FAC93AF77301}"/>
+    <hyperlink ref="C124" r:id="rId114" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{79D1BDFC-07F0-441B-97A8-09B48CCD6A4D}"/>
+    <hyperlink ref="C128" r:id="rId115" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{689FB75C-2142-403D-9658-4126A4DA9A53}"/>
+    <hyperlink ref="C132" r:id="rId116" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{78DED8AA-10FC-4AE1-9574-2DA86982DFE4}"/>
+    <hyperlink ref="C136" r:id="rId117" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{FAAB73CF-CACD-4337-A053-1A4556B344AA}"/>
+    <hyperlink ref="C140" r:id="rId118" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{1AB8DB8D-F2EC-44A9-8714-8DB41541AF47}"/>
+    <hyperlink ref="C144" r:id="rId119" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{CA76BC69-8A2F-4603-8C9B-CC55900F863E}"/>
+    <hyperlink ref="C148" r:id="rId120" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{223EE83B-A170-4107-A05D-5FCD66EDD91D}"/>
+    <hyperlink ref="C152" r:id="rId121" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{CD5D83C1-9373-41A4-B573-F87298D9D9B5}"/>
+    <hyperlink ref="C156" r:id="rId122" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{41547351-B908-476D-9FC6-35FE2F753BB7}"/>
+    <hyperlink ref="C160" r:id="rId123" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{5A0C974F-C859-4904-9664-38A13531533C}"/>
+    <hyperlink ref="C9" r:id="rId124" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{6C6BB89E-124B-4AE7-811E-6E85E175F21A}"/>
+    <hyperlink ref="C13" r:id="rId125" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{19D70AFB-D573-46A0-8763-18362D339300}"/>
+    <hyperlink ref="C17" r:id="rId126" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{8A5DEA30-1B06-4EA2-ABDF-5368EF430735}"/>
+    <hyperlink ref="C21" r:id="rId127" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{F1AB41AA-D0E5-45B6-8B5B-209E585AC005}"/>
+    <hyperlink ref="C25" r:id="rId128" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{9A14CFAC-675B-46C1-A0CF-505B2A53559B}"/>
+    <hyperlink ref="C29" r:id="rId129" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{9E484A96-AE76-44D5-801D-A6E80E7668B7}"/>
+    <hyperlink ref="C33" r:id="rId130" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{D23F6E4B-02C4-43F8-8461-4C9A7086A858}"/>
+    <hyperlink ref="C37" r:id="rId131" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{0279D27E-D922-4A26-80AE-0F3B90D586CC}"/>
+    <hyperlink ref="C41" r:id="rId132" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{C6DDBF03-4339-4407-A100-7F980F81F03C}"/>
+    <hyperlink ref="C45" r:id="rId133" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{8A69EE55-FCDD-4D85-8237-FA1124AD452C}"/>
+    <hyperlink ref="C49" r:id="rId134" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{DF02BD91-02B5-406C-88A4-BA76D5FE7B3D}"/>
+    <hyperlink ref="C53" r:id="rId135" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{34B4FB1E-33DF-4DB2-A63F-4E9A859909FA}"/>
+    <hyperlink ref="C57" r:id="rId136" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{B676850C-26E4-436B-A4DA-71BD45D64260}"/>
+    <hyperlink ref="C61" r:id="rId137" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{C717E1B5-29F2-4A65-9D83-F0A36D8D97C0}"/>
+    <hyperlink ref="C65" r:id="rId138" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{19E66D93-EAA5-4787-A9F8-E305A14A43A6}"/>
+    <hyperlink ref="C69" r:id="rId139" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{D390A8EF-BE79-4D95-9B4B-CCE4480BC8F5}"/>
+    <hyperlink ref="C73" r:id="rId140" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{373CEFF2-18FE-4EFC-A612-A945F0D66935}"/>
+    <hyperlink ref="C77" r:id="rId141" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{5B88E23E-4298-4062-8C4B-F693573EA162}"/>
+    <hyperlink ref="C81" r:id="rId142" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{BD096CCD-1F44-4300-A40E-EAA25DE03B2D}"/>
+    <hyperlink ref="C85" r:id="rId143" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{D550E6B8-4A4C-4B95-94E4-B014200E0FBD}"/>
+    <hyperlink ref="C89" r:id="rId144" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{87F0AFCB-ED8B-46C8-B0F4-39157564F9EA}"/>
+    <hyperlink ref="C93" r:id="rId145" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{3606CCA3-2CD2-479B-81F1-27EA060AFD3A}"/>
+    <hyperlink ref="C97" r:id="rId146" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{F3E82009-574F-4B59-9E20-57CF645D0CE2}"/>
+    <hyperlink ref="C101" r:id="rId147" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{B36B906A-3F43-4385-8FC4-D986CE28D031}"/>
+    <hyperlink ref="C105" r:id="rId148" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{62B0E28A-4DC9-475A-9FC0-2D6F6C4237E8}"/>
+    <hyperlink ref="C109" r:id="rId149" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{FE122E20-4700-4E74-A551-FA2C6DA8F541}"/>
+    <hyperlink ref="C113" r:id="rId150" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{FD51CD8F-A525-42AC-B35F-A3A26166A8EB}"/>
+    <hyperlink ref="C117" r:id="rId151" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{7CEF44C3-20F3-407D-9C16-65E4E9EE033D}"/>
+    <hyperlink ref="C121" r:id="rId152" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{8BFF3F41-81C1-4374-BA61-0BBEC867D44F}"/>
+    <hyperlink ref="C125" r:id="rId153" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{16D92635-026A-40F7-8D89-BA7EFC8861C9}"/>
+    <hyperlink ref="C129" r:id="rId154" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{11DA5CB2-54DF-45EE-AE45-41C4D9C3E252}"/>
+    <hyperlink ref="C133" r:id="rId155" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{807A2EA0-60BB-4099-BC36-D49B86622523}"/>
+    <hyperlink ref="C137" r:id="rId156" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{E43BB8D6-254F-49AB-A3CE-999372DE0B55}"/>
+    <hyperlink ref="C141" r:id="rId157" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{BB7E7227-1184-418A-94FB-EC7AE9E89B19}"/>
+    <hyperlink ref="C145" r:id="rId158" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{16C87E5D-6DFD-482F-8C60-FC82CA338EFE}"/>
+    <hyperlink ref="C149" r:id="rId159" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{AA30BA8D-CEFC-4694-8BC9-66D7BC464BDB}"/>
+    <hyperlink ref="C153" r:id="rId160" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{00385C8C-030F-42B9-AEE4-580E157E214E}"/>
+    <hyperlink ref="C157" r:id="rId161" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{7ADF8743-FEB2-4C1D-94BC-954BE22FC361}"/>
+    <hyperlink ref="C161" r:id="rId162" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true" xr:uid="{F12A3062-8280-479C-ACE5-7C01785C161C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\고핏 견적서 사이트 완성2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A6F94-FF87-4D6E-8F80-566ED60000EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3248570-D33D-44D5-A9FE-67AB320E0848}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="240" windowWidth="29730" windowHeight="14835" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="7455" yWindow="240" windowWidth="29730" windowHeight="14835" activeTab="2" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
     <sheet name="개선" sheetId="2" r:id="rId2"/>
-    <sheet name="엠지스포츠" sheetId="3" r:id="rId3"/>
-    <sheet name="렉스코" sheetId="4" r:id="rId4"/>
-    <sheet name="뉴텍" sheetId="5" r:id="rId5"/>
-    <sheet name="고무블럭,마감재" sheetId="7" r:id="rId6"/>
-    <sheet name="에버롤" sheetId="8" r:id="rId7"/>
-    <sheet name="덤벨" sheetId="9" r:id="rId8"/>
+    <sheet name="렉스코" sheetId="4" r:id="rId3"/>
+    <sheet name="뉴텍" sheetId="5" r:id="rId4"/>
+    <sheet name="고무블럭,마감재" sheetId="7" r:id="rId5"/>
+    <sheet name="에버롤" sheetId="8" r:id="rId6"/>
+    <sheet name="덤벨" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="994">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,606 +280,6 @@
   </si>
   <si>
     <t>파워 클라이머 SAPCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 300I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 350I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 750L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT 900L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIME X 6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIME X 6000T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIME X6000I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIME X6000IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 5000T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 5000I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 5000IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 5000G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 6000T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPREME 6000I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEGA 600R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEGA 600U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터플라이 SS-201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스 SS-202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더 프레스 SS-203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스 SS-204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 머신 SS-205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운 SS-206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신 SS-207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 웨이트(케이블 크로스) SS-208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어덕터 SS-209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토탈힙 SS-210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스 SS-211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그 익스텐션 SS-212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬 SS-213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스(45도 파워레그프레스) ST-214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스 SS-215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 웨이트 SS-216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업도미널 SS-217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토로소 SS-218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치닝 SS-219</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스(벤치프레스) SS-220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신(시티드로우) ST-221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트프레스(디클라인프레스) SS-222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터플라이(펙덱플라이) SS-224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운(하이+로우폴리 겸용) SS-228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 레그컬 SS-229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터플라이 PR-201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트프레스(시체스트) PR-202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더프레스 PR-203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트프레스(인클라인프레스) PR-204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 머신 PR-205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운 PR-206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신 PR-207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트웨이트(케이블크로스) PR-208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어덕터 PR-209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토탈힙 PR-210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스 PR-211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그 익스텐션 PR-212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬 PR-213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스(45도 파워레그프레스) PR-214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스 PR-215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 웨이트 PR-216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업도미널 PR-217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토로소 PR-218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치닝 PR-219</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스(벤치프레스) PR-220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신(시티드로우) PR-221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스(디클라인프레스) PR-222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터플라이(펙덱플라이) PR-224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(햄머체스트) PR-301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(햄머인클라인) PR-302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(햄머디클라인) PR-303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(올림픽벤치) PR-304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(경량벤치) PR-306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(평벤치) PR-306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸일으키기(1인용크런치) PR-307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸일으키기(계단식2인용) PR-308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸일으키기(계단식1인용) PR-308-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로망체어 PR-309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬렉 PR-311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스쿼트랙 PR-312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치닝디핑 PR-313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(인클라인벤치) PR-316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(각도조절벤치) PR-317</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(디클라인벤치) PR-318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀머신(티바로우) ST-319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST-217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하프랙(스쿼트랙) ST-222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하프랙(스쿼트랙) KP-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스(2D스미스) ST-218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스(3D스미스) ST-216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스(스미스+듀얼풀리) ST-223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스(스미스+듀얼풀리+하프랙+하이풀리+롱풀) ST-228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(햄머체스트) ST-301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(햄머인클라인) ST-302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(햄머디클라인) ST-303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(올림픽벤치) ST-304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(경량벤치) ST-305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(평벤치) ST-306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸일으키기(크런치싯업) ST-307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸일으키기(싯업2인용) ST-308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸일으키기(싯업1인용) ST-308-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로만체어 ST-309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬머신(암컬렉) ST-311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스쿼트랙 ST-312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치닝 ST-313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(인클라인 올림픽벤치), ST-316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(각도조절벤치) ST-317</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(디클라인 올림픽벤치) ST-318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(솔더벤치) ST-323</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(90도 각도벤치) SS-324</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(인디평벤치) SS-325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치프레스(햄머숄더벤치) ST-327</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스(시티드) MG-202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더프레스 머신 MG-203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 머신 MG-205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운(하이풀리) MG-206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신 MG-207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 웨이트(케이블) MG-208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어덕터(인&amp;아웃타이) MG-209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스 MG-211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그 익스텐션 MG-212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬 MG-213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스(파워레그프레스) MG-214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스머신 MG-215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트웨이트 MG-216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치닝 MG-219</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스(벤치프레스머신) MG-220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신 MG-221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터플라이(펙덱플라이) MG-224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 프레스(시티드) KP-202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더프레스 KP-203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 머신 KP-205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운(하이풀리) KP-206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신 KP-207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 웨이트(케이블) KP-208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어덕터 KP-209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스 KP-211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그익스텐션 KP-212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬 KP-213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그프레스(파워레그프레스) KP-214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스머신 KP-215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트 웨이트 KP-216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업도미널 머신 KP-217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치닝 KP-219</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 머신(시티드로우) KP-221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터플라이(펙덱플라이) KP-224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬(레그컬+레그익스텐션) KP-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운(랫풀+롱풀) KP-401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4536,13 +3935,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>494</v>
+        <v>344</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4551,7 +3950,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
-        <v>495</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4560,7 +3959,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
-        <v>496</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4569,7 +3968,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
-        <v>497</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4578,7 +3977,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>498</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4587,7 +3986,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>501</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4596,7 +3995,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>502</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4605,7 +4004,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>503</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4614,7 +4013,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>504</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4623,7 +4022,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>505</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4632,25 +4031,25 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>506</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>507</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>508</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4659,7 +4058,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>509</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4668,7 +4067,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>510</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4677,7 +4076,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>511</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4686,7 +4085,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>512</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4695,7 +4094,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>513</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4704,7 +4103,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>514</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4713,7 +4112,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>515</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4722,7 +4121,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>516</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4731,7 +4130,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>517</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4740,7 +4139,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>518</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4749,7 +4148,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>519</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4758,7 +4157,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>520</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4767,7 +4166,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>521</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4776,7 +4175,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>522</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4785,7 +4184,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>523</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4794,7 +4193,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>524</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4803,7 +4202,7 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>525</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4812,7 +4211,7 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>526</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4821,7 +4220,7 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>527</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4830,7 +4229,7 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>528</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4839,7 +4238,7 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>529</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4848,7 +4247,7 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="7" t="s">
-        <v>530</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4857,7 +4256,7 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>531</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4866,7 +4265,7 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>532</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4875,7 +4274,7 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="7" t="s">
-        <v>533</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4884,7 +4283,7 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="7" t="s">
-        <v>534</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4893,7 +4292,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7" t="s">
-        <v>535</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4902,7 +4301,7 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>536</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4911,7 +4310,7 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7" t="s">
-        <v>537</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4920,7 +4319,7 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>538</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4929,7 +4328,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>539</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4938,7 +4337,7 @@
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
-        <v>540</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4947,7 +4346,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7" t="s">
-        <v>541</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4956,7 +4355,7 @@
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7" t="s">
-        <v>542</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4965,7 +4364,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7" t="s">
-        <v>543</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4974,7 +4373,7 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7" t="s">
-        <v>544</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4983,7 +4382,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>545</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4992,7 +4391,7 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>546</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5001,7 +4400,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
-        <v>547</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5010,7 +4409,7 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="7" t="s">
-        <v>548</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5019,7 +4418,7 @@
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="7" t="s">
-        <v>549</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5028,7 +4427,7 @@
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="7" t="s">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5037,7 +4436,7 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="7" t="s">
-        <v>551</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5046,7 +4445,7 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="7" t="s">
-        <v>552</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5055,7 +4454,7 @@
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>553</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5064,7 +4463,7 @@
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="7" t="s">
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5073,7 +4472,7 @@
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="7" t="s">
-        <v>555</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -5082,7 +4481,7 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="7" t="s">
-        <v>556</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -5091,7 +4490,7 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="7" t="s">
-        <v>575</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5127,34 +4526,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>716</v>
+        <v>566</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>723</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>717</v>
+        <v>567</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>724</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>718</v>
+        <v>568</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>725</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5163,1126 +4562,1126 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>726</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>719</v>
+        <v>569</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>727</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>720</v>
+        <v>570</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>728</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>721</v>
+        <v>571</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7" t="s">
-        <v>729</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>722</v>
+        <v>572</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>730</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>737</v>
+        <v>587</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>731</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>738</v>
+        <v>588</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>732</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>739</v>
+        <v>589</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>733</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>740</v>
+        <v>590</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>734</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>741</v>
+        <v>591</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>735</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>742</v>
+        <v>592</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
-        <v>736</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>806</v>
+        <v>656</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>743</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>805</v>
+        <v>655</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>744</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>804</v>
+        <v>654</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>745</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>803</v>
+        <v>653</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>746</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>802</v>
+        <v>652</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>747</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>801</v>
+        <v>651</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>748</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>749</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>799</v>
+        <v>649</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
-        <v>750</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>798</v>
+        <v>648</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>751</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>797</v>
+        <v>647</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>752</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>796</v>
+        <v>646</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="7" t="s">
-        <v>753</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>795</v>
+        <v>645</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>754</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>794</v>
+        <v>644</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>755</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>793</v>
+        <v>643</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7" t="s">
-        <v>756</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>792</v>
+        <v>642</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="7" t="s">
-        <v>757</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>791</v>
+        <v>641</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="7" t="s">
-        <v>758</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>790</v>
+        <v>640</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="7" t="s">
-        <v>759</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>789</v>
+        <v>639</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="7" t="s">
-        <v>760</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>788</v>
+        <v>638</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="7" t="s">
-        <v>761</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>787</v>
+        <v>637</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>762</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>807</v>
+        <v>657</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>763</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>808</v>
+        <v>658</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
-        <v>764</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>809</v>
+        <v>659</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
-        <v>765</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>810</v>
+        <v>660</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>766</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>811</v>
+        <v>661</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="7" t="s">
-        <v>767</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>830</v>
+        <v>680</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="7" t="s">
-        <v>768</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>829</v>
+        <v>679</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="7" t="s">
-        <v>769</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>828</v>
+        <v>678</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="7" t="s">
-        <v>770</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>827</v>
+        <v>677</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="7" t="s">
-        <v>771</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>826</v>
+        <v>676</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="7" t="s">
-        <v>772</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>825</v>
+        <v>675</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="7" t="s">
-        <v>773</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>824</v>
+        <v>674</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="7" t="s">
-        <v>774</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>823</v>
+        <v>673</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="7" t="s">
-        <v>775</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>822</v>
+        <v>672</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="7" t="s">
-        <v>776</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>821</v>
+        <v>671</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="7" t="s">
-        <v>777</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>820</v>
+        <v>670</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="7" t="s">
-        <v>778</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>819</v>
+        <v>669</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7" t="s">
-        <v>779</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>818</v>
+        <v>668</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="7" t="s">
-        <v>780</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>817</v>
+        <v>667</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="7" t="s">
-        <v>781</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>816</v>
+        <v>666</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="7" t="s">
-        <v>782</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>815</v>
+        <v>665</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
-        <v>783</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>814</v>
+        <v>664</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7" t="s">
-        <v>784</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>813</v>
+        <v>663</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="7" t="s">
-        <v>785</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>812</v>
+        <v>662</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>786</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>831</v>
+        <v>681</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>840</v>
+        <v>690</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>832</v>
+        <v>682</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="7" t="s">
-        <v>841</v>
+        <v>691</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>833</v>
+        <v>683</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="7" t="s">
-        <v>842</v>
+        <v>692</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>834</v>
+        <v>684</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="7" t="s">
-        <v>843</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>835</v>
+        <v>685</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="7" t="s">
-        <v>844</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>836</v>
+        <v>686</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="7" t="s">
-        <v>845</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>837</v>
+        <v>687</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="7" t="s">
-        <v>846</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>838</v>
+        <v>688</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="7" t="s">
-        <v>847</v>
+        <v>697</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>839</v>
+        <v>689</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="7" t="s">
-        <v>848</v>
+        <v>698</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>857</v>
+        <v>707</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7" t="s">
-        <v>849</v>
+        <v>699</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>858</v>
+        <v>708</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="7" t="s">
-        <v>850</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>859</v>
+        <v>709</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="7" t="s">
-        <v>851</v>
+        <v>701</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>860</v>
+        <v>710</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="7" t="s">
-        <v>852</v>
+        <v>702</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>861</v>
+        <v>711</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="7" t="s">
-        <v>853</v>
+        <v>703</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>862</v>
+        <v>712</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="7" t="s">
-        <v>854</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>863</v>
+        <v>713</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="7" t="s">
-        <v>855</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>864</v>
+        <v>714</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="7" t="s">
-        <v>856</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>865</v>
+        <v>715</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="7" t="s">
-        <v>885</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>866</v>
+        <v>716</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="7" t="s">
-        <v>886</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>867</v>
+        <v>717</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="7" t="s">
-        <v>887</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="7" t="s">
-        <v>888</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>869</v>
+        <v>719</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="7" t="s">
-        <v>889</v>
+        <v>739</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>870</v>
+        <v>720</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="7" t="s">
-        <v>890</v>
+        <v>740</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>871</v>
+        <v>721</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="7" t="s">
-        <v>891</v>
+        <v>741</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>872</v>
+        <v>722</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="7" t="s">
-        <v>892</v>
+        <v>742</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>873</v>
+        <v>723</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="7" t="s">
-        <v>893</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>874</v>
+        <v>724</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="7" t="s">
-        <v>894</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="7" t="s">
-        <v>895</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>876</v>
+        <v>726</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="7" t="s">
-        <v>896</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>877</v>
+        <v>727</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="7" t="s">
-        <v>897</v>
+        <v>747</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>878</v>
+        <v>728</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="7" t="s">
-        <v>898</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>879</v>
+        <v>729</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="7" t="s">
-        <v>899</v>
+        <v>749</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>880</v>
+        <v>730</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="7" t="s">
-        <v>900</v>
+        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>881</v>
+        <v>731</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>901</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>882</v>
+        <v>732</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>902</v>
+        <v>752</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>903</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>884</v>
+        <v>734</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>904</v>
+        <v>754</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>905</v>
+        <v>755</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>911</v>
+        <v>761</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>906</v>
+        <v>756</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>912</v>
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>907</v>
+        <v>757</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>913</v>
+        <v>763</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>908</v>
+        <v>758</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>914</v>
+        <v>764</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>909</v>
+        <v>759</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>915</v>
+        <v>765</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>910</v>
+        <v>760</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>916</v>
+        <v>766</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>943</v>
+        <v>793</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>944</v>
+        <v>794</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>918</v>
+        <v>768</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>945</v>
+        <v>795</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>919</v>
+        <v>769</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>946</v>
+        <v>796</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>920</v>
+        <v>770</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>947</v>
+        <v>797</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>921</v>
+        <v>771</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>948</v>
+        <v>798</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>922</v>
+        <v>772</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>949</v>
+        <v>799</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>923</v>
+        <v>773</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>924</v>
+        <v>774</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>951</v>
+        <v>801</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>925</v>
+        <v>775</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>952</v>
+        <v>802</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>926</v>
+        <v>776</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>953</v>
+        <v>803</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>927</v>
+        <v>777</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>954</v>
+        <v>804</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>928</v>
+        <v>778</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>955</v>
+        <v>805</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>929</v>
+        <v>779</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>956</v>
+        <v>806</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>930</v>
+        <v>780</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>957</v>
+        <v>807</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>931</v>
+        <v>781</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>958</v>
+        <v>808</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>932</v>
+        <v>782</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>959</v>
+        <v>809</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>933</v>
+        <v>783</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>960</v>
+        <v>810</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>934</v>
+        <v>784</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>961</v>
+        <v>811</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>935</v>
+        <v>785</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>962</v>
+        <v>812</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>936</v>
+        <v>786</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>963</v>
+        <v>813</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>937</v>
+        <v>787</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>964</v>
+        <v>814</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>938</v>
+        <v>788</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>965</v>
+        <v>815</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>939</v>
+        <v>789</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>966</v>
+        <v>816</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>940</v>
+        <v>790</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>967</v>
+        <v>817</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>941</v>
+        <v>791</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>968</v>
+        <v>818</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>942</v>
+        <v>792</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>969</v>
+        <v>819</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>976</v>
+        <v>826</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>970</v>
+        <v>820</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>977</v>
+        <v>827</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>971</v>
+        <v>821</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>978</v>
+        <v>828</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>972</v>
+        <v>822</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>979</v>
+        <v>829</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>973</v>
+        <v>823</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>980</v>
+        <v>830</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>974</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -6428,792 +5827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49FA69-C3D6-4C48-94B8-65C77EC26B0E}">
-  <dimension ref="A1:C151"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0439778-6087-4EC2-9E54-C36465E20AFC}">
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7231,1303 +5849,1303 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>981</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>983</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>984</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>986</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>987</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>988</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>989</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>990</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>991</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>992</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>993</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>994</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>995</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>996</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>997</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>998</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>999</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1000</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1001</v>
+        <v>851</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1002</v>
+        <v>852</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1003</v>
+        <v>853</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1004</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1005</v>
+        <v>855</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1006</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>982</v>
+        <v>832</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1007</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1008</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1009</v>
+        <v>859</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1010</v>
+        <v>860</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1011</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1012</v>
+        <v>862</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1013</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1014</v>
+        <v>864</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1015</v>
+        <v>865</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1016</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1017</v>
+        <v>867</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1018</v>
+        <v>868</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1019</v>
+        <v>869</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>1020</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1021</v>
+        <v>871</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1022</v>
+        <v>872</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1023</v>
+        <v>873</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1024</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1025</v>
+        <v>875</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1026</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1027</v>
+        <v>877</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1028</v>
+        <v>878</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1029</v>
+        <v>879</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>1030</v>
+        <v>880</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>1031</v>
+        <v>881</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1032</v>
+        <v>882</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>1033</v>
+        <v>883</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1034</v>
+        <v>884</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>1035</v>
+        <v>885</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1036</v>
+        <v>886</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>1037</v>
+        <v>887</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1038</v>
+        <v>888</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>1039</v>
+        <v>889</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1040</v>
+        <v>890</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1041</v>
+        <v>891</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1042</v>
+        <v>892</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>1043</v>
+        <v>893</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>1044</v>
+        <v>894</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>1045</v>
+        <v>895</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1046</v>
+        <v>896</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>1047</v>
+        <v>897</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1048</v>
+        <v>898</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>1049</v>
+        <v>899</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1050</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1051</v>
+        <v>901</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1052</v>
+        <v>902</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>1053</v>
+        <v>903</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>1054</v>
+        <v>904</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>1055</v>
+        <v>905</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>1056</v>
+        <v>906</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>1057</v>
+        <v>907</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1058</v>
+        <v>908</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>1059</v>
+        <v>909</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1060</v>
+        <v>910</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>1061</v>
+        <v>911</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1062</v>
+        <v>912</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1063</v>
+        <v>913</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1064</v>
+        <v>914</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1065</v>
+        <v>915</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1066</v>
+        <v>916</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1067</v>
+        <v>917</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1068</v>
+        <v>918</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1069</v>
+        <v>919</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1070</v>
+        <v>920</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1071</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1072</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1073</v>
+        <v>923</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1074</v>
+        <v>924</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1075</v>
+        <v>925</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1076</v>
+        <v>926</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1077</v>
+        <v>927</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1078</v>
+        <v>928</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1079</v>
+        <v>929</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1080</v>
+        <v>930</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1081</v>
+        <v>931</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1082</v>
+        <v>932</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1083</v>
+        <v>933</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1084</v>
+        <v>934</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1085</v>
+        <v>935</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>314</v>
+        <v>164</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1086</v>
+        <v>936</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1087</v>
+        <v>937</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1088</v>
+        <v>938</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1089</v>
+        <v>939</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1090</v>
+        <v>940</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1091</v>
+        <v>941</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>1092</v>
+        <v>942</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>1093</v>
+        <v>943</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>1094</v>
+        <v>944</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1095</v>
+        <v>945</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>1096</v>
+        <v>946</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1097</v>
+        <v>947</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1098</v>
+        <v>948</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1099</v>
+        <v>949</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1100</v>
+        <v>950</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1101</v>
+        <v>951</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>1102</v>
+        <v>952</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>1103</v>
+        <v>953</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1104</v>
+        <v>954</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>1105</v>
+        <v>955</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>1106</v>
+        <v>956</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>1107</v>
+        <v>957</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>1108</v>
+        <v>958</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>1109</v>
+        <v>959</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>1110</v>
+        <v>960</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>1111</v>
+        <v>961</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>1112</v>
+        <v>962</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>1113</v>
+        <v>963</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>342</v>
+        <v>192</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>1114</v>
+        <v>964</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>1115</v>
+        <v>965</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1116</v>
+        <v>966</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>1117</v>
+        <v>967</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>1118</v>
+        <v>968</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>347</v>
+        <v>197</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>1119</v>
+        <v>969</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>1120</v>
+        <v>970</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>349</v>
+        <v>199</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>1121</v>
+        <v>971</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>1122</v>
+        <v>972</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>1123</v>
+        <v>973</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>1124</v>
+        <v>974</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>1125</v>
+        <v>975</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>1126</v>
+        <v>976</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>1127</v>
+        <v>977</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>1128</v>
+        <v>978</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>1129</v>
+        <v>979</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>1130</v>
+        <v>980</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>1131</v>
+        <v>981</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>1132</v>
+        <v>982</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>1133</v>
+        <v>983</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>1134</v>
+        <v>984</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>1135</v>
+        <v>985</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>1136</v>
+        <v>986</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>1137</v>
+        <v>987</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>1138</v>
+        <v>988</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>1139</v>
+        <v>989</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>1140</v>
+        <v>990</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>369</v>
+        <v>219</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>1141</v>
+        <v>991</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>1142</v>
+        <v>992</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>371</v>
+        <v>221</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>1143</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -8700,7 +7318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
@@ -8723,975 +7341,975 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>593</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>594</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>595</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>596</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>597</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>598</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>599</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>379</v>
+        <v>229</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>601</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>602</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>382</v>
+        <v>232</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>603</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>383</v>
+        <v>233</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>604</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>605</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>385</v>
+        <v>235</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>606</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>386</v>
+        <v>236</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>607</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>387</v>
+        <v>237</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>608</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>609</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>610</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>611</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>391</v>
+        <v>241</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>612</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>392</v>
+        <v>242</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>613</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>393</v>
+        <v>243</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>614</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>615</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>395</v>
+        <v>245</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>616</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>396</v>
+        <v>246</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>617</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>618</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>398</v>
+        <v>248</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>619</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>399</v>
+        <v>249</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>620</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>621</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>622</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>402</v>
+        <v>252</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>623</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>403</v>
+        <v>253</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>624</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>404</v>
+        <v>254</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>625</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>626</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>627</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>628</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>629</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>409</v>
+        <v>259</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>630</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>631</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>411</v>
+        <v>261</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>632</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>412</v>
+        <v>262</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>633</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>634</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>635</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>416</v>
+        <v>266</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>637</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>417</v>
+        <v>267</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>638</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>418</v>
+        <v>268</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>639</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>641</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>421</v>
+        <v>271</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>642</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>643</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>423</v>
+        <v>273</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>644</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>645</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>646</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>426</v>
+        <v>276</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>647</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>648</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>428</v>
+        <v>278</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>649</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>429</v>
+        <v>279</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>651</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>431</v>
+        <v>281</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>652</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>653</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>433</v>
+        <v>283</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>654</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>655</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>656</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>657</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>658</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>659</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>439</v>
+        <v>289</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>660</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>661</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>441</v>
+        <v>291</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>662</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>663</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>443</v>
+        <v>293</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>664</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>444</v>
+        <v>294</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>665</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>445</v>
+        <v>295</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>666</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>446</v>
+        <v>296</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>667</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>447</v>
+        <v>297</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>668</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>448</v>
+        <v>298</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>669</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>670</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>671</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>672</v>
+        <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>673</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>674</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>454</v>
+        <v>304</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>675</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>455</v>
+        <v>305</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>676</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>456</v>
+        <v>306</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>677</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>457</v>
+        <v>307</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>678</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>458</v>
+        <v>308</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>679</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>459</v>
+        <v>309</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>680</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>681</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>682</v>
+        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>683</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>463</v>
+        <v>313</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>684</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>464</v>
+        <v>314</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>685</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>465</v>
+        <v>315</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>686</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>466</v>
+        <v>316</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>687</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>467</v>
+        <v>317</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>688</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>468</v>
+        <v>318</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>689</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>469</v>
+        <v>319</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>690</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>691</v>
+        <v>541</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>471</v>
+        <v>321</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>692</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>472</v>
+        <v>322</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>693</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>473</v>
+        <v>323</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>694</v>
+        <v>544</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>474</v>
+        <v>324</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>695</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>696</v>
+        <v>546</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>476</v>
+        <v>326</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>697</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>477</v>
+        <v>327</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>698</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>478</v>
+        <v>328</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>699</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>701</v>
+        <v>551</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>702</v>
+        <v>552</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>482</v>
+        <v>332</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>703</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>483</v>
+        <v>333</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>704</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>484</v>
+        <v>334</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>705</v>
+        <v>555</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>485</v>
+        <v>335</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>706</v>
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>486</v>
+        <v>336</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>707</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>487</v>
+        <v>337</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>708</v>
+        <v>558</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>488</v>
+        <v>338</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>709</v>
+        <v>559</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>489</v>
+        <v>339</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>710</v>
+        <v>560</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>711</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>491</v>
+        <v>341</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>712</v>
+        <v>562</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>492</v>
+        <v>342</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>713</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -9823,7 +8441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D717140-71E3-4387-B263-2EAE76897369}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -9846,143 +8464,143 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>557</v>
+        <v>407</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>576</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>408</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>577</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>409</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>578</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>410</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>579</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>580</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>412</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>581</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>413</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>582</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>564</v>
+        <v>414</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>583</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>565</v>
+        <v>415</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>584</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>416</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>585</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>586</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>418</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>587</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>569</v>
+        <v>419</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>588</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>589</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>571</v>
+        <v>421</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>590</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>572</v>
+        <v>422</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>591</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>423</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>592</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -10010,7 +8628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AFEC8E-FB48-43A5-A948-B5E5D3F0E2F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -10033,12 +8651,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -10047,7 +8665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822169-A351-4B2E-8F96-DE188C2AE8CE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10070,17 +8688,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>714</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>715</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\고핏 견적서 사이트 완성2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3248570-D33D-44D5-A9FE-67AB320E0848}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78CAC06-0B62-4443-B2F4-0649F5B21154}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="240" windowWidth="29730" windowHeight="14835" activeTab="2" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -3577,7 +3577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3603,6 +3603,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5830,7 +5833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0439778-6087-4EC2-9E54-C36465E20AFC}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -7322,14 +7325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.625" customWidth="1"/>
-    <col min="2" max="2" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="103.375" customWidth="1"/>
     <col min="3" max="3" width="117.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7484,6 +7487,9 @@
       <c r="A19" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="B19">
+        <v>2750000</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>460</v>
       </c>
@@ -7521,8 +7527,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="9" t="s">
         <v>244</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2600000</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>465</v>
@@ -7540,6 +7549,9 @@
       <c r="A26" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="B26">
+        <v>2600000</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>467</v>
       </c>
@@ -7556,6 +7568,9 @@
       <c r="A28" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="B28">
+        <v>2600000</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>469</v>
       </c>
@@ -7580,13 +7595,19 @@
       <c r="A31" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="B31">
+        <v>2600000</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="9" t="s">
         <v>252</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2600000</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>473</v>
@@ -7644,6 +7665,9 @@
       <c r="A39" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="B39">
+        <v>2600000</v>
+      </c>
       <c r="C39" s="7" t="s">
         <v>480</v>
       </c>
@@ -7652,6 +7676,9 @@
       <c r="A40" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="B40">
+        <v>2600000</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>481</v>
       </c>
@@ -7660,6 +7687,9 @@
       <c r="A41" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="B41">
+        <v>2600000</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>482</v>
       </c>
@@ -7684,6 +7714,9 @@
       <c r="A44" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="B44">
+        <v>3400000</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>485</v>
       </c>
@@ -7724,6 +7757,9 @@
       <c r="A49" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="B49">
+        <v>2200000</v>
+      </c>
       <c r="C49" s="7" t="s">
         <v>490</v>
       </c>
@@ -7780,6 +7816,9 @@
       <c r="A56" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="B56">
+        <v>700000</v>
+      </c>
       <c r="C56" s="7" t="s">
         <v>497</v>
       </c>
@@ -7804,6 +7843,9 @@
       <c r="A59" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="B59">
+        <v>700000</v>
+      </c>
       <c r="C59" s="7" t="s">
         <v>500</v>
       </c>
@@ -7820,6 +7862,9 @@
       <c r="A61" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="B61">
+        <v>350000</v>
+      </c>
       <c r="C61" s="7" t="s">
         <v>502</v>
       </c>
@@ -7868,6 +7913,9 @@
       <c r="A67" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="B67">
+        <v>750000</v>
+      </c>
       <c r="C67" s="7" t="s">
         <v>508</v>
       </c>
@@ -7940,6 +7988,9 @@
       <c r="A76" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="B76">
+        <v>900000</v>
+      </c>
       <c r="C76" s="7" t="s">
         <v>517</v>
       </c>
@@ -8065,9 +8116,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="9" t="s">
         <v>312</v>
       </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="7" t="s">
         <v>533</v>
       </c>
@@ -8076,6 +8128,9 @@
       <c r="A93" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="B93">
+        <v>2300000</v>
+      </c>
       <c r="C93" s="7" t="s">
         <v>534</v>
       </c>
@@ -8148,6 +8203,9 @@
       <c r="A102" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="B102">
+        <v>2600000</v>
+      </c>
       <c r="C102" s="7" t="s">
         <v>543</v>
       </c>
@@ -8180,6 +8238,9 @@
       <c r="A106" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="B106">
+        <v>2800000</v>
+      </c>
       <c r="C106" s="7" t="s">
         <v>547</v>
       </c>
@@ -8212,6 +8273,9 @@
       <c r="A110" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="B110">
+        <v>2700000</v>
+      </c>
       <c r="C110" s="7" t="s">
         <v>551</v>
       </c>
@@ -8220,6 +8284,9 @@
       <c r="A111" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="B111">
+        <v>2700000</v>
+      </c>
       <c r="C111" s="7" t="s">
         <v>552</v>
       </c>
@@ -8228,6 +8295,9 @@
       <c r="A112" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="B112">
+        <v>2600000</v>
+      </c>
       <c r="C112" s="7" t="s">
         <v>553</v>
       </c>
@@ -8307,6 +8377,9 @@
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>342</v>
+      </c>
+      <c r="B122">
+        <v>3000000</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>563</v>
@@ -8438,6 +8511,7 @@
     <hyperlink ref="C121" r:id="rId121" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{BE9B4865-DDCD-45DD-B9B0-7ACEDD77FBC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId122"/>
 </worksheet>
 </file>
 

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\고핏 견적서 사이트 완성2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78CAC06-0B62-4443-B2F4-0649F5B21154}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488A149-76D2-4595-9326-92ABF87CE1AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="994">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3577,7 +3577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3605,7 +3605,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7325,8 +7328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7348,146 +7351,163 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>222</v>
       </c>
+      <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>223</v>
       </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>224</v>
       </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>225</v>
       </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>227</v>
       </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>228</v>
       </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>229</v>
       </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>230</v>
       </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>233</v>
       </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>234</v>
       </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>235</v>
       </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>236</v>
       </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="9" t="s">
         <v>237</v>
       </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
         <v>238</v>
       </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>2750000</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -7495,33 +7515,37 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>240</v>
       </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="9" t="s">
         <v>241</v>
       </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="7" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>242</v>
       </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="7" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="7" t="s">
         <v>464</v>
       </c>
@@ -7530,7 +7554,7 @@
       <c r="A24" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="10">
         <v>2600000</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -7538,18 +7562,19 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="9" t="s">
         <v>245</v>
       </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>2600000</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -7557,18 +7582,19 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>247</v>
       </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="10">
         <v>2600000</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -7576,26 +7602,28 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="9" t="s">
         <v>249</v>
       </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="9" t="s">
         <v>250</v>
       </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="10">
         <v>2600000</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7606,7 +7634,7 @@
       <c r="A32" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="10">
         <v>2600000</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -7614,58 +7642,64 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="9" t="s">
         <v>253</v>
       </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="9" t="s">
         <v>254</v>
       </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="9" t="s">
         <v>255</v>
       </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="9" t="s">
         <v>256</v>
       </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="9" t="s">
         <v>257</v>
       </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="9" t="s">
         <v>258</v>
       </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="10">
         <v>2600000</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -7673,10 +7707,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="10">
         <v>2600000</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -7684,10 +7718,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="10">
         <v>2600000</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -7695,26 +7729,28 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="9" t="s">
         <v>262</v>
       </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="9" t="s">
         <v>263</v>
       </c>
+      <c r="B43" s="10"/>
       <c r="C43" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="10">
         <v>3400000</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -7722,42 +7758,46 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="9" t="s">
         <v>265</v>
       </c>
+      <c r="B45" s="10"/>
       <c r="C45" s="7" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
+      <c r="B46" s="10"/>
       <c r="C46" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="9" t="s">
         <v>267</v>
       </c>
+      <c r="B47" s="10"/>
       <c r="C47" s="7" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="9" t="s">
         <v>268</v>
       </c>
+      <c r="B48" s="10"/>
       <c r="C48" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="10">
         <v>2200000</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -7765,58 +7805,64 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="9" t="s">
         <v>270</v>
       </c>
+      <c r="B50" s="10"/>
       <c r="C50" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="9" t="s">
         <v>271</v>
       </c>
+      <c r="B51" s="10"/>
       <c r="C51" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="9" t="s">
         <v>272</v>
       </c>
+      <c r="B52" s="10"/>
       <c r="C52" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="9" t="s">
         <v>273</v>
       </c>
+      <c r="B53" s="10"/>
       <c r="C53" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="9" t="s">
         <v>274</v>
       </c>
+      <c r="B54" s="10"/>
       <c r="C54" s="7" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="9" t="s">
         <v>275</v>
       </c>
+      <c r="B55" s="10"/>
       <c r="C55" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="10">
         <v>700000</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -7824,26 +7870,28 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="9" t="s">
         <v>277</v>
       </c>
+      <c r="B57" s="10"/>
       <c r="C57" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="9" t="s">
         <v>278</v>
       </c>
+      <c r="B58" s="10"/>
       <c r="C58" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="10">
         <v>700000</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -7851,18 +7899,19 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="9" t="s">
         <v>280</v>
       </c>
+      <c r="B60" s="10"/>
       <c r="C60" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="10">
         <v>350000</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -7870,50 +7919,55 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="9" t="s">
         <v>282</v>
       </c>
+      <c r="B62" s="10"/>
       <c r="C62" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="9" t="s">
         <v>283</v>
       </c>
+      <c r="B63" s="10"/>
       <c r="C63" s="7" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="9" t="s">
         <v>284</v>
       </c>
+      <c r="B64" s="10"/>
       <c r="C64" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="9" t="s">
         <v>285</v>
       </c>
+      <c r="B65" s="10"/>
       <c r="C65" s="7" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="9" t="s">
         <v>286</v>
       </c>
+      <c r="B66" s="10"/>
       <c r="C66" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="10">
         <v>750000</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -7921,74 +7975,82 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="9" t="s">
         <v>288</v>
       </c>
+      <c r="B68" s="10"/>
       <c r="C68" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="9" t="s">
         <v>289</v>
       </c>
+      <c r="B69" s="10"/>
       <c r="C69" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="9" t="s">
         <v>290</v>
       </c>
+      <c r="B70" s="10"/>
       <c r="C70" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="B71" s="10"/>
       <c r="C71" s="7" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="9" t="s">
         <v>292</v>
       </c>
+      <c r="B72" s="10"/>
       <c r="C72" s="7" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="9" t="s">
         <v>293</v>
       </c>
+      <c r="B73" s="10"/>
       <c r="C73" s="7" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="9" t="s">
         <v>294</v>
       </c>
+      <c r="B74" s="10"/>
       <c r="C74" s="7" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="9" t="s">
         <v>295</v>
       </c>
+      <c r="B75" s="10"/>
       <c r="C75" s="7" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="10">
         <v>900000</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -7996,121 +8058,136 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="9" t="s">
         <v>297</v>
       </c>
+      <c r="B77" s="10"/>
       <c r="C77" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="9" t="s">
         <v>298</v>
       </c>
+      <c r="B78" s="10"/>
       <c r="C78" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="9" t="s">
         <v>299</v>
       </c>
+      <c r="B79" s="10"/>
       <c r="C79" s="7" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="9" t="s">
         <v>300</v>
       </c>
+      <c r="B80" s="10"/>
       <c r="C80" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="9" t="s">
         <v>301</v>
       </c>
+      <c r="B81" s="10"/>
       <c r="C81" s="7" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="9" t="s">
         <v>302</v>
       </c>
+      <c r="B82" s="10"/>
       <c r="C82" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="9" t="s">
         <v>303</v>
       </c>
+      <c r="B83" s="10"/>
       <c r="C83" s="7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="9" t="s">
         <v>304</v>
       </c>
+      <c r="B84" s="10"/>
       <c r="C84" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="9" t="s">
         <v>305</v>
       </c>
+      <c r="B85" s="10"/>
       <c r="C85" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="9" t="s">
         <v>306</v>
       </c>
+      <c r="B86" s="10"/>
       <c r="C86" s="7" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="9" t="s">
         <v>307</v>
       </c>
+      <c r="B87" s="10"/>
       <c r="C87" s="7" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="9" t="s">
         <v>308</v>
       </c>
+      <c r="B88" s="10"/>
       <c r="C88" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="9" t="s">
         <v>309</v>
       </c>
+      <c r="B89" s="10"/>
       <c r="C89" s="7" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="9" t="s">
         <v>310</v>
       </c>
+      <c r="B90" s="10"/>
       <c r="C90" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="9" t="s">
         <v>311</v>
       </c>
+      <c r="B91" s="10"/>
       <c r="C91" s="7" t="s">
         <v>532</v>
       </c>
@@ -8119,7 +8196,7 @@
       <c r="A92" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="7" t="s">
         <v>533</v>
       </c>

--- a/product.xlsx
+++ b/product.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\고핏 견적서 사이트 완성2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\고핏 견적서 사이트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488A149-76D2-4595-9326-92ABF87CE1AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9612095B-400E-4FC9-8332-37DF533383E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="6615" yWindow="210" windowWidth="29730" windowHeight="14835" activeTab="4" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
     <sheet name="개선" sheetId="2" r:id="rId2"/>
     <sheet name="렉스코" sheetId="4" r:id="rId3"/>
     <sheet name="뉴텍" sheetId="5" r:id="rId4"/>
-    <sheet name="고무블럭,마감재" sheetId="7" r:id="rId5"/>
-    <sheet name="에버롤" sheetId="8" r:id="rId6"/>
-    <sheet name="덤벨" sheetId="9" r:id="rId7"/>
+    <sheet name="아레나킹" sheetId="10" r:id="rId5"/>
+    <sheet name="고무블럭,마감재" sheetId="7" r:id="rId6"/>
+    <sheet name="에버롤" sheetId="8" r:id="rId7"/>
+    <sheet name="덤벨" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="998">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3488,6 +3489,22 @@
   </si>
   <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/162.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>아레나킹 스테어 클라이머(블랙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아레나킹 스테어 클라이머(화이트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7328,7 +7345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8593,11 +8610,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F99F112-7899-435C-9163-E56174675D66}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="99.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{EA1E8F51-A689-459B-99EE-61AABCFF6A58}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A656219B-5863-4675-AC57-181228E7D705}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D717140-71E3-4387-B263-2EAE76897369}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8779,7 +8849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AFEC8E-FB48-43A5-A948-B5E5D3F0E2F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8816,7 +8886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822169-A351-4B2E-8F96-DE188C2AE8CE}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/product.xlsx
+++ b/product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\고핏 견적서 사이트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\AshGray-main (2)\AshGray-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9612095B-400E-4FC9-8332-37DF533383E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E30319-653C-486C-8CEC-E2A2B7DEDA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="210" windowWidth="29730" windowHeight="14835" activeTab="4" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="3645" yWindow="225" windowWidth="20295" windowHeight="14985" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -928,482 +931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인클라인 체스트 프레스 No.NT-OH-ICP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펙 덱 플라이(리버스겸용) No.NT-OH-PFRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠딩 플라이 체스트&amp;백 No.NT-OH-SBF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운(하이풀리) No.NT-OH-LPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 로우 No.NT-OH-SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어드저스터블 로우 풀리 No.NT-OH-ALP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친&amp;딥 어시스트 No.NT-OH-CDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더 프레스 No.NT-OH-SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레터럴 레이즈 No.NT-OH-LR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠딩 레터럴 레이즈 No.NT-OH-SLR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싱글 레터럴 레이즈 No.NT-OH-SGL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 No.NT-OH-AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 딥 No.NT-OH-SD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로타리 토르소 No.NT-OH-RT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그 익스텐션 No.NT-OH-LE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬 No.NT-OH-LC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 레그 프레스 No.NT-OH-SLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힙 어덕션/어브덕션 콤보 No.NT-OH-ADDABD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글루터 No.NT-OH-GH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 체스트 프레스 No.NT-OH(R)-SCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 로우(내회전) No.NT-OH(R)-SR(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 로우(외회전) No.NT-OH(R)-SR(O)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 체스트 프레스 No.NT-A-SCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인클라인 체스트 프레스 No.NT-A-ICP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펙 덱 플라이(리버스겸용) No.NT-A-PFRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠딩 플라이 체스트&amp;백 No.NT-A-SBF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운(하이풀리) No.NT-A-LPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 로우 No.NT-A-SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로우풀리(롱풀) No.NT-A-LP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친&amp;딥 어시스트 No.NT-A-CDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더 프레스 No.NT-A-SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레터럴 레이즈 No.NT-A-LR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠딩 레터럴 레이즈 No.NT-A-SLR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 No.NT-A-AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 딥 No.NT-A-SD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로타리 토르소 No.NT-A-RT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업도미널 No.NT-A-AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그 익스텐션 No.NT-A-LE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬 No.NT-A-LC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 레그 프레스 No.NT-A-LP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힙 어덕션/어브덕션 콤보 No.NT-A-ADDABD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글루터 No.NT-A-GH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스+하프랙 No.NT-P-SHR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스(수직형 2000) No.NT-P-SM20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스미스(각도형 2000) No.NT-P-SMA20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D랙 No.NT-P-3DR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워랙 No.NT-P-PR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하프랙 No.NT-P-HR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스쿼트랙 No.NT-P-SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해머 플랫 벤치 No.NT-P-FBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해머 인클라인 벤치 No.NT-P-IBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해머 디클라인 벤치 No.NT-P-DBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해머 숄더 프레스 No.NT-P-SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV 올림픽 벤치 No.NT-F-MOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올림픽 벤치 No.NT-F-OB</t>
-  </si>
-  <si>
-    <t>올림픽 인클라인 벤치 No.NT-F-OIB</t>
-  </si>
-  <si>
-    <t>올림픽 디클라인 벤치 No.NT-F-ODB</t>
-  </si>
-  <si>
-    <t>각도 조절 인클라인 벤치 No.NT-F-AIB</t>
-  </si>
-  <si>
-    <t>각도 조절 디클라인 벤치 No.NT-F-ADB</t>
-  </si>
-  <si>
-    <t>보조 평벤치 No.NT-F-FB</t>
-  </si>
-  <si>
-    <t>유틸리티 벤치 No.NT-F-UB</t>
-  </si>
-  <si>
-    <t>프리처 컬 벤치 No.NT-F-PCB</t>
-  </si>
-  <si>
-    <t>프리쳐 컬 벤치(스탠드형) No.NT-F-PCB-S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤트오버 벤치 No.NT-F-BOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힙 트러스트 벤치 No.NT-F-HTTB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싣업 No.NT-F-SU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무빙 레그 레이즈 No.NT-F-MLR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딥&amp;레그레이즈 No.NT-F-DLR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트위스트 2인용 No.NT-F-TD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로만체어(45~90도 조절식) No.NT-F-RC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GHD 90도 로만체어 No.NT-F-GHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤트오버 레터럴 레이즈 No.NT-F-BLR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-바로우 No.NT-F-TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 카프 레이즈 No.NT-F-SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덤벨 정리대(기본형3단) No.NT-F-DBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덤벨 정리대(낮은형2단) No.NT-F-DBR-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덤벨 정리대(소형3단) No.NT-F-DBR-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원판 정리대 No.NT-F-DR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정식 바벨 정리대 No.NT-F-FBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정식 바벨 정리대(분리형) No.NT-F-FBR-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바벨 정리대(스탠드형) No.NT-F-BR-S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸들랙 프로 No.NT-F-HDR-P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티짐 프로 (8Station) No.NT-C-MP8ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티짐 프로 (5Station-C) No.NT-C-MP5ST-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티짐 프로 (5Station-P) No.NT-C-MP5ST-P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이블 크로스오버 No.NT-C-CCO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 풀리 No.NT-C-DPP-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀얼 풀리 No.NT-C-DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트라이 케이블 No.NT-C-TC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트라이 케이블 (4Station) No.NT-C-TC4ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 로우 No.NT-T-SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로우 로우 2 No.NT-T-LR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트 로우 No.NT-T-FR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이드 풀다운 프론트 No.NT-T-WP(F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이드 풀다운 리어 No.NT-T-WP(R)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이드 풀다운 리어2 No.NT-T-WP(R)-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이 로우 No.NT-T-HR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤트오버 로우 No.NT-T-BOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투 웨이 로우 No.NT-T-2WR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와이드 체스트 프레스 No.NT-T-WCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인클라인 체스트 프레스 No.NT-T-ICP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체스트&amp;디클라인 콤보 No.NT-T-SDCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펙덱플라이 No.NT-T-PFRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펙덱 리어 콤보 No.NT-T-PFDC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더 프레스 No.NT-T-SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레터럴 레이즈 No.NT-T-LTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 No.NT-T-AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오버 헤드 익스텐션 No.NT-T-OHE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워 레그 프레스 No.NT-T-PLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핵 스쿼트 No.NT-T-HS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V-스쿼트 No.NT-T-VSQS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스쿼트&amp;카프레이즈 No.NT-T-SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드롭 스쿼트 No.NT-T-DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핵 프레스 No.NT-T-HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그 익스텐션 No.NT-T-LE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닐링 레그컬 No.NT-T-KLC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그컬 No.NT-T-LC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힙 트러스트 No.NT-T-HTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 하이퍼 No.NT-T-RH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글루터 No.NT-T-GH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 체스트 프레스 No.NT-T(R)-SCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1720,372 +1247,6 @@
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/17.jpg?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/4.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/5.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/6.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/7.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/8.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/9.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/10.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/11.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/12.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/13.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/14.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/15.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/16.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/17.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/18.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/19.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/20.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/21.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/22.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/23.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/24.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/25.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/26.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/27.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/28.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/29.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/30.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/31.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/32.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/33.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/34.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/35.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/36.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/37.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/38.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/39.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/40.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/41.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/42.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/43.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/44.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/45.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/46.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/47.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/48.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/49.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/50.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/51.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/52.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/53.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/54.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/55.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/56.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/57.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/58.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/59.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/60.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/61.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/62.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/63.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/64.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/65.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/66.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/67.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/68.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/69.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/70.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/71.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/72.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/73.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/74.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/75.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/76.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/77.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/78.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/79.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/80.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/81.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/82.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/83.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/84.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/85.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/86.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/87.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/88.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/89.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/90.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/91.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/92.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/93.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/94.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/95.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/96.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/97.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/98.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/99.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/100.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/101.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/102.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/103.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/104.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/105.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/106.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/107.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/108.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/109.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/110.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/111.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/112.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/113.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/114.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/115.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/116.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/117.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/118.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/119.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/120.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/121.jpg?raw=true</t>
-  </si>
-  <si>
     <t>베스코 TPU 덤벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3407,104 +2568,837 @@
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/134.jpg?raw=true</t>
   </si>
   <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/136.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/137.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/138.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/139.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/140.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/141.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/142.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/143.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/144.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/145.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/146.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/147.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/148.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/149.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/150.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/151.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/152.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/153.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/154.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/155.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/156.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/157.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/158.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/159.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/160.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/161.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/162.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>아레나킹 스테어 클라이머(블랙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아레나킹 스테어 클라이머(화이트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(온힘) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(온힘) 팩덱 플라이 (리버스 포함)</t>
+  </si>
+  <si>
+    <t>(온힘) 스탠딩 플라이 체스트 백</t>
+  </si>
+  <si>
+    <t>(온힘) 랫 풀다운 &amp; 하이 풀리</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(온힘) 조절형 로우 풀리</t>
+  </si>
+  <si>
+    <t>(온힘) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(온힘) 스탠딩 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(온힘) 싱글 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(온힘) 암 컬</t>
+  </si>
+  <si>
+    <t>(온힘) 로터리 토르소</t>
+  </si>
+  <si>
+    <t>(온힘) 복부 운동기 (앱도미널)</t>
+  </si>
+  <si>
+    <t>(온힘) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(온힘) 레그 컬</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 레그 프레스</t>
+  </si>
+  <si>
+    <t>(온힘) 힙 어덕션 단일 동작</t>
+  </si>
+  <si>
+    <t>(온힘) 힙 어덕션 + 어브덕션 콤보</t>
+  </si>
+  <si>
+    <t>(온힘) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 딥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(온힘) 친업 + 딥 어시스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/135.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/136.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/137.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/138.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/139.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/140.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/141.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/142.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/143.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/144.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/145.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/146.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/147.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/148.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/149.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/150.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/151.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/152.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/153.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/154.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/155.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/156.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/157.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/158.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/159.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/160.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/161.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/162.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>아레나킹 스테어 클라이머(블랙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아레나킹 스테어 클라이머(화이트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/1.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/2.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Incline_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Pec_Dec_Fly_With_Reverse.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Row.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Adjustable_Low_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Chin_Up_Dip_Assist.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Shoulder_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Single_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Arm_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Dip.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Rotary_Torso.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Abdominal.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Extension.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Leg_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Single_Move.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Glute_Kick_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Curl.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Inward.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Outward.webp?raw=true  </t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 로우 (외회전)</t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 로우 (내회전)</t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 팩덱 플라이 (리버스 포함)</t>
+  </si>
+  <si>
+    <t>(어드밴스) 스탠딩 플라이 체스트 백</t>
+  </si>
+  <si>
+    <t>(어드밴스) 랫 풀다운 &amp; 하이 풀리</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(어드밴스) 로우 풀리 롱 풀</t>
+  </si>
+  <si>
+    <t>(어드밴스) 친업 &amp; 딥 어시스트</t>
+  </si>
+  <si>
+    <t>(어드밴스) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 스탠딩 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(어드밴스) 암 컬</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 딥</t>
+  </si>
+  <si>
+    <t>(어드밴스) 로터리 토르소</t>
+  </si>
+  <si>
+    <t>(어드밴스) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(어드밴스) 레그 컬</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 레그 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 힙 어덕션 + 어브덕션 콤보</t>
+  </si>
+  <si>
+    <t>(어드밴스) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>(어드밴스) 업도미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Incline_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Pec_Deck_Fly_with_Reverse.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Row.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Low_Pully_Long_Pull.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Chin-Up_Dip_Assist.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Shoulder_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Arm_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Dip.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Rotary_Torso.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Abdominal.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Extension.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Leg_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Glute_Kick_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 3D + 스미스 + 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 + 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 머신 (수직형 2000)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 머신 (각도형 2000)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 3D 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 파워랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스쿼트 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플랫 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 인클라인 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 디클라인 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) MV 올림픽 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 인클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 디클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 각도 조절 인클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 각도 조절 디클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플랫 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 유틸리티 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 프리처 컬 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 프리처 컬 벤치 (스탠드형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 힙 쓰러스트 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 벤트오버 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 싯업 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 무빙 레그 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 딥 &amp; 레그 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 트위스트 더블</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 로만 체어 (45~90도 조절형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) GHD 90도 로만 체어</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 멀티오버 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 티바 로우</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 시티드 카프 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (기본형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (로우형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (스몰형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플레이트 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 고정 바벨랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 고정 바벨랙 (하프)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 바벨랙 (스탠드형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 핸들랙 프로</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_+_Smith_+_Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_+_Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Vertical_2000.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Angle_2000.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_RACK.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Power_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Squat_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Flat_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Incline_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Decline_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Shoulder_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/MV_Olympic_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Incline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Decline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Incline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Decline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Flat_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Utility_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench_Stand_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Hip_Thrust_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Bentover_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Sit_Up.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Moving_Leg_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dip&amp;Leg_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Twist_Double.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Roman_Chair_45~90deg_Adjust_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/GHD_90deg_Roman_Chair.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Multiover_Lateral_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/T-Bar_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Seated_Calf_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Basic_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Low_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Small_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plates_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Reack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Rack_Half.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Barbell_Rack_Stand_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Handle_Rack_Pro.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(토쳐) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 로우 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 프론트 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 풀다운 프론트</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 풀다운 리어</t>
+  </si>
+  <si>
+    <t>(토쳐) 버티컬 풀다운</t>
+  </si>
+  <si>
+    <t>(토쳐) 하이 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 투웨이 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 체스트 &amp; 디클라인 콤보</t>
+  </si>
+  <si>
+    <t>(토쳐) 팩덱 플라이</t>
+  </si>
+  <si>
+    <t>(토쳐) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(토쳐) 암 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 오버헤드 익스텐션</t>
+  </si>
+  <si>
+    <t>(토쳐) 파워 레그 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 핵 스쿼트</t>
+  </si>
+  <si>
+    <t>(토쳐) 스쿼트 &amp; 카프 레이즈</t>
+  </si>
+  <si>
+    <t>(토쳐) 드롭 스쿼트</t>
+  </si>
+  <si>
+    <t>(토쳐) 핵 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(토쳐) 니링 레그 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 레그 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 힙 쓰러스트</t>
+  </si>
+  <si>
+    <t>(토쳐) 리버스 하이퍼</t>
+  </si>
+  <si>
+    <t>(토쳐) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Seated_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Low_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Front_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Front.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Rear.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Vertical_Pull_Down.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/High_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Two_Way_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Chest_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Incline_Chest_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Chest_&amp;_Decline_Combo.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Pec_Dec_Fly.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Shoulder_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Lateral_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Arm_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Over_Head_Extension.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Power_Leg_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Squat.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Squat_&amp;_Calf_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Drop_Squat.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Extension.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Kneeling_Leg_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hip_Thrust.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Reverse_Hyper.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Glute_Kick_Back.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(토쳐R) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐R) 로우 로우 R형</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Seated_Chest_Press?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(케이블 모션) 케이블 크로스오버</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티 풀리</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 듀얼 풀리</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 트라이 케이블</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 트라이 케이블 (4스테이션)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (5스테이션-C)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (5스테이션-P)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (8스테이션)</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Cable_Cross_Over.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Pulley.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Dual_Pulley.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable_4Station.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_C.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_P.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_8Station.webp?raw=true</t>
   </si>
 </sst>
 </file>
@@ -3594,7 +3488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3607,7 +3501,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3620,12 +3514,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3958,13 +3846,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3973,7 +3861,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3982,7 +3870,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3991,7 +3879,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4000,7 +3888,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>348</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4009,7 +3897,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>351</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4018,7 +3906,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>352</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4027,7 +3915,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,7 +3924,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>354</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4045,7 +3933,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4054,25 +3942,25 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>356</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>357</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>358</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4081,7 +3969,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4090,7 +3978,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>360</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4099,7 +3987,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>361</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4108,7 +3996,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>362</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4117,7 +4005,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4126,7 +4014,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>364</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4135,7 +4023,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>365</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4144,7 +4032,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>366</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4153,7 +4041,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>367</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4162,7 +4050,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4171,7 +4059,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>369</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4180,7 +4068,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>370</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4189,7 +4077,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4198,7 +4086,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4207,7 +4095,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4216,7 +4104,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4225,7 +4113,7 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>375</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4234,7 +4122,7 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>376</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4243,7 +4131,7 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>377</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4252,7 +4140,7 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>378</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4261,7 +4149,7 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>379</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4270,7 +4158,7 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="7" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4279,7 +4167,7 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4288,7 +4176,7 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>382</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4297,7 +4185,7 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="7" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4306,7 +4194,7 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="7" t="s">
-        <v>384</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4315,7 +4203,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4324,7 +4212,7 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4333,7 +4221,7 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4342,7 +4230,7 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>388</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4351,7 +4239,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4360,7 +4248,7 @@
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4369,7 +4257,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7" t="s">
-        <v>391</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4378,7 +4266,7 @@
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7" t="s">
-        <v>392</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4387,7 +4275,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4396,7 +4284,7 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4405,7 +4293,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4414,7 +4302,7 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>396</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -4423,7 +4311,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -4432,7 +4320,7 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="7" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -4441,7 +4329,7 @@
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="7" t="s">
-        <v>399</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -4450,7 +4338,7 @@
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="7" t="s">
-        <v>400</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -4459,7 +4347,7 @@
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="7" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -4468,7 +4356,7 @@
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="7" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -4477,7 +4365,7 @@
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -4486,7 +4374,7 @@
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="7" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -4495,7 +4383,7 @@
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="7" t="s">
-        <v>405</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -4504,7 +4392,7 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="7" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -4513,7 +4401,7 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="7" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4549,34 +4437,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>566</v>
+        <v>324</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>573</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>567</v>
+        <v>325</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>574</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>568</v>
+        <v>326</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>575</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4585,1126 +4473,1126 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>576</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>569</v>
+        <v>327</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>577</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>570</v>
+        <v>328</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>578</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>571</v>
+        <v>329</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7" t="s">
-        <v>579</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>572</v>
+        <v>330</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>580</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>587</v>
+        <v>345</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>581</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>588</v>
+        <v>346</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>582</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>589</v>
+        <v>347</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>583</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>590</v>
+        <v>348</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>584</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>591</v>
+        <v>349</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>585</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>592</v>
+        <v>350</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
-        <v>586</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>656</v>
+        <v>414</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>593</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>655</v>
+        <v>413</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>594</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>654</v>
+        <v>412</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>595</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>653</v>
+        <v>411</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>596</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>652</v>
+        <v>410</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>597</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>651</v>
+        <v>409</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>598</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>650</v>
+        <v>408</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>599</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>649</v>
+        <v>407</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
-        <v>600</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>648</v>
+        <v>406</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>601</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>647</v>
+        <v>405</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>602</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>646</v>
+        <v>404</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="7" t="s">
-        <v>603</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>645</v>
+        <v>403</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>604</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>644</v>
+        <v>402</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>605</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>643</v>
+        <v>401</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7" t="s">
-        <v>606</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>642</v>
+        <v>400</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="7" t="s">
-        <v>607</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>641</v>
+        <v>399</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="7" t="s">
-        <v>608</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>640</v>
+        <v>398</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="7" t="s">
-        <v>609</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>639</v>
+        <v>397</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="7" t="s">
-        <v>610</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>638</v>
+        <v>396</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="7" t="s">
-        <v>611</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>637</v>
+        <v>395</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>612</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>657</v>
+        <v>415</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>613</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>658</v>
+        <v>416</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
-        <v>614</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>659</v>
+        <v>417</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
-        <v>615</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>660</v>
+        <v>418</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>616</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>661</v>
+        <v>419</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="7" t="s">
-        <v>617</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>680</v>
+        <v>438</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="7" t="s">
-        <v>618</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>679</v>
+        <v>437</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="7" t="s">
-        <v>619</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>678</v>
+        <v>436</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="7" t="s">
-        <v>620</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>677</v>
+        <v>435</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="7" t="s">
-        <v>621</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>676</v>
+        <v>434</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="7" t="s">
-        <v>622</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>675</v>
+        <v>433</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="7" t="s">
-        <v>623</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>674</v>
+        <v>432</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="7" t="s">
-        <v>624</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>673</v>
+        <v>431</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="7" t="s">
-        <v>625</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>672</v>
+        <v>430</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="7" t="s">
-        <v>626</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>671</v>
+        <v>429</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="7" t="s">
-        <v>627</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>670</v>
+        <v>428</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="7" t="s">
-        <v>628</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>669</v>
+        <v>427</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7" t="s">
-        <v>629</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>668</v>
+        <v>426</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="7" t="s">
-        <v>630</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>667</v>
+        <v>425</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="7" t="s">
-        <v>631</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>666</v>
+        <v>424</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="7" t="s">
-        <v>632</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>665</v>
+        <v>423</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
-        <v>633</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>664</v>
+        <v>422</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7" t="s">
-        <v>634</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>663</v>
+        <v>421</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="7" t="s">
-        <v>635</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>662</v>
+        <v>420</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>636</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>681</v>
+        <v>439</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>690</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>682</v>
+        <v>440</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="7" t="s">
-        <v>691</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>683</v>
+        <v>441</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="7" t="s">
-        <v>692</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>684</v>
+        <v>442</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="7" t="s">
-        <v>693</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>685</v>
+        <v>443</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="7" t="s">
-        <v>694</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>686</v>
+        <v>444</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="7" t="s">
-        <v>695</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>687</v>
+        <v>445</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="7" t="s">
-        <v>696</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>688</v>
+        <v>446</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="7" t="s">
-        <v>697</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>689</v>
+        <v>447</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="7" t="s">
-        <v>698</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>707</v>
+        <v>465</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7" t="s">
-        <v>699</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>708</v>
+        <v>466</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="7" t="s">
-        <v>700</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>709</v>
+        <v>467</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="7" t="s">
-        <v>701</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>710</v>
+        <v>468</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="7" t="s">
-        <v>702</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>711</v>
+        <v>469</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="7" t="s">
-        <v>703</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>712</v>
+        <v>470</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="7" t="s">
-        <v>704</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>713</v>
+        <v>471</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="7" t="s">
-        <v>705</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>714</v>
+        <v>472</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="7" t="s">
-        <v>706</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>715</v>
+        <v>473</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="7" t="s">
-        <v>735</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>716</v>
+        <v>474</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="7" t="s">
-        <v>736</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>717</v>
+        <v>475</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="7" t="s">
-        <v>737</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>718</v>
+        <v>476</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="7" t="s">
-        <v>738</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>719</v>
+        <v>477</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="7" t="s">
-        <v>739</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>720</v>
+        <v>478</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="7" t="s">
-        <v>740</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>721</v>
+        <v>479</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="7" t="s">
-        <v>741</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>722</v>
+        <v>480</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="7" t="s">
-        <v>742</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>723</v>
+        <v>481</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="7" t="s">
-        <v>743</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>724</v>
+        <v>482</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="7" t="s">
-        <v>744</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>725</v>
+        <v>483</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="7" t="s">
-        <v>745</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>726</v>
+        <v>484</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="7" t="s">
-        <v>746</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>727</v>
+        <v>485</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="7" t="s">
-        <v>747</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>728</v>
+        <v>486</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="7" t="s">
-        <v>748</v>
+        <v>506</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>729</v>
+        <v>487</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="7" t="s">
-        <v>749</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>730</v>
+        <v>488</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="7" t="s">
-        <v>750</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>731</v>
+        <v>489</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>751</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>732</v>
+        <v>490</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>752</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>733</v>
+        <v>491</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>753</v>
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>734</v>
+        <v>492</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>754</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>755</v>
+        <v>513</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>761</v>
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>756</v>
+        <v>514</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>762</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>757</v>
+        <v>515</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>763</v>
+        <v>521</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>758</v>
+        <v>516</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>764</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>759</v>
+        <v>517</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>765</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>760</v>
+        <v>518</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>766</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>793</v>
+        <v>551</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>767</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>794</v>
+        <v>552</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>768</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>795</v>
+        <v>553</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>769</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>796</v>
+        <v>554</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>770</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>797</v>
+        <v>555</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>771</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>798</v>
+        <v>556</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>772</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>799</v>
+        <v>557</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>773</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>800</v>
+        <v>558</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>774</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>801</v>
+        <v>559</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>775</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>802</v>
+        <v>560</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>776</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>803</v>
+        <v>561</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>777</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>804</v>
+        <v>562</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>778</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>805</v>
+        <v>563</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>779</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>806</v>
+        <v>564</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>780</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>807</v>
+        <v>565</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>781</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>808</v>
+        <v>566</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>782</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>809</v>
+        <v>567</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>783</v>
+        <v>541</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>810</v>
+        <v>568</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>784</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>811</v>
+        <v>569</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>785</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>812</v>
+        <v>570</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>786</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>813</v>
+        <v>571</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>787</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>814</v>
+        <v>572</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>788</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>815</v>
+        <v>573</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>789</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>816</v>
+        <v>574</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>790</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>817</v>
+        <v>575</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>791</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>818</v>
+        <v>576</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>792</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>825</v>
+        <v>583</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>819</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>826</v>
+        <v>584</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>820</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>827</v>
+        <v>585</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>821</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>828</v>
+        <v>586</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>822</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>829</v>
+        <v>587</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>823</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>830</v>
+        <v>588</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>824</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -5854,7 +5742,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5872,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5880,7 +5768,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>831</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5888,7 +5776,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>833</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5896,7 +5784,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>834</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5904,7 +5792,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>835</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5912,7 +5800,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>836</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5920,7 +5808,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>837</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5928,7 +5816,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>838</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5936,7 +5824,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>839</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5944,7 +5832,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>840</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5952,7 +5840,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>841</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5960,7 +5848,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>842</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5968,7 +5856,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>843</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5976,7 +5864,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>844</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5984,7 +5872,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>845</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5992,7 +5880,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>846</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6000,7 +5888,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>847</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6008,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>848</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6016,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>849</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6024,7 +5912,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>850</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6032,7 +5920,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>851</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6040,7 +5928,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>852</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6048,7 +5936,7 @@
         <v>82</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>853</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6056,7 +5944,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>854</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6064,7 +5952,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>855</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6072,15 +5960,15 @@
         <v>85</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>856</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>832</v>
+        <v>590</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>857</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6088,7 +5976,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>858</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6096,7 +5984,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>859</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6104,7 +5992,7 @@
         <v>88</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>860</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6112,7 +6000,7 @@
         <v>89</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>861</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6120,7 +6008,7 @@
         <v>90</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>862</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6128,7 +6016,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>863</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -6136,7 +6024,7 @@
         <v>92</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -6144,7 +6032,7 @@
         <v>93</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -6152,7 +6040,7 @@
         <v>94</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>866</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -6160,7 +6048,7 @@
         <v>95</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>867</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -6168,7 +6056,7 @@
         <v>96</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>868</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -6176,7 +6064,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>869</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -6184,7 +6072,7 @@
         <v>98</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>870</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -6192,7 +6080,7 @@
         <v>99</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>871</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -6200,7 +6088,7 @@
         <v>100</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>872</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -6208,7 +6096,7 @@
         <v>101</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>873</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -6216,7 +6104,7 @@
         <v>102</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>874</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6224,7 +6112,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>875</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -6232,7 +6120,7 @@
         <v>104</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>876</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -6240,7 +6128,7 @@
         <v>105</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>877</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -6248,7 +6136,7 @@
         <v>106</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>878</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -6256,7 +6144,7 @@
         <v>107</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>879</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -6264,7 +6152,7 @@
         <v>108</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>880</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -6272,7 +6160,7 @@
         <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>881</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -6280,7 +6168,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>882</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -6288,7 +6176,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>883</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -6296,7 +6184,7 @@
         <v>112</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>884</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -6304,7 +6192,7 @@
         <v>113</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>885</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,7 +6200,7 @@
         <v>114</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>886</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,7 +6208,7 @@
         <v>115</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>887</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -6328,7 +6216,7 @@
         <v>116</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>888</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6336,7 +6224,7 @@
         <v>117</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>889</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -6344,7 +6232,7 @@
         <v>118</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>890</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6352,7 +6240,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>891</v>
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6360,7 +6248,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>892</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -6368,7 +6256,7 @@
         <v>121</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>893</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -6376,7 +6264,7 @@
         <v>122</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>894</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6384,7 +6272,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>895</v>
+        <v>653</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6392,7 +6280,7 @@
         <v>124</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>896</v>
+        <v>654</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -6400,7 +6288,7 @@
         <v>125</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>897</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6408,7 +6296,7 @@
         <v>126</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>898</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -6416,7 +6304,7 @@
         <v>127</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>899</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -6424,7 +6312,7 @@
         <v>128</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>900</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -6432,7 +6320,7 @@
         <v>129</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>901</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -6440,7 +6328,7 @@
         <v>130</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>902</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -6448,7 +6336,7 @@
         <v>131</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>903</v>
+        <v>661</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -6456,7 +6344,7 @@
         <v>132</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>904</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -6464,7 +6352,7 @@
         <v>133</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>905</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -6472,7 +6360,7 @@
         <v>134</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>906</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -6480,7 +6368,7 @@
         <v>135</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>907</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -6488,7 +6376,7 @@
         <v>136</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>908</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -6496,7 +6384,7 @@
         <v>137</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>909</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -6504,7 +6392,7 @@
         <v>138</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>910</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -6512,7 +6400,7 @@
         <v>139</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>911</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -6520,7 +6408,7 @@
         <v>140</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>912</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -6528,7 +6416,7 @@
         <v>141</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>913</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -6536,7 +6424,7 @@
         <v>142</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>914</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -6544,7 +6432,7 @@
         <v>143</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>915</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -6552,7 +6440,7 @@
         <v>144</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>916</v>
+        <v>674</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -6560,7 +6448,7 @@
         <v>145</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>917</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -6568,7 +6456,7 @@
         <v>146</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>918</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -6576,7 +6464,7 @@
         <v>147</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>919</v>
+        <v>677</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -6584,7 +6472,7 @@
         <v>148</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>920</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -6592,7 +6480,7 @@
         <v>149</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>921</v>
+        <v>679</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -6600,7 +6488,7 @@
         <v>150</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>922</v>
+        <v>680</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -6608,7 +6496,7 @@
         <v>151</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>923</v>
+        <v>681</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -6616,7 +6504,7 @@
         <v>152</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>924</v>
+        <v>682</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -6624,7 +6512,7 @@
         <v>153</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>925</v>
+        <v>683</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -6632,7 +6520,7 @@
         <v>154</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>926</v>
+        <v>684</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -6640,7 +6528,7 @@
         <v>155</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>927</v>
+        <v>685</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -6648,7 +6536,7 @@
         <v>156</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>928</v>
+        <v>686</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -6656,7 +6544,7 @@
         <v>157</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>929</v>
+        <v>687</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -6664,7 +6552,7 @@
         <v>158</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>930</v>
+        <v>688</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -6672,7 +6560,7 @@
         <v>159</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>931</v>
+        <v>689</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -6680,7 +6568,7 @@
         <v>160</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>932</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -6688,7 +6576,7 @@
         <v>161</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>933</v>
+        <v>691</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -6696,7 +6584,7 @@
         <v>162</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>934</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -6704,7 +6592,7 @@
         <v>163</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>935</v>
+        <v>693</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -6712,7 +6600,7 @@
         <v>164</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>936</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -6720,7 +6608,7 @@
         <v>165</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>937</v>
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -6728,7 +6616,7 @@
         <v>166</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>938</v>
+        <v>696</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -6736,7 +6624,7 @@
         <v>167</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>939</v>
+        <v>697</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -6744,7 +6632,7 @@
         <v>168</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>940</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -6752,7 +6640,7 @@
         <v>169</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>941</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -6760,7 +6648,7 @@
         <v>170</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>942</v>
+        <v>700</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -6768,7 +6656,7 @@
         <v>171</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>943</v>
+        <v>701</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -6776,7 +6664,7 @@
         <v>172</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>944</v>
+        <v>702</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -6784,7 +6672,7 @@
         <v>173</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>945</v>
+        <v>703</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -6792,7 +6680,7 @@
         <v>174</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>946</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -6800,7 +6688,7 @@
         <v>175</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>947</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -6808,7 +6696,7 @@
         <v>176</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>948</v>
+        <v>706</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -6816,7 +6704,7 @@
         <v>177</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>949</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -6824,7 +6712,7 @@
         <v>178</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>950</v>
+        <v>708</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -6832,7 +6720,7 @@
         <v>179</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>951</v>
+        <v>709</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -6840,7 +6728,7 @@
         <v>180</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>952</v>
+        <v>710</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -6848,7 +6736,7 @@
         <v>181</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>953</v>
+        <v>711</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -6856,7 +6744,7 @@
         <v>182</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>954</v>
+        <v>712</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -6864,7 +6752,7 @@
         <v>183</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>955</v>
+        <v>713</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -6872,7 +6760,7 @@
         <v>184</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>956</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -6880,7 +6768,7 @@
         <v>185</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>957</v>
+        <v>715</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -6888,7 +6776,7 @@
         <v>186</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>958</v>
+        <v>716</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -6896,7 +6784,7 @@
         <v>187</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>959</v>
+        <v>717</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -6904,7 +6792,7 @@
         <v>188</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>960</v>
+        <v>718</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -6912,7 +6800,7 @@
         <v>189</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>961</v>
+        <v>719</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -6920,7 +6808,7 @@
         <v>190</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>962</v>
+        <v>720</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -6928,7 +6816,7 @@
         <v>191</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>963</v>
+        <v>721</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -6936,7 +6824,7 @@
         <v>192</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>964</v>
+        <v>722</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -6944,7 +6832,7 @@
         <v>193</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>965</v>
+        <v>723</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -6952,7 +6840,7 @@
         <v>194</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>966</v>
+        <v>776</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -6960,7 +6848,7 @@
         <v>195</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>967</v>
+        <v>724</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -6968,7 +6856,7 @@
         <v>196</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>968</v>
+        <v>725</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -6976,7 +6864,7 @@
         <v>197</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>969</v>
+        <v>726</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -6984,7 +6872,7 @@
         <v>198</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>970</v>
+        <v>727</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -6992,7 +6880,7 @@
         <v>199</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>971</v>
+        <v>728</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -7000,7 +6888,7 @@
         <v>200</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>972</v>
+        <v>729</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -7008,7 +6896,7 @@
         <v>201</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>973</v>
+        <v>730</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -7016,7 +6904,7 @@
         <v>202</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>974</v>
+        <v>731</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -7024,7 +6912,7 @@
         <v>203</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>975</v>
+        <v>732</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -7032,7 +6920,7 @@
         <v>204</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>976</v>
+        <v>733</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -7040,7 +6928,7 @@
         <v>205</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>977</v>
+        <v>734</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -7048,7 +6936,7 @@
         <v>206</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>978</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -7056,7 +6944,7 @@
         <v>207</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>979</v>
+        <v>736</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -7064,7 +6952,7 @@
         <v>208</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>980</v>
+        <v>737</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -7072,7 +6960,7 @@
         <v>209</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>981</v>
+        <v>738</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -7080,7 +6968,7 @@
         <v>210</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>982</v>
+        <v>739</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -7088,7 +6976,7 @@
         <v>211</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>983</v>
+        <v>740</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -7096,7 +6984,7 @@
         <v>212</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>984</v>
+        <v>741</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -7104,7 +6992,7 @@
         <v>213</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>985</v>
+        <v>742</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -7112,7 +7000,7 @@
         <v>214</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>986</v>
+        <v>743</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -7120,7 +7008,7 @@
         <v>215</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>987</v>
+        <v>744</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -7128,7 +7016,7 @@
         <v>216</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>988</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -7136,7 +7024,7 @@
         <v>217</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>989</v>
+        <v>746</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -7144,7 +7032,7 @@
         <v>218</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>990</v>
+        <v>747</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -7152,7 +7040,7 @@
         <v>219</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>991</v>
+        <v>748</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -7160,7 +7048,7 @@
         <v>220</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>992</v>
+        <v>749</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -7168,7 +7056,7 @@
         <v>221</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>993</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -7290,7 +7178,7 @@
     <hyperlink ref="C124" r:id="rId114" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{79D1BDFC-07F0-441B-97A8-09B48CCD6A4D}"/>
     <hyperlink ref="C128" r:id="rId115" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{689FB75C-2142-403D-9658-4126A4DA9A53}"/>
     <hyperlink ref="C132" r:id="rId116" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{78DED8AA-10FC-4AE1-9574-2DA86982DFE4}"/>
-    <hyperlink ref="C136" r:id="rId117" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{FAAB73CF-CACD-4337-A053-1A4556B344AA}"/>
+    <hyperlink ref="C136" r:id="rId117" xr:uid="{FAAB73CF-CACD-4337-A053-1A4556B344AA}"/>
     <hyperlink ref="C140" r:id="rId118" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{1AB8DB8D-F2EC-44A9-8714-8DB41541AF47}"/>
     <hyperlink ref="C144" r:id="rId119" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{CA76BC69-8A2F-4603-8C9B-CC55900F863E}"/>
     <hyperlink ref="C148" r:id="rId120" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true" xr:uid="{223EE83B-A170-4107-A05D-5FCD66EDD91D}"/>
@@ -7345,8 +7233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7364,1248 +7252,986 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="10"/>
+      <c r="A2" s="2" t="s">
+        <v>755</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>443</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="10"/>
+      <c r="A3" s="2" t="s">
+        <v>756</v>
+      </c>
       <c r="C3" s="7" t="s">
-        <v>444</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="10"/>
+      <c r="A4" s="2" t="s">
+        <v>757</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>445</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="10"/>
+      <c r="A5" s="2" t="s">
+        <v>758</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>446</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="2" t="s">
+        <v>759</v>
+      </c>
       <c r="C6" s="7" t="s">
-        <v>447</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="2" t="s">
+        <v>760</v>
+      </c>
       <c r="C7" s="7" t="s">
-        <v>448</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="A8" s="2" t="s">
+        <v>775</v>
+      </c>
       <c r="C8" s="7" t="s">
-        <v>449</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="2" t="s">
+        <v>761</v>
+      </c>
       <c r="C9" s="7" t="s">
-        <v>450</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
       <c r="C10" s="7" t="s">
-        <v>451</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="2" t="s">
+        <v>763</v>
+      </c>
       <c r="C11" s="7" t="s">
-        <v>452</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="A12" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="C12" s="7" t="s">
-        <v>453</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="C13" s="7" t="s">
-        <v>454</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="A14" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="C14" s="7" t="s">
-        <v>455</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="10"/>
+      <c r="A15" s="2" t="s">
+        <v>766</v>
+      </c>
       <c r="C15" s="7" t="s">
-        <v>456</v>
+        <v>790</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="10"/>
+      <c r="A16" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="C16" s="7" t="s">
-        <v>457</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" s="10"/>
+      <c r="A17" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="C17" s="7" t="s">
-        <v>458</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="10"/>
+      <c r="A18" s="2" t="s">
+        <v>769</v>
+      </c>
       <c r="C18" s="7" t="s">
-        <v>459</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2750000</v>
+      <c r="A19" s="2" t="s">
+        <v>770</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>460</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="10"/>
+      <c r="A20" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="C20" s="7" t="s">
-        <v>461</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="10"/>
+      <c r="A21" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="C21" s="7" t="s">
-        <v>462</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="10"/>
+      <c r="A22" s="2" t="s">
+        <v>773</v>
+      </c>
       <c r="C22" s="7" t="s">
-        <v>463</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="10"/>
+      <c r="A23" s="2" t="s">
+        <v>801</v>
+      </c>
       <c r="C23" s="7" t="s">
-        <v>464</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2600000</v>
+      <c r="A24" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>465</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="10"/>
+      <c r="A25" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="C25" s="7" t="s">
-        <v>466</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="10">
-        <v>2600000</v>
+      <c r="A26" s="2" t="s">
+        <v>804</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>467</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27" s="10"/>
+      <c r="A27" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="C27" s="7" t="s">
-        <v>468</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B28" s="10">
-        <v>2600000</v>
+      <c r="A28" s="2" t="s">
+        <v>806</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>469</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="10"/>
+      <c r="A29" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="C29" s="7" t="s">
-        <v>470</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="10"/>
+      <c r="A30" s="2" t="s">
+        <v>808</v>
+      </c>
       <c r="C30" s="7" t="s">
-        <v>471</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="10">
-        <v>2600000</v>
+      <c r="A31" s="2" t="s">
+        <v>809</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>472</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" s="10">
-        <v>2600000</v>
+      <c r="A32" s="2" t="s">
+        <v>810</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>473</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="10"/>
+      <c r="A33" s="2" t="s">
+        <v>811</v>
+      </c>
       <c r="C33" s="7" t="s">
-        <v>474</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="10"/>
+      <c r="A34" s="2" t="s">
+        <v>812</v>
+      </c>
       <c r="C34" s="7" t="s">
-        <v>475</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="10"/>
+      <c r="A35" s="2" t="s">
+        <v>813</v>
+      </c>
       <c r="C35" s="7" t="s">
-        <v>476</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" s="10"/>
+      <c r="A36" s="2" t="s">
+        <v>814</v>
+      </c>
       <c r="C36" s="7" t="s">
-        <v>477</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="10"/>
+      <c r="A37" s="2" t="s">
+        <v>815</v>
+      </c>
       <c r="C37" s="7" t="s">
-        <v>478</v>
+        <v>834</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" s="10"/>
+      <c r="A38" s="2" t="s">
+        <v>816</v>
+      </c>
       <c r="C38" s="7" t="s">
-        <v>479</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39" s="10">
-        <v>2600000</v>
+      <c r="A39" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>480</v>
+        <v>836</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" s="10">
-        <v>2600000</v>
+      <c r="A40" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>481</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41" s="10">
-        <v>2600000</v>
+      <c r="A41" s="2" t="s">
+        <v>818</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>482</v>
+        <v>838</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" s="10"/>
+      <c r="A42" s="2" t="s">
+        <v>819</v>
+      </c>
       <c r="C42" s="7" t="s">
-        <v>483</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" s="10"/>
+      <c r="A43" s="2" t="s">
+        <v>820</v>
+      </c>
       <c r="C43" s="7" t="s">
-        <v>484</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="10">
-        <v>3400000</v>
+      <c r="A44" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>485</v>
+        <v>841</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B45" s="10"/>
+      <c r="A45" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="C45" s="7" t="s">
-        <v>486</v>
+        <v>883</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="A46" s="2" t="s">
+        <v>843</v>
+      </c>
       <c r="C46" s="7" t="s">
-        <v>487</v>
+        <v>884</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" s="10"/>
+      <c r="A47" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="C47" s="7" t="s">
-        <v>488</v>
+        <v>885</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B48" s="10"/>
+      <c r="A48" s="2" t="s">
+        <v>845</v>
+      </c>
       <c r="C48" s="7" t="s">
-        <v>489</v>
+        <v>886</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B49" s="10">
-        <v>2200000</v>
+      <c r="A49" s="2" t="s">
+        <v>846</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>490</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="10"/>
+      <c r="A50" s="2" t="s">
+        <v>847</v>
+      </c>
       <c r="C50" s="7" t="s">
-        <v>491</v>
+        <v>888</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="10"/>
+      <c r="A51" s="2" t="s">
+        <v>848</v>
+      </c>
       <c r="C51" s="7" t="s">
-        <v>492</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B52" s="10"/>
+      <c r="A52" s="2" t="s">
+        <v>849</v>
+      </c>
       <c r="C52" s="7" t="s">
-        <v>493</v>
+        <v>890</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B53" s="10"/>
+      <c r="A53" s="2" t="s">
+        <v>850</v>
+      </c>
       <c r="C53" s="7" t="s">
-        <v>494</v>
+        <v>891</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="10"/>
+      <c r="A54" s="2" t="s">
+        <v>851</v>
+      </c>
       <c r="C54" s="7" t="s">
-        <v>495</v>
+        <v>892</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B55" s="10"/>
+      <c r="A55" s="2" t="s">
+        <v>852</v>
+      </c>
       <c r="C55" s="7" t="s">
-        <v>496</v>
+        <v>893</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B56" s="10">
-        <v>700000</v>
+      <c r="A56" s="2" t="s">
+        <v>853</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>497</v>
+        <v>894</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B57" s="10"/>
+      <c r="A57" s="2" t="s">
+        <v>854</v>
+      </c>
       <c r="C57" s="7" t="s">
-        <v>498</v>
+        <v>895</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B58" s="10"/>
+      <c r="A58" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="C58" s="7" t="s">
-        <v>499</v>
+        <v>896</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B59" s="10">
-        <v>700000</v>
+      <c r="A59" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>500</v>
+        <v>897</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B60" s="10"/>
+      <c r="A60" s="2" t="s">
+        <v>857</v>
+      </c>
       <c r="C60" s="7" t="s">
-        <v>501</v>
+        <v>898</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B61" s="10">
-        <v>350000</v>
+      <c r="A61" s="2" t="s">
+        <v>858</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>502</v>
+        <v>899</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B62" s="10"/>
+      <c r="A62" s="2" t="s">
+        <v>859</v>
+      </c>
       <c r="C62" s="7" t="s">
-        <v>503</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B63" s="10"/>
+      <c r="A63" s="2" t="s">
+        <v>860</v>
+      </c>
       <c r="C63" s="7" t="s">
-        <v>504</v>
+        <v>901</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B64" s="10"/>
+      <c r="A64" s="2" t="s">
+        <v>861</v>
+      </c>
       <c r="C64" s="7" t="s">
-        <v>505</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B65" s="10"/>
+      <c r="A65" s="2" t="s">
+        <v>862</v>
+      </c>
       <c r="C65" s="7" t="s">
-        <v>506</v>
+        <v>903</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B66" s="10"/>
+      <c r="A66" s="2" t="s">
+        <v>863</v>
+      </c>
       <c r="C66" s="7" t="s">
-        <v>507</v>
+        <v>904</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B67" s="10">
-        <v>750000</v>
+      <c r="A67" s="2" t="s">
+        <v>864</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>508</v>
+        <v>905</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B68" s="10"/>
+      <c r="A68" s="2" t="s">
+        <v>865</v>
+      </c>
       <c r="C68" s="7" t="s">
-        <v>509</v>
+        <v>906</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B69" s="10"/>
+      <c r="A69" s="2" t="s">
+        <v>866</v>
+      </c>
       <c r="C69" s="7" t="s">
-        <v>510</v>
+        <v>907</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B70" s="10"/>
+      <c r="A70" s="2" t="s">
+        <v>867</v>
+      </c>
       <c r="C70" s="7" t="s">
-        <v>511</v>
+        <v>908</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B71" s="10"/>
+      <c r="A71" s="2" t="s">
+        <v>868</v>
+      </c>
       <c r="C71" s="7" t="s">
-        <v>512</v>
+        <v>909</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B72" s="10"/>
+      <c r="A72" s="2" t="s">
+        <v>869</v>
+      </c>
       <c r="C72" s="7" t="s">
-        <v>513</v>
+        <v>910</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B73" s="10"/>
+      <c r="A73" s="2" t="s">
+        <v>870</v>
+      </c>
       <c r="C73" s="7" t="s">
-        <v>514</v>
+        <v>911</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B74" s="10"/>
+      <c r="A74" s="2" t="s">
+        <v>871</v>
+      </c>
       <c r="C74" s="7" t="s">
-        <v>515</v>
+        <v>912</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B75" s="10"/>
+      <c r="A75" s="2" t="s">
+        <v>872</v>
+      </c>
       <c r="C75" s="7" t="s">
-        <v>516</v>
+        <v>913</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B76" s="10">
-        <v>900000</v>
+      <c r="A76" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>517</v>
+        <v>914</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B77" s="10"/>
+      <c r="A77" s="2" t="s">
+        <v>874</v>
+      </c>
       <c r="C77" s="7" t="s">
-        <v>518</v>
+        <v>915</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B78" s="10"/>
+      <c r="A78" s="2" t="s">
+        <v>875</v>
+      </c>
       <c r="C78" s="7" t="s">
-        <v>519</v>
+        <v>916</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B79" s="10"/>
+      <c r="A79" s="2" t="s">
+        <v>876</v>
+      </c>
       <c r="C79" s="7" t="s">
-        <v>520</v>
+        <v>917</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B80" s="10"/>
+      <c r="A80" s="2" t="s">
+        <v>877</v>
+      </c>
       <c r="C80" s="7" t="s">
-        <v>521</v>
+        <v>918</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B81" s="10"/>
+      <c r="A81" s="2" t="s">
+        <v>878</v>
+      </c>
       <c r="C81" s="7" t="s">
-        <v>522</v>
+        <v>919</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B82" s="10"/>
+      <c r="A82" s="2" t="s">
+        <v>879</v>
+      </c>
       <c r="C82" s="7" t="s">
-        <v>523</v>
+        <v>920</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B83" s="10"/>
+      <c r="A83" s="2" t="s">
+        <v>880</v>
+      </c>
       <c r="C83" s="7" t="s">
-        <v>524</v>
+        <v>921</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B84" s="10"/>
+      <c r="A84" s="2" t="s">
+        <v>881</v>
+      </c>
       <c r="C84" s="7" t="s">
-        <v>525</v>
+        <v>922</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B85" s="10"/>
+      <c r="A85" s="2" t="s">
+        <v>882</v>
+      </c>
       <c r="C85" s="7" t="s">
-        <v>526</v>
+        <v>923</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B86" s="10"/>
+      <c r="A86" s="2" t="s">
+        <v>924</v>
+      </c>
       <c r="C86" s="7" t="s">
-        <v>527</v>
+        <v>951</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B87" s="10"/>
+      <c r="A87" s="2" t="s">
+        <v>925</v>
+      </c>
       <c r="C87" s="7" t="s">
-        <v>528</v>
+        <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B88" s="10"/>
+      <c r="A88" s="2" t="s">
+        <v>926</v>
+      </c>
       <c r="C88" s="7" t="s">
-        <v>529</v>
+        <v>953</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B89" s="10"/>
+      <c r="A89" s="2" t="s">
+        <v>927</v>
+      </c>
       <c r="C89" s="7" t="s">
-        <v>530</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B90" s="10"/>
+      <c r="A90" s="2" t="s">
+        <v>928</v>
+      </c>
       <c r="C90" s="7" t="s">
-        <v>531</v>
+        <v>955</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B91" s="10"/>
+      <c r="A91" s="2" t="s">
+        <v>929</v>
+      </c>
       <c r="C91" s="7" t="s">
-        <v>532</v>
+        <v>956</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B92" s="10"/>
+      <c r="A92" s="2" t="s">
+        <v>930</v>
+      </c>
       <c r="C92" s="7" t="s">
-        <v>533</v>
+        <v>957</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B93">
-        <v>2300000</v>
+        <v>931</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>534</v>
+        <v>958</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>314</v>
+        <v>932</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>535</v>
+        <v>959</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>315</v>
+        <v>933</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>536</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>316</v>
+        <v>934</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>537</v>
+        <v>961</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>317</v>
+        <v>935</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>538</v>
+        <v>962</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>318</v>
+        <v>936</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>539</v>
+        <v>963</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>319</v>
+        <v>937</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>540</v>
+        <v>964</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>320</v>
+        <v>938</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>541</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>321</v>
+        <v>939</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>542</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B102">
-        <v>2600000</v>
+        <v>940</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>543</v>
+        <v>967</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>323</v>
+        <v>941</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>544</v>
+        <v>968</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>324</v>
+        <v>942</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>545</v>
+        <v>969</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>325</v>
+        <v>943</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>546</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B106">
-        <v>2800000</v>
+        <v>944</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>547</v>
+        <v>971</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>327</v>
+        <v>945</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>548</v>
+        <v>972</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>328</v>
+        <v>946</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>549</v>
+        <v>973</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>329</v>
+        <v>947</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>550</v>
+        <v>974</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B110">
-        <v>2700000</v>
+        <v>948</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>551</v>
+        <v>975</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B111">
-        <v>2700000</v>
+        <v>949</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>552</v>
+        <v>976</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B112">
-        <v>2600000</v>
+        <v>950</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>553</v>
+        <v>977</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>333</v>
+        <v>978</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>554</v>
+        <v>980</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>334</v>
+        <v>979</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>555</v>
+        <v>981</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>335</v>
+        <v>982</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>556</v>
+        <v>990</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>336</v>
+        <v>983</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>557</v>
+        <v>991</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>337</v>
+        <v>984</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>558</v>
+        <v>992</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>338</v>
+        <v>985</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>559</v>
+        <v>993</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>339</v>
+        <v>986</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>560</v>
+        <v>994</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>340</v>
+        <v>987</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>561</v>
+        <v>995</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>341</v>
+        <v>988</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>562</v>
+        <v>996</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B122">
-        <v>3000000</v>
+        <v>989</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>563</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9ACC315A-3751-4757-9E69-3ADFCB9D9A51}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E88186CB-B48E-446A-B234-8695DAC13831}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{34323A21-C9BD-4ECB-8D5D-FECF0A98297E}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B0E49AF4-3298-4A5B-B65F-11C0D72CEEE0}"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{1474BFFA-0B95-4B6E-A7B1-4DE154078DC3}"/>
-    <hyperlink ref="C11" r:id="rId6" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{A9195C19-9828-4961-9846-098D3C37CEE7}"/>
-    <hyperlink ref="C14" r:id="rId7" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{E93F5699-E4EF-4F0B-82F1-C36F67CDC50D}"/>
-    <hyperlink ref="C17" r:id="rId8" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{A0621FE2-3DB0-48E3-AF62-255869D026AD}"/>
-    <hyperlink ref="C20" r:id="rId9" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B9E8C883-9123-4667-BDB1-BB3D5EDBA6B3}"/>
-    <hyperlink ref="C23" r:id="rId10" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{F3347E73-CEE3-4FC7-ABD7-4D786407C305}"/>
-    <hyperlink ref="C26" r:id="rId11" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{49A04990-72F2-45C8-8C73-5F3940DC0100}"/>
-    <hyperlink ref="C29" r:id="rId12" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{9AB57346-FFC3-4047-A6C0-51A578654C5C}"/>
-    <hyperlink ref="C32" r:id="rId13" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{43E6020D-1A2D-4BFA-891E-EEB2CDF9315F}"/>
-    <hyperlink ref="C35" r:id="rId14" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{3A24C125-977E-4A2D-9FBA-1289B32B34B4}"/>
-    <hyperlink ref="C38" r:id="rId15" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B7B8B819-3662-45DB-84FB-C6CE39311D18}"/>
-    <hyperlink ref="C41" r:id="rId16" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{BD1EF33A-9670-4A92-B282-81C94D3D4D1C}"/>
-    <hyperlink ref="C44" r:id="rId17" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{653A937C-38F5-451B-A120-07BF6118FC70}"/>
-    <hyperlink ref="C47" r:id="rId18" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{B146E3E6-8A53-4B3B-94D9-BA0536685EC8}"/>
-    <hyperlink ref="C50" r:id="rId19" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{D987F8DB-AC4D-4C62-B140-A437959016AB}"/>
-    <hyperlink ref="C53" r:id="rId20" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{0AB2798F-8C7D-4B41-B444-B73896CD56F1}"/>
-    <hyperlink ref="C56" r:id="rId21" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{4FEA4895-8B71-4AFC-8CD5-07E335F1AA49}"/>
-    <hyperlink ref="C59" r:id="rId22" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{37AFB607-1ABE-42A8-980A-66B44F84F9AB}"/>
-    <hyperlink ref="C62" r:id="rId23" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{D4AC4DEC-943C-4C2C-AE91-B97315A108A3}"/>
-    <hyperlink ref="C65" r:id="rId24" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{81EDF490-0876-48DB-83C5-64C47C29CCE8}"/>
-    <hyperlink ref="C68" r:id="rId25" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{EF25D314-3CD6-4555-A693-8C7838B39A23}"/>
-    <hyperlink ref="C71" r:id="rId26" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{16F437D7-0375-4C8C-A1B8-B2862561A7AD}"/>
-    <hyperlink ref="C74" r:id="rId27" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{BD7ADAAF-0437-42E2-B30F-E4B2138A6577}"/>
-    <hyperlink ref="C77" r:id="rId28" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{28EAF183-900F-4D43-8704-4ACF6B42AD1D}"/>
-    <hyperlink ref="C80" r:id="rId29" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{82C0929D-4715-445B-B74C-724125F5FF7F}"/>
-    <hyperlink ref="C83" r:id="rId30" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{35913DDA-723B-4907-9621-BB4E186B21F6}"/>
-    <hyperlink ref="C86" r:id="rId31" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{50F08F36-BFDB-451A-81F0-060290A6335D}"/>
-    <hyperlink ref="C89" r:id="rId32" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{44E50B6C-0AF1-47BB-B513-99B0DB425E01}"/>
-    <hyperlink ref="C92" r:id="rId33" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{9D15DAE2-39FF-47EF-973D-80E5D3EA12FE}"/>
-    <hyperlink ref="C95" r:id="rId34" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{32D0F0ED-7119-49F7-BA30-CF661E3DDDDC}"/>
-    <hyperlink ref="C98" r:id="rId35" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{2BF76DB9-B1D8-4B6C-A3F5-F52FEAB9CA94}"/>
-    <hyperlink ref="C101" r:id="rId36" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{51C84B01-7BA8-424D-8611-9B36A42C1FB2}"/>
-    <hyperlink ref="C104" r:id="rId37" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{4311B5FE-C300-417F-90A5-6E75444BD490}"/>
-    <hyperlink ref="C107" r:id="rId38" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{F79299D0-8DD7-4AE1-BA93-1818F8A31C98}"/>
-    <hyperlink ref="C110" r:id="rId39" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{7874A9E2-81F6-44FC-924B-F1A0613AAEF1}"/>
-    <hyperlink ref="C113" r:id="rId40" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{8DE79EDB-EDE0-4E6D-BEBF-426775B9F9B4}"/>
-    <hyperlink ref="C116" r:id="rId41" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{BC99BE56-4DD1-41FB-9CCC-E796F4FF6D21}"/>
-    <hyperlink ref="C119" r:id="rId42" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/1.jpg?raw=true" xr:uid="{6DAE31E2-93DC-419E-8FED-2892202CB4DB}"/>
-    <hyperlink ref="C122" r:id="rId43" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{FD6F523D-2ECA-491B-8EAB-654645D0337A}"/>
-    <hyperlink ref="C6" r:id="rId44" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{048B47CB-709C-4DCA-8F49-F05F17464307}"/>
-    <hyperlink ref="C9" r:id="rId45" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FD245DFF-57F0-44B8-9A8B-B6BE0C69522C}"/>
-    <hyperlink ref="C12" r:id="rId46" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{9FC1B671-F7FC-4366-AF9A-B6B495E73E4C}"/>
-    <hyperlink ref="C15" r:id="rId47" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FA831A9D-CFC3-4EE2-B404-64D9FE7F38B1}"/>
-    <hyperlink ref="C18" r:id="rId48" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{26C0F2A3-67A9-4FEA-88FE-08430D689BEB}"/>
-    <hyperlink ref="C21" r:id="rId49" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{7BDF2811-3242-444D-BC88-79DDEB9D9E03}"/>
-    <hyperlink ref="C24" r:id="rId50" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{92CB0AAC-0CAF-42CC-BD4C-22138FE2A3DC}"/>
-    <hyperlink ref="C27" r:id="rId51" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8A157B52-FDC7-45FD-8E20-152C116B864B}"/>
-    <hyperlink ref="C30" r:id="rId52" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{7488EC66-4392-4272-920D-D7BE0AFEC176}"/>
-    <hyperlink ref="C33" r:id="rId53" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B9104B09-6F42-4BA4-8BE5-68C80F8F79B9}"/>
-    <hyperlink ref="C36" r:id="rId54" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{95D27800-7AA8-46BC-931C-E5251B10F7E3}"/>
-    <hyperlink ref="C39" r:id="rId55" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{D2BB0AEA-D85F-4476-A620-01B93063121D}"/>
-    <hyperlink ref="C42" r:id="rId56" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C7FDC944-7511-4EB7-A40C-C902C217239D}"/>
-    <hyperlink ref="C45" r:id="rId57" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8BE11E2E-9F07-4DBD-B5FA-0FCCEA6ACC83}"/>
-    <hyperlink ref="C48" r:id="rId58" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{E8B03737-DF81-4F07-B713-F4D2F1EFB25B}"/>
-    <hyperlink ref="C51" r:id="rId59" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{4FAB1834-7B98-4791-9B82-F9474AA88788}"/>
-    <hyperlink ref="C54" r:id="rId60" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{7B96ACEA-A1B2-4AEC-8BE3-AE5A480BFAC3}"/>
-    <hyperlink ref="C57" r:id="rId61" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8BAA9540-62A6-4E95-BCEB-DF03A47F355A}"/>
-    <hyperlink ref="C60" r:id="rId62" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C7B87CF4-B3CB-4DB4-BE3C-F14F23FF9BA5}"/>
-    <hyperlink ref="C63" r:id="rId63" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B244C1C8-B314-4A44-88B4-F37062276768}"/>
-    <hyperlink ref="C66" r:id="rId64" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{93DDC2DF-B3B7-4007-A553-4E4DB9FF4082}"/>
-    <hyperlink ref="C69" r:id="rId65" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B0E0A7D8-1E3E-4700-9A2E-9B6E01A04FE1}"/>
-    <hyperlink ref="C72" r:id="rId66" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{87FFAACD-6236-4AA4-96FE-7410DDBB6054}"/>
-    <hyperlink ref="C75" r:id="rId67" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{4B47D633-6EDD-44AC-95C5-3D2F68A851AD}"/>
-    <hyperlink ref="C78" r:id="rId68" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{8DBF2357-21F8-4BF9-996C-FF20A6EC37B1}"/>
-    <hyperlink ref="C81" r:id="rId69" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C10B04E5-7716-4BB2-A18F-82E340A9FEB7}"/>
-    <hyperlink ref="C84" r:id="rId70" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{3CF730EB-3B4E-479F-A5B2-B7399F5605D0}"/>
-    <hyperlink ref="C87" r:id="rId71" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{AFF31D43-515F-4BDE-B112-1AB97F35412E}"/>
-    <hyperlink ref="C90" r:id="rId72" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FE1065EF-E8CB-4D96-A9A1-D80742C68E1B}"/>
-    <hyperlink ref="C93" r:id="rId73" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{11FFBFCA-828D-4EB0-ACBE-B0B920720192}"/>
-    <hyperlink ref="C96" r:id="rId74" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{A4215493-D2C6-4AC7-B84E-91667F9EFBAB}"/>
-    <hyperlink ref="C99" r:id="rId75" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{61AB7617-7396-47ED-BAD0-CCE388B933A4}"/>
-    <hyperlink ref="C102" r:id="rId76" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{1ED77025-FD39-475D-A83D-060746F0F521}"/>
-    <hyperlink ref="C105" r:id="rId77" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{FEEDCB09-C426-4F5B-A1F0-AB7E0F16354D}"/>
-    <hyperlink ref="C108" r:id="rId78" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{D69BDE7F-876C-4546-A65C-0AE2256F6138}"/>
-    <hyperlink ref="C111" r:id="rId79" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{C2CADBA5-B2B0-4207-88BD-16A1B48C71D2}"/>
-    <hyperlink ref="C114" r:id="rId80" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{92642BE4-782D-43DC-8448-DCDE9E9B338C}"/>
-    <hyperlink ref="C117" r:id="rId81" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{B9FEB0D1-492F-41BC-BC1A-62B62C447F1E}"/>
-    <hyperlink ref="C120" r:id="rId82" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/2.jpg?raw=true" xr:uid="{ECD053EB-CC0A-4E2D-96A2-AF4F708AA289}"/>
-    <hyperlink ref="C7" r:id="rId83" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{61A4B5AC-CE1F-4F47-BAC2-17014D95F855}"/>
-    <hyperlink ref="C10" r:id="rId84" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{230EEF84-5FA5-4A52-AA2B-E9F49C8BAFB6}"/>
-    <hyperlink ref="C13" r:id="rId85" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{69694FCF-7C88-4B84-9593-E8316C7A7A95}"/>
-    <hyperlink ref="C16" r:id="rId86" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{0CEC22EC-70BB-47A6-9E7F-7EAAE125B9EA}"/>
-    <hyperlink ref="C19" r:id="rId87" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{F5B4E25C-5688-48FC-B960-379BFB12EFF5}"/>
-    <hyperlink ref="C22" r:id="rId88" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{D02EB6AE-1F9D-4098-8831-B6AAAD0292D6}"/>
-    <hyperlink ref="C25" r:id="rId89" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{87612836-83BE-4FCD-B0E5-2865CDF99CC4}"/>
-    <hyperlink ref="C28" r:id="rId90" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{AC1F7B08-C6E8-4DCE-833A-78879858306A}"/>
-    <hyperlink ref="C31" r:id="rId91" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{E380768E-882A-48C7-8E13-D2A7DC559E93}"/>
-    <hyperlink ref="C34" r:id="rId92" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{010BF8BC-A478-4886-A787-78C05597C569}"/>
-    <hyperlink ref="C37" r:id="rId93" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{986932C0-B689-4048-B338-CC2D2BC54145}"/>
-    <hyperlink ref="C40" r:id="rId94" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{29335EAD-B54C-415E-8181-9A4F60579386}"/>
-    <hyperlink ref="C43" r:id="rId95" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{60B5F77D-8F44-4659-ABB4-4C1ED05F6E3A}"/>
-    <hyperlink ref="C46" r:id="rId96" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{E52AC57A-BE8F-4076-A1EE-9C326E7875D5}"/>
-    <hyperlink ref="C49" r:id="rId97" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{1DFB5EAD-6B83-4C6C-BDFF-932EFD2D1A47}"/>
-    <hyperlink ref="C52" r:id="rId98" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{1BE5D112-3B01-429C-A6B8-E4F8FFDDAF09}"/>
-    <hyperlink ref="C55" r:id="rId99" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{5BE094E6-F5D2-411B-B93E-0729D50D6F5E}"/>
-    <hyperlink ref="C58" r:id="rId100" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{A7DB73A4-5AB7-4417-A5D4-DE9AEBFD1767}"/>
-    <hyperlink ref="C61" r:id="rId101" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{05A4B1E3-15FD-4CC9-93F0-9CFF15DAFFE1}"/>
-    <hyperlink ref="C64" r:id="rId102" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{D12AB497-01FD-482F-A0A5-7F5800FCE8D3}"/>
-    <hyperlink ref="C67" r:id="rId103" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{9B99A616-6A44-4AF3-9BA7-F8C5F8F78507}"/>
-    <hyperlink ref="C70" r:id="rId104" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{4152B6ED-DCED-4533-AA1F-C1BDD7019681}"/>
-    <hyperlink ref="C73" r:id="rId105" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{1270F80E-11C7-4123-A29E-77D055EC9A1A}"/>
-    <hyperlink ref="C76" r:id="rId106" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{65B4C6D5-0C87-48D8-A6D5-84DF9A8DD02E}"/>
-    <hyperlink ref="C79" r:id="rId107" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{60A77885-3758-4192-83FE-9A1EFE611496}"/>
-    <hyperlink ref="C82" r:id="rId108" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{9D67976E-30FD-4BFD-8EA4-A84985323858}"/>
-    <hyperlink ref="C85" r:id="rId109" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{EC515CDC-6DF9-493A-BDBF-F22A94704369}"/>
-    <hyperlink ref="C88" r:id="rId110" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{4832038F-5B57-456D-B164-08E6B4960024}"/>
-    <hyperlink ref="C91" r:id="rId111" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{EC2D0268-8555-4678-958E-60299EEA843C}"/>
-    <hyperlink ref="C94" r:id="rId112" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{5D0EBAC0-8004-4CE7-9E15-F36C39035727}"/>
-    <hyperlink ref="C97" r:id="rId113" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{7C422AE6-06D9-4703-95B4-0B099803C8E2}"/>
-    <hyperlink ref="C100" r:id="rId114" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{CEC51637-599B-4D4A-9386-597085ED2758}"/>
-    <hyperlink ref="C103" r:id="rId115" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{2087EF4D-4E9D-48E8-87B4-7624BDE9B619}"/>
-    <hyperlink ref="C106" r:id="rId116" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{E1AF75A3-E0C1-46CA-A073-481F71210BD1}"/>
-    <hyperlink ref="C109" r:id="rId117" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{C5E572B3-E61F-43F9-B2DC-364DF71868F7}"/>
-    <hyperlink ref="C112" r:id="rId118" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{8EF40923-186E-4E9F-B410-CF6656891E4D}"/>
-    <hyperlink ref="C115" r:id="rId119" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{59CF7736-0EF8-4702-ACEC-2EAE4E5677BC}"/>
-    <hyperlink ref="C118" r:id="rId120" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{138AE6F7-C3D3-4010-B0A3-6C39A094456E}"/>
-    <hyperlink ref="C121" r:id="rId121" display="https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/3.jpg?raw=true" xr:uid="{BE9B4865-DDCD-45DD-B9B0-7ACEDD77FBC6}"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{BC5636DD-5906-45D6-8962-E016142AE2D3}"/>
+    <hyperlink ref="C113" r:id="rId2" xr:uid="{E4FB9905-DBB4-4E9A-8AC7-6BDDFFCFD98D}"/>
+    <hyperlink ref="C114" r:id="rId3" xr:uid="{27FFC941-6DEF-4305-9504-4AA30C8CDA58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId122"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8613,7 +8239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F99F112-7899-435C-9163-E56174675D66}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8632,23 +8258,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>994</v>
+        <v>751</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>996</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>995</v>
+        <v>752</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>997</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -8685,143 +8311,143 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>426</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>287</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>427</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>288</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>289</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>429</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>430</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>292</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>432</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>433</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>295</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>435</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>436</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>297</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>298</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>438</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>439</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>300</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>440</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>302</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>442</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -8872,12 +8498,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8909,17 +8535,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\AshGray-main (2)\AshGray-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E30319-653C-486C-8CEC-E2A2B7DEDA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F72C7A-AFC7-47B0-8DD3-67DFE072C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="225" windowWidth="20295" windowHeight="14985" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
@@ -2701,9 +2701,6 @@
     <t>(온힘) 로터리 토르소</t>
   </si>
   <si>
-    <t>(온힘) 복부 운동기 (앱도미널)</t>
-  </si>
-  <si>
     <t>(온힘) 레그 익스텐션</t>
   </si>
   <si>
@@ -3399,6 +3396,10 @@
   </si>
   <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_8Station.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(온힘) 업 도미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6840,7 +6841,7 @@
         <v>194</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -7233,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7260,7 +7261,7 @@
         <v>755</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7268,7 +7269,7 @@
         <v>756</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7276,7 +7277,7 @@
         <v>757</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7284,7 +7285,7 @@
         <v>758</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7292,7 +7293,7 @@
         <v>759</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7300,15 +7301,15 @@
         <v>760</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7316,7 +7317,7 @@
         <v>761</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7324,7 +7325,7 @@
         <v>762</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7332,7 +7333,7 @@
         <v>763</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7340,7 +7341,7 @@
         <v>764</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7348,15 +7349,15 @@
         <v>765</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7364,863 +7365,866 @@
         <v>766</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>767</v>
+        <v>997</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
+      </c>
+      <c r="B86">
+        <v>2300000</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\AshGray-main (2)\AshGray-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F72C7A-AFC7-47B0-8DD3-67DFE072C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771CCD11-DBCC-4940-9866-AA324B1AA50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="225" windowWidth="20295" windowHeight="14985" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
@@ -3342,14 +3342,6 @@
     <t>(토쳐R) 로우 로우 R형</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Seated_Chest_Press?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(케이블 모션) 케이블 크로스오버</t>
   </si>
   <si>
@@ -3399,6 +3391,14 @@
   </si>
   <si>
     <t>(온힘) 업 도미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Seated_Chest_Press.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R.webp?raw=true  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7234,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>790</v>
@@ -8152,7 +8152,7 @@
         <v>977</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>979</v>
+        <v>996</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8160,71 +8160,71 @@
         <v>978</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\AshGray-main (2)\AshGray-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771CCD11-DBCC-4940-9866-AA324B1AA50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C00C44-9604-4DD3-BE76-F43BBC25348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="225" windowWidth="20295" windowHeight="14985" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="4380" yWindow="405" windowWidth="20295" windowHeight="14985" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>암컥 랙 TWF 211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스쿼트 랙  TWF 303</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3399,6 +3395,10 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암컬 랙 TWF 211</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3834,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0F6C0-818E-4F46-886B-A324E86407FA}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3847,13 +3847,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3925,43 +3925,43 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>228</v>
+      <c r="A12" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>229</v>
+      <c r="A13" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -4312,97 +4312,97 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>997</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4438,34 +4438,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4474,1126 +4474,1126 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5761,1303 +5761,1303 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -7234,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7253,978 +7253,1041 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
+      </c>
+      <c r="B11">
+        <v>3400000</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
+      </c>
+      <c r="B30">
+        <v>2600000</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
+      </c>
+      <c r="B47">
+        <v>3000000</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
+      </c>
+      <c r="B50">
+        <v>2400000</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
+      </c>
+      <c r="B51">
+        <v>2200000</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
+      </c>
+      <c r="B57">
+        <v>900000</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
+      </c>
+      <c r="B59">
+        <v>750000</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
+      </c>
+      <c r="B61">
+        <v>700000</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
+      </c>
+      <c r="B63">
+        <v>350000</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
+      </c>
+      <c r="B64">
+        <v>400000</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
+      </c>
+      <c r="B71">
+        <v>700000</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
+      </c>
+      <c r="B73">
+        <v>850000</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
+      </c>
+      <c r="B78">
+        <v>900000</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
+      </c>
+      <c r="B84">
+        <v>350000</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B86">
         <v>2300000</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
+      </c>
+      <c r="B90">
+        <v>2700000</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
+      </c>
+      <c r="B94">
+        <v>2800000</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
+      </c>
+      <c r="B96">
+        <v>2600000</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
+      </c>
+      <c r="B102">
+        <v>4700000</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
+      </c>
+      <c r="B106">
+        <v>2600000</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
+      </c>
+      <c r="B110">
+        <v>3300000</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
+      </c>
+      <c r="B115">
+        <v>3200000</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -8262,23 +8325,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8360,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8315,143 +8378,143 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8502,12 +8565,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -8539,17 +8602,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\AshGray-main (2)\AshGray-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C00C44-9604-4DD3-BE76-F43BBC25348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D31EAA-B508-4BE3-9FF4-F9EA43D06012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="405" windowWidth="20295" windowHeight="14985" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1001">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,2450 +955,2464 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/18.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/19.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/20.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/21.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/22.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/23.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/24.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/25.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/26.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/27.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/28.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/29.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/30.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/31.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/32.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/33.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/34.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/35.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/36.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/37.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/38.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/39.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/40.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/41.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/42.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/43.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/44.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/45.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/46.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/47.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/48.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/49.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/50.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/51.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/52.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/53.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/54.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/55.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/56.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/57.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/58.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/59.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/60.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>일반 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코팅 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코팅 고무블럭 50T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아레나 코팅 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑블랙 코팅 고무블럭 25T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25T 마감재(실버) 일자 2400mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25T 마감재(실버) 모서리 300mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25T 마감재(실버) 역모서리 300mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50T 마감재(실버) 일자 2400mm</t>
+  </si>
+  <si>
+    <t>50T 마감재(실버) 모서리 300mm</t>
+  </si>
+  <si>
+    <t>50T 마감재(실버) 역모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(골드) 일자 2400mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(골드) 모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(골드) 역모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(블랙) 일자 2400mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(블랙) 모서리 300mm</t>
+  </si>
+  <si>
+    <t>25T 마감재(블랙) 역모서리 300mm</t>
+  </si>
+  <si>
+    <t>에버롤 1x10m (1롤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/61.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/3.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/4.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>베스코 TPU 덤벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스코 육각 고무 덤벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T824A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T824Ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T832AiF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80iM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-RUNNER(KSF-C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/3.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/4.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>U500T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U500S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R500T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R500S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E500S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E500T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/18.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/19.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/20.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/21.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/22.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/23.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/24.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/25.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/26.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/27.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/28.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/29.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/30.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/31.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/32.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/33.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/34.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/35.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/36.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/37.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/38.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/39.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/40.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/41.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/42.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/43.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/44.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/45.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/46.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/47.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/48.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/49.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/50.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/51.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/52.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/53.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/54.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/55.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/56.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/57.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/58.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>래터럴 라이즈 PRT 604 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숄더 프레스 PRT 504 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포티드 로우 PRT 406 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱풀 PRT 402-A 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시티드 체스트 프레스 PRT 401 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어시스트 친 딥 PRT 306 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암컬 PRT 304 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫풀다운 PRT 303 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫 머신 PRT 303-B 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩 리어 델트 플라이 PRT 302-A 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업도미널 크런치 PRT 205 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로타리 토르소 PRT 204 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시티드 레그컬 PRT 203-A 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라잉 레그컬 PRT 203 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레그 익스텐션 PRT 202 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토탈힙 PRT 201 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어덕션 &amp; 어브덕션 PRT 106-C 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어브덕션 PRT 106-B 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어덕션 PRT 106-A 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시티드 레그 프레스 PRT 101 프루프 ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 101 레그프레스 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 106 힙 어덕터 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 201 토탈 힙 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 202 레그 익스텐션 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 203-A 시티드 레그 컬 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 601 파워 랙 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 505 크로스 오버 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 504 숄더 프레스 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 502 인클라인 프레스 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 501 체스트 프레스 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 406 서포티드 로우 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 405 체스트 웨이트 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 402 시티드 케이블 로우 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 401 체스트 프레스 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 306 치닝 디핑 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 305 디핑 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 304 인클라인 바이셉 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 303-B 랫 머신 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 303-A 랫 풀 다운 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 302-1 버터플라이 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 302 펙 리어 델트플라이 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 205 업도미널 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 204 로타리 토르소 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX 203-B 라잉 레그 컬 네오맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 701 디클라인 프레스 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 702 인클라인 프레스 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 703 숄더 프레스 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 706 체스트 프레스 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 707 로우 로우 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 708 하이 로우 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 709 프론트 풀 다운 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 801 레그 익스텐션 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP 802 니링 레그 컬 엑스프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/59.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/60.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/61.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/62.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/63.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/64.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/65.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/66.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/67.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/68.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/69.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/70.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/71.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/72.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/73.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/74.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/75.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>XPL 701 디클라인 프레스 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPL 702 인클라인 프레스 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPL 703 숄더 프레스 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPL 706 체스트 프레스 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPL 707 로우 로우 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPL 708 하이 로우 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPL 709 프론트 풀 다운 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPL 710 시티드 로우 엑스플로 플레이트 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 101-1 레그 프레스 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 106 이너 타이 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 201 토탈 힙 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 202 레그 익스텐션 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 203 레그 컬 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 204 토르소 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 205 업도미널 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 302 버터플라이 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 302-A 펙 리어 델트플라이 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 303 하이풀리 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 304 암컬 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 305 디핑 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 401 시티드 체스트 프레스 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 402 롱풀 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 405 체스트 웨이트 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 501 체스트 프레스 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 502 인클라인 프레스 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 504 숄더 프레스 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 505 크로스 오버 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTL 601 파워랙 뉴타론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/76.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/77.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/78.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/79.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/80.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/81.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/82.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/83.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/84.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/85.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/86.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/87.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/88.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/89.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/90.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/91.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/92.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/93.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/94.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/95.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>PRT 804-A V-스쿼트 플레이트로디드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRT 805 힙 쓰러스트 플레이트로디드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRT 806 글루트 시스템 플레이트로디드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRT 807 와이드 풀 다운 플레이트로디드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRT 808 핵 스쿼트 플레이트로디드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRT 809 파워 레그 프레스 플레이트로디드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/96.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/97.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/98.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/99.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/100.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/101.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/102.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/103.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/104.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/105.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/106.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/107.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/108.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/109.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/110.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/111.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/112.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/113.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/114.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/115.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/116.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/117.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/118.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/119.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/120.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/121.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/122.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/123.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/124.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/125.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/126.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/127.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>NF 101 플랫 벤치 평벤치 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 102 벤치 프레스 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 103 슈파인 벤치 프레스 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 201 슈파인 인클라인 프레스 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 203 디클라인 벤치 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 204 슈파인 디클라인 벤치 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 206 블랙 익스텐션 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 301 암 컬 벤치 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 302 더블 트위스트 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 303 티 바 로우 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 306 멀티 어드저스터블 벤치 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 401 스쿼트 랙 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 403 웨이트 트리 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 404 덤벨 랙 18 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 404-A 덤밸 랙 20 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 404-B 덤밸 랙 30 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 405 친딥 레그 레이즈 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 406 바벨 랙 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 508 유틸리티 벤치 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 510 레그 레이즈 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 601 싯업 벤치 1인용 (NF통합)</t>
+  </si>
+  <si>
+    <t>NF 602 싯업 벤치 2인용 (NF통합)</t>
+  </si>
+  <si>
+    <t>NXH 201 해머 인클라인 프레스 (NF통합)</t>
+  </si>
+  <si>
+    <t>NXH 202 해머 디클라인 프레스 (NF통합)</t>
+  </si>
+  <si>
+    <t>NXH 203 해머 벤치 프레스 (NF통합)</t>
+  </si>
+  <si>
+    <t>NXH 301 해머 숄더 프레스 (NF통합)</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/128.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/129.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/130.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/131.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/132.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/133.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>PT 601 스미스 머신 (랙/케이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT 600A 스미스 하프 랙 (랙/케이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT 100A 하프 랙 (랙/케이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT 400A 듀얼 풀리 (랙/케이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT 300A 파워 랙 (랙/케이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT 400B 케이블 크로스 오버 (랙/케이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/18.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/19.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/20.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/21.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/22.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/23.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/24.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/25.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/26.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/27.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/28.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/29.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/30.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/31.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/32.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/33.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/34.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/35.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/36.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/37.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/38.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/39.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/40.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/41.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/42.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/43.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/44.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/45.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/46.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/47.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/48.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/49.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/50.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/51.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/52.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/53.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/54.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/55.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/56.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/57.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/58.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/59.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/60.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/61.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/62.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/63.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/64.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/65.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/66.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/67.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/68.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/69.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/70.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/71.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/72.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/73.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/74.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/75.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/76.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/77.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/78.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/79.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/80.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/81.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/82.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/83.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/84.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/85.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/86.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/87.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/88.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/89.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/90.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/91.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/92.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/93.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/94.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/95.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/96.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/97.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/98.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/99.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/100.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/101.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/102.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/103.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/104.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/105.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/106.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/107.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/108.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/109.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/110.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/111.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/112.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/113.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/114.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/115.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/116.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/117.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/118.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/119.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/120.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/121.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/122.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/123.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/124.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/125.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/126.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/127.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/128.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/129.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/130.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/131.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/132.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/133.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/134.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/136.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/137.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/138.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/139.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/140.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/141.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/142.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/143.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/144.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/145.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/146.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/147.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/148.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/149.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/150.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/151.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/152.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/153.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/154.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/155.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/156.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/157.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/158.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/159.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/160.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/161.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/162.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>아레나킹 스테어 클라이머(블랙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아레나킹 스테어 클라이머(화이트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/1.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/2.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(온힘) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(온힘) 팩덱 플라이 (리버스 포함)</t>
+  </si>
+  <si>
+    <t>(온힘) 스탠딩 플라이 체스트 백</t>
+  </si>
+  <si>
+    <t>(온힘) 랫 풀다운 &amp; 하이 풀리</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(온힘) 조절형 로우 풀리</t>
+  </si>
+  <si>
+    <t>(온힘) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(온힘) 스탠딩 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(온힘) 싱글 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(온힘) 암 컬</t>
+  </si>
+  <si>
+    <t>(온힘) 로터리 토르소</t>
+  </si>
+  <si>
+    <t>(온힘) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(온힘) 레그 컬</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 레그 프레스</t>
+  </si>
+  <si>
+    <t>(온힘) 힙 어덕션 단일 동작</t>
+  </si>
+  <si>
+    <t>(온힘) 힙 어덕션 + 어브덕션 콤보</t>
+  </si>
+  <si>
+    <t>(온힘) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 딥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(온힘) 친업 + 딥 어시스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/135.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Incline_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Pec_Dec_Fly_With_Reverse.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Row.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Adjustable_Low_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Chin_Up_Dip_Assist.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Shoulder_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Single_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Arm_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Dip.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Rotary_Torso.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Abdominal.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Extension.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Leg_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Single_Move.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Glute_Kick_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Curl.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Inward.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Outward.webp?raw=true  </t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 로우 (외회전)</t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 로우 (내회전)</t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 팩덱 플라이 (리버스 포함)</t>
+  </si>
+  <si>
+    <t>(어드밴스) 스탠딩 플라이 체스트 백</t>
+  </si>
+  <si>
+    <t>(어드밴스) 랫 풀다운 &amp; 하이 풀리</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(어드밴스) 로우 풀리 롱 풀</t>
+  </si>
+  <si>
+    <t>(어드밴스) 친업 &amp; 딥 어시스트</t>
+  </si>
+  <si>
+    <t>(어드밴스) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 스탠딩 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(어드밴스) 암 컬</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 딥</t>
+  </si>
+  <si>
+    <t>(어드밴스) 로터리 토르소</t>
+  </si>
+  <si>
+    <t>(어드밴스) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(어드밴스) 레그 컬</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 레그 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 힙 어덕션 + 어브덕션 콤보</t>
+  </si>
+  <si>
+    <t>(어드밴스) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>(어드밴스) 업도미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Incline_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Pec_Deck_Fly_with_Reverse.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Row.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Low_Pully_Long_Pull.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Chin-Up_Dip_Assist.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Shoulder_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Arm_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Dip.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Rotary_Torso.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Abdominal.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Extension.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Leg_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Glute_Kick_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 3D + 스미스 + 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 + 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 머신 (수직형 2000)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 머신 (각도형 2000)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 3D 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 파워랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스쿼트 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플랫 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 인클라인 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 디클라인 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) MV 올림픽 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 인클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 디클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 각도 조절 인클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 각도 조절 디클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플랫 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 유틸리티 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 프리처 컬 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 프리처 컬 벤치 (스탠드형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 힙 쓰러스트 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 벤트오버 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 싯업 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 무빙 레그 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 딥 &amp; 레그 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 트위스트 더블</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 로만 체어 (45~90도 조절형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) GHD 90도 로만 체어</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 멀티오버 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 티바 로우</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 시티드 카프 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (기본형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (로우형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (스몰형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플레이트 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 고정 바벨랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 고정 바벨랙 (하프)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 바벨랙 (스탠드형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 핸들랙 프로</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_+_Smith_+_Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_+_Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Vertical_2000.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Angle_2000.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_RACK.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Power_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Squat_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Flat_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Incline_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Decline_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Shoulder_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/MV_Olympic_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Incline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Decline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Incline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Decline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Flat_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Utility_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench_Stand_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Hip_Thrust_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Bentover_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Sit_Up.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Moving_Leg_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dip&amp;Leg_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Twist_Double.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Roman_Chair_45~90deg_Adjust_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/GHD_90deg_Roman_Chair.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Multiover_Lateral_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/T-Bar_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Seated_Calf_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Basic_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Low_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Small_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plates_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Reack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Rack_Half.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Barbell_Rack_Stand_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Handle_Rack_Pro.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(토쳐) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 로우 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 프론트 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 풀다운 프론트</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 풀다운 리어</t>
+  </si>
+  <si>
+    <t>(토쳐) 버티컬 풀다운</t>
+  </si>
+  <si>
+    <t>(토쳐) 하이 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 투웨이 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 체스트 &amp; 디클라인 콤보</t>
+  </si>
+  <si>
+    <t>(토쳐) 팩덱 플라이</t>
+  </si>
+  <si>
+    <t>(토쳐) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(토쳐) 암 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 오버헤드 익스텐션</t>
+  </si>
+  <si>
+    <t>(토쳐) 파워 레그 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 핵 스쿼트</t>
+  </si>
+  <si>
+    <t>(토쳐) 스쿼트 &amp; 카프 레이즈</t>
+  </si>
+  <si>
+    <t>(토쳐) 드롭 스쿼트</t>
+  </si>
+  <si>
+    <t>(토쳐) 핵 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(토쳐) 니링 레그 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 레그 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 힙 쓰러스트</t>
+  </si>
+  <si>
+    <t>(토쳐) 리버스 하이퍼</t>
+  </si>
+  <si>
+    <t>(토쳐) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Seated_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Low_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Front_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Front.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Rear.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Vertical_Pull_Down.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/High_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Two_Way_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Chest_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Incline_Chest_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Chest_&amp;_Decline_Combo.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Pec_Dec_Fly.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Shoulder_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Lateral_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Arm_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Over_Head_Extension.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Power_Leg_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Squat.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Squat_&amp;_Calf_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Drop_Squat.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Extension.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Kneeling_Leg_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hip_Thrust.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Reverse_Hyper.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Glute_Kick_Back.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(토쳐R) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐R) 로우 로우 R형</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 케이블 크로스오버</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티 풀리</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 듀얼 풀리</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 트라이 케이블</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 트라이 케이블 (4스테이션)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (5스테이션-C)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (5스테이션-P)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (8스테이션)</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Cable_Cross_Over.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Pulley.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Dual_Pulley.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable_4Station.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_C.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_P.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_8Station.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(온힘) 업 도미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Seated_Chest_Press.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암컬 랙 TWF 211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/6.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/5.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/6.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/7.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/8.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/9.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/10.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/11.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/12.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/13.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/14.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/15.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/16.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/17.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/18.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/19.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/20.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/21.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/22.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/23.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/24.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/25.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/26.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/27.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/28.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/29.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/30.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/31.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/32.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/33.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/34.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/35.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/36.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/37.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/38.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/39.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/40.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/41.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/42.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/43.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/44.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/45.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/46.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/47.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/48.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/49.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/50.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/51.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/52.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/53.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/54.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/55.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/56.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/57.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/58.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/59.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/60.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>일반 고무블럭 25T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코팅 고무블럭 25T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코팅 고무블럭 50T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아레나 코팅 고무블럭 25T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑블랙 코팅 고무블럭 25T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25T 마감재(실버) 일자 2400mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25T 마감재(실버) 모서리 300mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25T 마감재(실버) 역모서리 300mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50T 마감재(실버) 일자 2400mm</t>
-  </si>
-  <si>
-    <t>50T 마감재(실버) 모서리 300mm</t>
-  </si>
-  <si>
-    <t>50T 마감재(실버) 역모서리 300mm</t>
-  </si>
-  <si>
-    <t>25T 마감재(골드) 일자 2400mm</t>
-  </si>
-  <si>
-    <t>25T 마감재(골드) 모서리 300mm</t>
-  </si>
-  <si>
-    <t>25T 마감재(골드) 역모서리 300mm</t>
-  </si>
-  <si>
-    <t>25T 마감재(블랙) 일자 2400mm</t>
-  </si>
-  <si>
-    <t>25T 마감재(블랙) 모서리 300mm</t>
-  </si>
-  <si>
-    <t>25T 마감재(블랙) 역모서리 300mm</t>
-  </si>
-  <si>
-    <t>에버롤 1x10m (1롤)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/61.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/1.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/2.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/3.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/4.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/5.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/6.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/7.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/8.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/9.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/10.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/11.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/12.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/13.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/14.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/15.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/16.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/17.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>베스코 TPU 덤벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스코 육각 고무 덤벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T824A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T824Ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T832AiF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80iM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K-RUNNER(KSF-C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/1.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/2.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/3.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/4.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/5.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/6.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/7.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/8.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/9.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/10.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/11.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/12.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/13.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/14.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>U500T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U500S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R500T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R500S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E500S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E500T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/15.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/16.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/17.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/18.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/19.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/20.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/21.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/22.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/23.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/24.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/25.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/26.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/27.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/28.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/29.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/30.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/31.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/32.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/33.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/34.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/35.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/36.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/37.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/38.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/39.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/40.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/41.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/42.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/43.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/44.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/45.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/46.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/47.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/48.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/49.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/50.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/51.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/52.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/53.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/54.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/55.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/56.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/57.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/58.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>래터럴 라이즈 PRT 604 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더 프레스 PRT 504 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포티드 로우 PRT 406 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱풀 PRT 402-A 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 체스트 프레스 PRT 401 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어시스트 친 딥 PRT 306 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 PRT 304 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫풀다운 PRT 303 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫 머신 PRT 303-B 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩 리어 델트 플라이 PRT 302-A 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업도미널 크런치 PRT 205 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로타리 토르소 PRT 204 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 레그컬 PRT 203-A 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라잉 레그컬 PRT 203 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레그 익스텐션 PRT 202 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토탈힙 PRT 201 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어덕션 &amp; 어브덕션 PRT 106-C 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어브덕션 PRT 106-B 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어덕션 PRT 106-A 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시티드 레그 프레스 PRT 101 프루프 ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 101 레그프레스 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 106 힙 어덕터 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 201 토탈 힙 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 202 레그 익스텐션 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 203-A 시티드 레그 컬 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 601 파워 랙 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 505 크로스 오버 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 504 숄더 프레스 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 502 인클라인 프레스 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 501 체스트 프레스 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 406 서포티드 로우 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 405 체스트 웨이트 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 402 시티드 케이블 로우 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 401 체스트 프레스 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 306 치닝 디핑 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 305 디핑 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 304 인클라인 바이셉 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 303-B 랫 머신 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 303-A 랫 풀 다운 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 302-1 버터플라이 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 302 펙 리어 델트플라이 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 205 업도미널 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 204 로타리 토르소 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX 203-B 라잉 레그 컬 네오맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 701 디클라인 프레스 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 702 인클라인 프레스 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 703 숄더 프레스 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 706 체스트 프레스 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 707 로우 로우 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 708 하이 로우 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 709 프론트 풀 다운 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 801 레그 익스텐션 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP 802 니링 레그 컬 엑스프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/59.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/60.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/61.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/62.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/63.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/64.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/65.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/66.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/67.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/68.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/69.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/70.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/71.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/72.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/73.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/74.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/75.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>XPL 701 디클라인 프레스 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPL 702 인클라인 프레스 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPL 703 숄더 프레스 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPL 706 체스트 프레스 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPL 707 로우 로우 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPL 708 하이 로우 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPL 709 프론트 풀 다운 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPL 710 시티드 로우 엑스플로 플레이트 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 101-1 레그 프레스 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 106 이너 타이 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 201 토탈 힙 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 202 레그 익스텐션 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 203 레그 컬 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 204 토르소 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 205 업도미널 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 302 버터플라이 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 302-A 펙 리어 델트플라이 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 303 하이풀리 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 304 암컬 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 305 디핑 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 401 시티드 체스트 프레스 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 402 롱풀 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 405 체스트 웨이트 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 501 체스트 프레스 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 502 인클라인 프레스 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 504 숄더 프레스 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 505 크로스 오버 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTL 601 파워랙 뉴타론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/76.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/77.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/78.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/79.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/80.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/81.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/82.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/83.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/84.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/85.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/86.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/87.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/88.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/89.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/90.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/91.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/92.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/93.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/94.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/95.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>PRT 804-A V-스쿼트 플레이트로디드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRT 805 힙 쓰러스트 플레이트로디드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRT 806 글루트 시스템 플레이트로디드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRT 807 와이드 풀 다운 플레이트로디드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRT 808 핵 스쿼트 플레이트로디드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRT 809 파워 레그 프레스 플레이트로디드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/96.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/97.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/98.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/99.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/100.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/101.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/102.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/103.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/104.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/105.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/106.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/107.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/108.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/109.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/110.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/111.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/112.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/113.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/114.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/115.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/116.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/117.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/118.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/119.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/120.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/121.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/122.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/123.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/124.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/125.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/126.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/127.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>NF 101 플랫 벤치 평벤치 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 102 벤치 프레스 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 103 슈파인 벤치 프레스 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 201 슈파인 인클라인 프레스 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 203 디클라인 벤치 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 204 슈파인 디클라인 벤치 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 206 블랙 익스텐션 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 301 암 컬 벤치 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 302 더블 트위스트 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 303 티 바 로우 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 306 멀티 어드저스터블 벤치 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 401 스쿼트 랙 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 403 웨이트 트리 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 404 덤벨 랙 18 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 404-A 덤밸 랙 20 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 404-B 덤밸 랙 30 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 405 친딥 레그 레이즈 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 406 바벨 랙 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 508 유틸리티 벤치 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 510 레그 레이즈 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 601 싯업 벤치 1인용 (NF통합)</t>
-  </si>
-  <si>
-    <t>NF 602 싯업 벤치 2인용 (NF통합)</t>
-  </si>
-  <si>
-    <t>NXH 201 해머 인클라인 프레스 (NF통합)</t>
-  </si>
-  <si>
-    <t>NXH 202 해머 디클라인 프레스 (NF통합)</t>
-  </si>
-  <si>
-    <t>NXH 203 해머 벤치 프레스 (NF통합)</t>
-  </si>
-  <si>
-    <t>NXH 301 해머 숄더 프레스 (NF통합)</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/128.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/129.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/130.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/131.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/132.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KAESUN/133.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>PT 601 스미스 머신 (랙/케이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT 600A 스미스 하프 랙 (랙/케이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT 100A 하프 랙 (랙/케이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT 400A 듀얼 풀리 (랙/케이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT 300A 파워 랙 (랙/케이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT 400B 케이블 크로스 오버 (랙/케이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/1.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCS5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/2.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/3.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/4.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/5.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/6.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/7.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/8.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/9.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/10.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/11.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/12.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/13.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/14.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/15.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/16.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/17.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/18.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/19.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/20.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/21.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/22.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/23.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/24.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/25.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/26.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/27.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/28.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/29.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/30.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/31.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/32.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/33.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/34.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/35.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/36.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/37.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/38.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/39.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/40.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/41.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/42.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/43.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/44.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/45.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/46.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/47.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/48.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/49.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/50.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/51.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/52.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/53.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/54.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/55.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/56.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/57.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/58.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/59.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/60.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/61.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/62.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/63.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/64.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/65.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/66.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/67.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/68.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/69.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/70.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/71.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/72.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/73.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/74.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/75.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/76.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/77.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/78.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/79.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/80.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/81.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/82.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/83.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/84.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/85.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/86.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/87.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/88.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/89.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/90.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/91.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/92.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/93.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/94.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/95.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/96.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/97.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/98.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/99.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/100.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/101.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/102.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/103.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/104.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/105.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/106.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/107.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/108.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/109.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/110.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/111.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/112.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/113.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/114.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/115.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/116.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/117.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/118.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/119.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/120.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/121.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/122.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/123.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/124.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/125.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/126.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/127.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/128.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/129.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/130.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/131.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/132.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/133.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/134.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/136.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/137.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/138.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/139.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/140.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/141.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/142.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/143.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/144.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/145.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/146.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/147.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/148.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/149.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/150.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/151.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/152.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/153.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/154.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/155.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/156.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/157.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/158.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/159.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/160.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/161.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/162.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>아레나킹 스테어 클라이머(블랙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아레나킹 스테어 클라이머(화이트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/1.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/arenaking/2.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(온힘) 인클라인 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(온힘) 팩덱 플라이 (리버스 포함)</t>
-  </si>
-  <si>
-    <t>(온힘) 스탠딩 플라이 체스트 백</t>
-  </si>
-  <si>
-    <t>(온힘) 랫 풀다운 &amp; 하이 풀리</t>
-  </si>
-  <si>
-    <t>(온힘) 시티드 로우</t>
-  </si>
-  <si>
-    <t>(온힘) 조절형 로우 풀리</t>
-  </si>
-  <si>
-    <t>(온힘) 숄더 프레스</t>
-  </si>
-  <si>
-    <t>(온힘) 시티드 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(온힘) 스탠딩 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(온힘) 싱글 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(온힘) 암 컬</t>
-  </si>
-  <si>
-    <t>(온힘) 로터리 토르소</t>
-  </si>
-  <si>
-    <t>(온힘) 레그 익스텐션</t>
-  </si>
-  <si>
-    <t>(온힘) 레그 컬</t>
-  </si>
-  <si>
-    <t>(온힘) 시티드 레그 프레스</t>
-  </si>
-  <si>
-    <t>(온힘) 힙 어덕션 단일 동작</t>
-  </si>
-  <si>
-    <t>(온힘) 힙 어덕션 + 어브덕션 콤보</t>
-  </si>
-  <si>
-    <t>(온힘) 글루트 킥백</t>
-  </si>
-  <si>
-    <t>(온힘) 시티드 딥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(온힘) 친업 + 딥 어시스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/135.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Incline_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Pec_Dec_Fly_With_Reverse.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Row.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Adjustable_Low_Pulley.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Chin_Up_Dip_Assist.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Shoulder_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Single_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Arm_Curl.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Dip.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Rotary_Torso.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Abdominal.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Extension.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Leg_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Single_Move.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Glute_Kick_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Curl.webp?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Inward.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Outward.webp?raw=true  </t>
-  </si>
-  <si>
-    <t>(온힘R) 시티드 로우 (외회전)</t>
-  </si>
-  <si>
-    <t>(온힘R) 시티드 로우 (내회전)</t>
-  </si>
-  <si>
-    <t>(온힘R) 시티드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 인클라인 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 팩덱 플라이 (리버스 포함)</t>
-  </si>
-  <si>
-    <t>(어드밴스) 스탠딩 플라이 체스트 백</t>
-  </si>
-  <si>
-    <t>(어드밴스) 랫 풀다운 &amp; 하이 풀리</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 로우</t>
-  </si>
-  <si>
-    <t>(어드밴스) 로우 풀리 롱 풀</t>
-  </si>
-  <si>
-    <t>(어드밴스) 친업 &amp; 딥 어시스트</t>
-  </si>
-  <si>
-    <t>(어드밴스) 숄더 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 스탠딩 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(어드밴스) 암 컬</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 딥</t>
-  </si>
-  <si>
-    <t>(어드밴스) 로터리 토르소</t>
-  </si>
-  <si>
-    <t>(어드밴스) 레그 익스텐션</t>
-  </si>
-  <si>
-    <t>(어드밴스) 레그 컬</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 레그 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 힙 어덕션 + 어브덕션 콤보</t>
-  </si>
-  <si>
-    <t>(어드밴스) 글루트 킥백</t>
-  </si>
-  <si>
-    <t>(어드밴스) 업도미널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Incline_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Pec_Deck_Fly_with_Reverse.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Row.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Low_Pully_Long_Pull.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Chin-Up_Dip_Assist.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Shoulder_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Arm_Curl.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Dip.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Rotary_Torso.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Abdominal.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Extension.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Curl.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Leg_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Glute_Kick_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 3D + 스미스 + 하프랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스미스 + 하프랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스미스 머신 (수직형 2000)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스미스 머신 (각도형 2000)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 3D 랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 파워랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 하프랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스쿼트 랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 플랫 벤치 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 인클라인 벤치 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 디클라인 벤치 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 숄더 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) MV 올림픽 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 올림픽 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 올림픽 인클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 올림픽 디클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 각도 조절 인클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 각도 조절 디클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 플랫 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 유틸리티 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 프리처 컬 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 프리처 컬 벤치 (스탠드형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 힙 쓰러스트 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 벤트오버 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 싯업 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 무빙 레그 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 딥 &amp; 레그 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 트위스트 더블</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 로만 체어 (45~90도 조절형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) GHD 90도 로만 체어</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 멀티오버 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 티바 로우</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 시티드 카프 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 덤벨랙 (기본형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 덤벨랙 (로우형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 덤벨랙 (스몰형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 플레이트 랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 고정 바벨랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 고정 바벨랙 (하프)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 바벨랙 (스탠드형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 핸들랙 프로</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_+_Smith_+_Half_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_+_Half_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Vertical_2000.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Angle_2000.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_RACK.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Power_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Half_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Squat_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Flat_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Incline_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Decline_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Shoulder_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/MV_Olympic_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Incline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Decline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Incline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Decline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Flat_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Utility_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench_Stand_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Hip_Thrust_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Bentover_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Sit_Up.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Moving_Leg_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dip&amp;Leg_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Twist_Double.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Roman_Chair_45~90deg_Adjust_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/GHD_90deg_Roman_Chair.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Multiover_Lateral_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/T-Bar_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Seated_Calf_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Basic_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Low_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Small_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plates_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Reack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Rack_Half.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Barbell_Rack_Stand_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Handle_Rack_Pro.webp?raw=true</t>
-  </si>
-  <si>
-    <t>(토쳐) 시티드 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 로우 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 프론트 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 와이드 풀다운 프론트</t>
-  </si>
-  <si>
-    <t>(토쳐) 와이드 풀다운 리어</t>
-  </si>
-  <si>
-    <t>(토쳐) 버티컬 풀다운</t>
-  </si>
-  <si>
-    <t>(토쳐) 하이 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 투웨이 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 와이드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 인클라인 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 체스트 &amp; 디클라인 콤보</t>
-  </si>
-  <si>
-    <t>(토쳐) 팩덱 플라이</t>
-  </si>
-  <si>
-    <t>(토쳐) 숄더 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(토쳐) 암 컬</t>
-  </si>
-  <si>
-    <t>(토쳐) 오버헤드 익스텐션</t>
-  </si>
-  <si>
-    <t>(토쳐) 파워 레그 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 핵 스쿼트</t>
-  </si>
-  <si>
-    <t>(토쳐) 스쿼트 &amp; 카프 레이즈</t>
-  </si>
-  <si>
-    <t>(토쳐) 드롭 스쿼트</t>
-  </si>
-  <si>
-    <t>(토쳐) 핵 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 레그 익스텐션</t>
-  </si>
-  <si>
-    <t>(토쳐) 니링 레그 컬</t>
-  </si>
-  <si>
-    <t>(토쳐) 레그 컬</t>
-  </si>
-  <si>
-    <t>(토쳐) 힙 쓰러스트</t>
-  </si>
-  <si>
-    <t>(토쳐) 리버스 하이퍼</t>
-  </si>
-  <si>
-    <t>(토쳐) 글루트 킥백</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Seated_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Low_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Front_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Front.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Rear.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Vertical_Pull_Down.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/High_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Two_Way_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Chest_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Incline_Chest_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Chest_&amp;_Decline_Combo.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Pec_Dec_Fly.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Shoulder_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Lateral_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Arm_Curl.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Over_Head_Extension.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Power_Leg_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Squat.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Squat_&amp;_Calf_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Drop_Squat.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Extension.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Kneeling_Leg_Curl.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Curl.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hip_Thrust.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Reverse_Hyper.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Glute_Kick_Back.webp?raw=true</t>
-  </si>
-  <si>
-    <t>(토쳐R) 시티드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐R) 로우 로우 R형</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 케이블 크로스오버</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티 풀리</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 듀얼 풀리</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 트라이 케이블</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 트라이 케이블 (4스테이션)</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티짐 프로 (5스테이션-C)</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티짐 프로 (5스테이션-P)</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티짐 프로 (8스테이션)</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Cable_Cross_Over.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Pulley.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Dual_Pulley.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable_4Station.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_C.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_P.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_8Station.webp?raw=true</t>
-  </si>
-  <si>
-    <t>(온힘) 업 도미널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Seated_Chest_Press.webp?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R.webp?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 랙 TWF 211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR20X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이마운틴(incline-trainer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/incline_trainer.webp?raw=true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3832,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0F6C0-818E-4F46-886B-A324E86407FA}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3898,520 +3912,542 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>229</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>998</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>230</v>
+        <v>997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>231</v>
+        <v>996</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>999</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>244</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>997</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>995</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="7" t="s">
-        <v>303</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C62" r:id="rId1" xr:uid="{AA44E079-4BF9-4E2D-8433-E9076C55BC7E}"/>
+    <hyperlink ref="C64" r:id="rId1" xr:uid="{AA44E079-4BF9-4E2D-8433-E9076C55BC7E}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{47435248-42C3-43D4-A5A9-CAB8B20C1787}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{F121131F-5C93-43A8-86BD-318D509C46C0}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{BC7E3C8E-934A-4F09-B00F-DCD28867225D}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{CB1967DB-211D-48D8-AC07-2150A4AAB17C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4443,29 +4479,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4474,1126 +4510,1126 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -5769,7 +5805,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5777,7 +5813,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5785,7 +5821,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5793,7 +5829,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5801,7 +5837,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5809,7 +5845,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5817,7 +5853,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5825,7 +5861,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5833,7 +5869,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5841,7 +5877,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5849,7 +5885,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5857,7 +5893,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5865,7 +5901,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5873,7 +5909,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5881,7 +5917,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5889,7 +5925,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5897,7 +5933,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5905,7 +5941,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5913,7 +5949,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5921,7 +5957,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5929,7 +5965,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5937,7 +5973,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5945,7 +5981,7 @@
         <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5953,7 +5989,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5961,15 +5997,15 @@
         <v>84</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5977,7 +6013,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5985,7 +6021,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5993,7 +6029,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6001,7 +6037,7 @@
         <v>88</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6009,7 +6045,7 @@
         <v>89</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6017,7 +6053,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -6025,7 +6061,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -6033,7 +6069,7 @@
         <v>92</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -6041,7 +6077,7 @@
         <v>93</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -6049,7 +6085,7 @@
         <v>94</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -6057,7 +6093,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -6065,7 +6101,7 @@
         <v>96</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -6073,7 +6109,7 @@
         <v>97</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,7 +6117,7 @@
         <v>98</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -6089,7 +6125,7 @@
         <v>99</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -6097,7 +6133,7 @@
         <v>100</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -6105,7 +6141,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6113,7 +6149,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -6121,7 +6157,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -6129,7 +6165,7 @@
         <v>104</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -6137,7 +6173,7 @@
         <v>105</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -6145,7 +6181,7 @@
         <v>106</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -6153,7 +6189,7 @@
         <v>107</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -6161,7 +6197,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -6169,7 +6205,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -6177,7 +6213,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -6185,7 +6221,7 @@
         <v>111</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -6193,7 +6229,7 @@
         <v>112</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -6201,7 +6237,7 @@
         <v>113</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -6209,7 +6245,7 @@
         <v>114</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -6217,7 +6253,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6225,7 +6261,7 @@
         <v>116</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -6233,7 +6269,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6241,7 +6277,7 @@
         <v>118</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6249,7 +6285,7 @@
         <v>119</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -6257,7 +6293,7 @@
         <v>120</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -6265,7 +6301,7 @@
         <v>121</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6273,7 +6309,7 @@
         <v>122</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6281,7 +6317,7 @@
         <v>123</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -6289,7 +6325,7 @@
         <v>124</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6297,7 +6333,7 @@
         <v>125</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -6305,7 +6341,7 @@
         <v>126</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -6313,7 +6349,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -6321,7 +6357,7 @@
         <v>128</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -6329,7 +6365,7 @@
         <v>129</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -6337,7 +6373,7 @@
         <v>130</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -6345,7 +6381,7 @@
         <v>131</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -6353,7 +6389,7 @@
         <v>132</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -6361,7 +6397,7 @@
         <v>133</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -6369,7 +6405,7 @@
         <v>134</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -6377,7 +6413,7 @@
         <v>135</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -6385,7 +6421,7 @@
         <v>136</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -6393,7 +6429,7 @@
         <v>137</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -6401,7 +6437,7 @@
         <v>138</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -6409,7 +6445,7 @@
         <v>139</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -6417,7 +6453,7 @@
         <v>140</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -6425,7 +6461,7 @@
         <v>141</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -6433,7 +6469,7 @@
         <v>142</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -6441,7 +6477,7 @@
         <v>143</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -6449,7 +6485,7 @@
         <v>144</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -6457,7 +6493,7 @@
         <v>145</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -6465,7 +6501,7 @@
         <v>146</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -6473,7 +6509,7 @@
         <v>147</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -6481,7 +6517,7 @@
         <v>148</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -6489,7 +6525,7 @@
         <v>149</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -6497,7 +6533,7 @@
         <v>150</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -6505,7 +6541,7 @@
         <v>151</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -6513,7 +6549,7 @@
         <v>152</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -6521,7 +6557,7 @@
         <v>153</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -6529,7 +6565,7 @@
         <v>154</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -6537,7 +6573,7 @@
         <v>155</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -6545,7 +6581,7 @@
         <v>156</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -6553,7 +6589,7 @@
         <v>157</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -6561,7 +6597,7 @@
         <v>158</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -6569,7 +6605,7 @@
         <v>159</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -6577,7 +6613,7 @@
         <v>160</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -6585,7 +6621,7 @@
         <v>161</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -6593,7 +6629,7 @@
         <v>162</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -6601,7 +6637,7 @@
         <v>163</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -6609,7 +6645,7 @@
         <v>164</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -6617,7 +6653,7 @@
         <v>165</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -6625,7 +6661,7 @@
         <v>166</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -6633,7 +6669,7 @@
         <v>167</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -6641,7 +6677,7 @@
         <v>168</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -6649,7 +6685,7 @@
         <v>169</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -6657,7 +6693,7 @@
         <v>170</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -6665,7 +6701,7 @@
         <v>171</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -6673,7 +6709,7 @@
         <v>172</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -6681,7 +6717,7 @@
         <v>173</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -6689,7 +6725,7 @@
         <v>174</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -6697,7 +6733,7 @@
         <v>175</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -6705,7 +6741,7 @@
         <v>176</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -6713,7 +6749,7 @@
         <v>177</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -6721,7 +6757,7 @@
         <v>178</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -6729,7 +6765,7 @@
         <v>179</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -6737,7 +6773,7 @@
         <v>180</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -6745,7 +6781,7 @@
         <v>181</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -6753,7 +6789,7 @@
         <v>182</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -6761,7 +6797,7 @@
         <v>183</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -6769,7 +6805,7 @@
         <v>184</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -6777,7 +6813,7 @@
         <v>185</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -6785,7 +6821,7 @@
         <v>186</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -6793,7 +6829,7 @@
         <v>187</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -6801,7 +6837,7 @@
         <v>188</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -6809,7 +6845,7 @@
         <v>189</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -6817,7 +6853,7 @@
         <v>190</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -6825,7 +6861,7 @@
         <v>191</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -6833,7 +6869,7 @@
         <v>192</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -6841,7 +6877,7 @@
         <v>193</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -6849,7 +6885,7 @@
         <v>194</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -6857,7 +6893,7 @@
         <v>195</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -6865,7 +6901,7 @@
         <v>196</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -6873,7 +6909,7 @@
         <v>197</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -6881,7 +6917,7 @@
         <v>198</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -6889,7 +6925,7 @@
         <v>199</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -6897,7 +6933,7 @@
         <v>200</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -6905,7 +6941,7 @@
         <v>201</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -6913,7 +6949,7 @@
         <v>202</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -6921,7 +6957,7 @@
         <v>203</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -6929,7 +6965,7 @@
         <v>204</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -6937,7 +6973,7 @@
         <v>205</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -6945,7 +6981,7 @@
         <v>206</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -6953,7 +6989,7 @@
         <v>207</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -6961,7 +6997,7 @@
         <v>208</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -6969,7 +7005,7 @@
         <v>209</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -6977,7 +7013,7 @@
         <v>210</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -6985,7 +7021,7 @@
         <v>211</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -6993,7 +7029,7 @@
         <v>212</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -7001,7 +7037,7 @@
         <v>213</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -7009,7 +7045,7 @@
         <v>214</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -7017,7 +7053,7 @@
         <v>215</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -7025,7 +7061,7 @@
         <v>216</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -7033,7 +7069,7 @@
         <v>217</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -7041,7 +7077,7 @@
         <v>218</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -7049,7 +7085,7 @@
         <v>219</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -7057,7 +7093,7 @@
         <v>220</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -7258,1036 +7294,1036 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B11">
         <v>3400000</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B30">
         <v>2600000</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B47">
         <v>3000000</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B50">
         <v>2400000</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B51">
         <v>2200000</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B57">
         <v>900000</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B59">
         <v>750000</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B61">
         <v>700000</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B63">
         <v>350000</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B64">
         <v>400000</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B71">
         <v>700000</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B73">
         <v>850000</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B78">
         <v>900000</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B84">
         <v>350000</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B86">
         <v>2300000</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B90">
         <v>2700000</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B94">
         <v>2800000</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B96">
         <v>2600000</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B102">
         <v>4700000</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B106">
         <v>2600000</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B110">
         <v>3300000</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B115">
         <v>3200000</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -8330,18 +8366,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>750</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -8383,138 +8419,138 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8570,7 +8606,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -8607,12 +8643,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\AshGray-main (2)\AshGray-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D31EAA-B508-4BE3-9FF4-F9EA43D06012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF928B6-BB22-4A7D-BFB5-44D5C19EAD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="405" windowWidth="20295" windowHeight="14985" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="1845" yWindow="1035" windowWidth="20295" windowHeight="14985" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -2658,9 +2658,6 @@
     <t>(온힘) 인클라인 체스트 프레스</t>
   </si>
   <si>
-    <t>(온힘) 팩덱 플라이 (리버스 포함)</t>
-  </si>
-  <si>
     <t>(온힘) 스탠딩 플라이 체스트 백</t>
   </si>
   <si>
@@ -2700,719 +2697,725 @@
     <t>(온힘) 시티드 레그 프레스</t>
   </si>
   <si>
+    <t>(온힘) 힙 어덕션 + 어브덕션 콤보</t>
+  </si>
+  <si>
+    <t>(온힘) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>(온힘) 시티드 딥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(온힘) 친업 + 딥 어시스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/135.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Incline_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Pec_Dec_Fly_With_Reverse.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Row.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Adjustable_Low_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Chin_Up_Dip_Assist.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Shoulder_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Single_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Arm_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Dip.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Rotary_Torso.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Abdominal.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Extension.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Leg_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Single_Move.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Glute_Kick_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Curl.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Inward.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Outward.webp?raw=true  </t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 로우 (외회전)</t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 로우 (내회전)</t>
+  </si>
+  <si>
+    <t>(온힘R) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 스탠딩 플라이 체스트 백</t>
+  </si>
+  <si>
+    <t>(어드밴스) 랫 풀다운 &amp; 하이 풀리</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(어드밴스) 로우 풀리 롱 풀</t>
+  </si>
+  <si>
+    <t>(어드밴스) 친업 &amp; 딥 어시스트</t>
+  </si>
+  <si>
+    <t>(어드밴스) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 스탠딩 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(어드밴스) 암 컬</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 딥</t>
+  </si>
+  <si>
+    <t>(어드밴스) 로터리 토르소</t>
+  </si>
+  <si>
+    <t>(어드밴스) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(어드밴스) 레그 컬</t>
+  </si>
+  <si>
+    <t>(어드밴스) 시티드 레그 프레스</t>
+  </si>
+  <si>
+    <t>(어드밴스) 힙 어덕션 + 어브덕션 콤보</t>
+  </si>
+  <si>
+    <t>(어드밴스) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>(어드밴스) 업도미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Incline_Chest_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Pec_Deck_Fly_with_Reverse.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Row.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Low_Pully_Long_Pull.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Chin-Up_Dip_Assist.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Shoulder_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Arm_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Dip.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Rotary_Torso.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Abdominal.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Extension.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Curl.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Leg_Press.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Glute_Kick_Back.webp?raw=true  </t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 3D + 스미스 + 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 + 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 머신 (수직형 2000)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스미스 머신 (각도형 2000)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 3D 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 파워랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 하프랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 스쿼트 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플랫 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 인클라인 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 디클라인 벤치 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) MV 올림픽 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 인클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 올림픽 디클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 각도 조절 인클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 각도 조절 디클라인 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플랫 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 유틸리티 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 프리처 컬 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 프리처 컬 벤치 (스탠드형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 힙 쓰러스트 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 벤트오버 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 싯업 벤치</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 무빙 레그 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 딥 &amp; 레그 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 트위스트 더블</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 로만 체어 (45~90도 조절형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) GHD 90도 로만 체어</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 멀티오버 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 티바 로우</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 시티드 카프 레이즈</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (기본형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (로우형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 덤벨랙 (스몰형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 플레이트 랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 고정 바벨랙</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 고정 바벨랙 (하프)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 바벨랙 (스탠드형)</t>
+  </si>
+  <si>
+    <t>(플레이트 로드) 핸들랙 프로</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_+_Smith_+_Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_+_Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Vertical_2000.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Angle_2000.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_RACK.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Power_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Half_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Squat_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Flat_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Incline_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Decline_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Shoulder_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/MV_Olympic_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Incline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Decline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Incline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Decline_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Flat_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Utility_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench_Stand_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Hip_Thrust_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Bentover_Bench.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Sit_Up.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Moving_Leg_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dip&amp;Leg_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Twist_Double.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Roman_Chair_45~90deg_Adjust_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/GHD_90deg_Roman_Chair.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Multiover_Lateral_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/T-Bar_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Seated_Calf_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Basic_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Low_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Small_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plates_Rack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Reack.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Rack_Half.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Barbell_Rack_Stand_Type.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Handle_Rack_Pro.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(토쳐) 시티드 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 로우 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 프론트 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 풀다운 프론트</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 풀다운 리어</t>
+  </si>
+  <si>
+    <t>(토쳐) 버티컬 풀다운</t>
+  </si>
+  <si>
+    <t>(토쳐) 하이 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 투웨이 로우</t>
+  </si>
+  <si>
+    <t>(토쳐) 와이드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 인클라인 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 체스트 &amp; 디클라인 콤보</t>
+  </si>
+  <si>
+    <t>(토쳐) 팩덱 플라이</t>
+  </si>
+  <si>
+    <t>(토쳐) 숄더 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 레터럴 레이즈</t>
+  </si>
+  <si>
+    <t>(토쳐) 암 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 오버헤드 익스텐션</t>
+  </si>
+  <si>
+    <t>(토쳐) 파워 레그 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 핵 스쿼트</t>
+  </si>
+  <si>
+    <t>(토쳐) 스쿼트 &amp; 카프 레이즈</t>
+  </si>
+  <si>
+    <t>(토쳐) 드롭 스쿼트</t>
+  </si>
+  <si>
+    <t>(토쳐) 핵 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐) 레그 익스텐션</t>
+  </si>
+  <si>
+    <t>(토쳐) 니링 레그 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 레그 컬</t>
+  </si>
+  <si>
+    <t>(토쳐) 힙 쓰러스트</t>
+  </si>
+  <si>
+    <t>(토쳐) 리버스 하이퍼</t>
+  </si>
+  <si>
+    <t>(토쳐) 글루트 킥백</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Seated_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Low_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Front_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Front.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Rear.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Vertical_Pull_Down.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/High_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Two_Way_Row.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Chest_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Incline_Chest_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Chest_&amp;_Decline_Combo.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Pec_Dec_Fly.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Shoulder_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Lateral_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Arm_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Over_Head_Extension.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Power_Leg_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Squat.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Squat_&amp;_Calf_Raise.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Drop_Squat.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Press.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Extension.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Kneeling_Leg_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Curl.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hip_Thrust.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Reverse_Hyper.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Glute_Kick_Back.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(토쳐R) 시티드 체스트 프레스</t>
+  </si>
+  <si>
+    <t>(토쳐R) 로우 로우 R형</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 케이블 크로스오버</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티 풀리</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 듀얼 풀리</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 트라이 케이블</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 트라이 케이블 (4스테이션)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (5스테이션-C)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (5스테이션-P)</t>
+  </si>
+  <si>
+    <t>(케이블 모션) 멀티짐 프로 (8스테이션)</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Cable_Cross_Over.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Pulley.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Dual_Pulley.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable_4Station.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_C.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_P.webp?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_8Station.webp?raw=true</t>
+  </si>
+  <si>
+    <t>(온힘) 업 도미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Seated_Chest_Press.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R.webp?raw=true  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암컬 랙 TWF 211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/6.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/5.jpg?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR20X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이마운틴(incline-trainer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/incline_trainer.webp?raw=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어드밴스) 팩덱 플라이 (리버스 겸용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(온힘) 팩덱 플라이 (리버스 겸용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(온힘) 힙 어덕션 단일 동작</t>
-  </si>
-  <si>
-    <t>(온힘) 힙 어덕션 + 어브덕션 콤보</t>
-  </si>
-  <si>
-    <t>(온힘) 글루트 킥백</t>
-  </si>
-  <si>
-    <t>(온힘) 시티드 딥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(온힘) 친업 + 딥 어시스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/LEXCO/135.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Incline_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Pec_Dec_Fly_With_Reverse.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Row.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Adjustable_Low_Pulley.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Chin_Up_Dip_Assist.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Shoulder_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Single_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Arm_Curl.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Dip.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Rotary_Torso.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Abdominal.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Extension.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Seated_Leg_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Single_Move.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Glute_Kick_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE/Leg_Curl.webp?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Inward.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ON_HIM_LINE_R/Seated_Row_Outward.webp?raw=true  </t>
-  </si>
-  <si>
-    <t>(온힘R) 시티드 로우 (외회전)</t>
-  </si>
-  <si>
-    <t>(온힘R) 시티드 로우 (내회전)</t>
-  </si>
-  <si>
-    <t>(온힘R) 시티드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 인클라인 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 팩덱 플라이 (리버스 포함)</t>
-  </si>
-  <si>
-    <t>(어드밴스) 스탠딩 플라이 체스트 백</t>
-  </si>
-  <si>
-    <t>(어드밴스) 랫 풀다운 &amp; 하이 풀리</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 로우</t>
-  </si>
-  <si>
-    <t>(어드밴스) 로우 풀리 롱 풀</t>
-  </si>
-  <si>
-    <t>(어드밴스) 친업 &amp; 딥 어시스트</t>
-  </si>
-  <si>
-    <t>(어드밴스) 숄더 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 스탠딩 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(어드밴스) 암 컬</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 딥</t>
-  </si>
-  <si>
-    <t>(어드밴스) 로터리 토르소</t>
-  </si>
-  <si>
-    <t>(어드밴스) 레그 익스텐션</t>
-  </si>
-  <si>
-    <t>(어드밴스) 레그 컬</t>
-  </si>
-  <si>
-    <t>(어드밴스) 시티드 레그 프레스</t>
-  </si>
-  <si>
-    <t>(어드밴스) 힙 어덕션 + 어브덕션 콤보</t>
-  </si>
-  <si>
-    <t>(어드밴스) 글루트 킥백</t>
-  </si>
-  <si>
-    <t>(어드밴스) 업도미널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Incline_Chest_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Pec_Deck_Fly_with_Reverse.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Fly_Chest_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Lat_Pulldown_High_Pulley.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Row.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Low_Pully_Long_Pull.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Chin-Up_Dip_Assist.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Shoulder_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Standing_Lateral_Raise.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Arm_Curl.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Dip.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Rotary_Torso.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Abdominal.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Extension.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Leg_Curl.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Seated_Leg_Press.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Hip_Adduction_Abduction_Combo.webp?raw=true  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/ADVANCE_LINE/Glute_Kick_Back.webp?raw=true  </t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 3D + 스미스 + 하프랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스미스 + 하프랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스미스 머신 (수직형 2000)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스미스 머신 (각도형 2000)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 3D 랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 파워랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 하프랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 스쿼트 랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 플랫 벤치 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 인클라인 벤치 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 디클라인 벤치 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 숄더 프레스</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) MV 올림픽 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 올림픽 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 올림픽 인클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 올림픽 디클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 각도 조절 인클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 각도 조절 디클라인 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 플랫 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 유틸리티 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 프리처 컬 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 프리처 컬 벤치 (스탠드형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 힙 쓰러스트 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 벤트오버 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 싯업 벤치</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 무빙 레그 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 딥 &amp; 레그 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 트위스트 더블</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 로만 체어 (45~90도 조절형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) GHD 90도 로만 체어</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 멀티오버 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 티바 로우</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 시티드 카프 레이즈</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 덤벨랙 (기본형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 덤벨랙 (로우형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 덤벨랙 (스몰형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 플레이트 랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 고정 바벨랙</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 고정 바벨랙 (하프)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 바벨랙 (스탠드형)</t>
-  </si>
-  <si>
-    <t>(플레이트 로드) 핸들랙 프로</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_+_Smith_+_Half_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_+_Half_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Vertical_2000.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Smith_Angle_2000.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/3D_RACK.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Power_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Half_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Squat_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Flat_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Incline_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Decline_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plate_Shoulder_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/MV_Olympic_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Incline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Olympic_Decline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Incline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Adjustable_Decline_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Flat_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Utility_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Preacher_Curl_Bench_Stand_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Hip_Thrust_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Bentover_Bench.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Sit_Up.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Moving_Leg_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dip&amp;Leg_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Twist_Double.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Roman_Chair_45~90deg_Adjust_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/GHD_90deg_Roman_Chair.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Multiover_Lateral_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/T-Bar_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Seated_Calf_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Basic_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Low_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Dumbbell_Rack_Small_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Plates_Rack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Reack.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Fixed_Barbell_Rack_Half.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Barbell_Rack_Stand_Type.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/PLATE_LOAD/Handle_Rack_Pro.webp?raw=true</t>
-  </si>
-  <si>
-    <t>(토쳐) 시티드 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 로우 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 프론트 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 와이드 풀다운 프론트</t>
-  </si>
-  <si>
-    <t>(토쳐) 와이드 풀다운 리어</t>
-  </si>
-  <si>
-    <t>(토쳐) 버티컬 풀다운</t>
-  </si>
-  <si>
-    <t>(토쳐) 하이 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 투웨이 로우</t>
-  </si>
-  <si>
-    <t>(토쳐) 와이드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 인클라인 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 체스트 &amp; 디클라인 콤보</t>
-  </si>
-  <si>
-    <t>(토쳐) 팩덱 플라이</t>
-  </si>
-  <si>
-    <t>(토쳐) 숄더 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 레터럴 레이즈</t>
-  </si>
-  <si>
-    <t>(토쳐) 암 컬</t>
-  </si>
-  <si>
-    <t>(토쳐) 오버헤드 익스텐션</t>
-  </si>
-  <si>
-    <t>(토쳐) 파워 레그 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 핵 스쿼트</t>
-  </si>
-  <si>
-    <t>(토쳐) 스쿼트 &amp; 카프 레이즈</t>
-  </si>
-  <si>
-    <t>(토쳐) 드롭 스쿼트</t>
-  </si>
-  <si>
-    <t>(토쳐) 핵 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐) 레그 익스텐션</t>
-  </si>
-  <si>
-    <t>(토쳐) 니링 레그 컬</t>
-  </si>
-  <si>
-    <t>(토쳐) 레그 컬</t>
-  </si>
-  <si>
-    <t>(토쳐) 힙 쓰러스트</t>
-  </si>
-  <si>
-    <t>(토쳐) 리버스 하이퍼</t>
-  </si>
-  <si>
-    <t>(토쳐) 글루트 킥백</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Seated_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Low_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Front_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Front.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Pulldown_Rear.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Vertical_Pull_Down.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/High_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Two_Way_Row.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Wide_Chest_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Incline_Chest_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Chest_&amp;_Decline_Combo.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Pec_Dec_Fly.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Shoulder_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Lateral_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Arm_Curl.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Over_Head_Extension.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Power_Leg_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Squat.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Squat_&amp;_Calf_Raise.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Drop_Squat.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hack_Press.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Extension.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Kneeling_Leg_Curl.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Leg_Curl.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Hip_Thrust.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Reverse_Hyper.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_LINE/Glute_Kick_Back.webp?raw=true</t>
-  </si>
-  <si>
-    <t>(토쳐R) 시티드 체스트 프레스</t>
-  </si>
-  <si>
-    <t>(토쳐R) 로우 로우 R형</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 케이블 크로스오버</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티 풀리</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 듀얼 풀리</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 트라이 케이블</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 트라이 케이블 (4스테이션)</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티짐 프로 (5스테이션-C)</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티짐 프로 (5스테이션-P)</t>
-  </si>
-  <si>
-    <t>(케이블 모션) 멀티짐 프로 (8스테이션)</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Cable_Cross_Over.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Pulley.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Dual_Pulley.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Tri_Cable_4Station.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_C.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_5Station_P.webp?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/CABLE_MOTION_MULTI_STATION/Multi_Gym_Pro_8Station.webp?raw=true</t>
-  </si>
-  <si>
-    <t>(온힘) 업 도미널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Seated_Chest_Press.webp?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/AsdDDsa182/AshGray/blob/main/images/NEWTECH/M_TORTURE_R_LINE/Low_Row_R.webp?raw=true  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암컬 랙 TWF 211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/6.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/5.jpg?raw=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NR20X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이마운틴(incline-trainer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/DRAX/incline_trainer.webp?raw=true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3848,7 +3851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB0F6C0-818E-4F46-886B-A324E86407FA}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3912,16 +3915,16 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3930,7 +3933,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4043,11 +4046,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4349,7 +4352,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="7" t="s">
@@ -6877,7 +6880,7 @@
         <v>193</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -7270,8 +7273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7297,1033 +7300,1033 @@
         <v>752</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>753</v>
+        <v>999</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B11">
         <v>3400000</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>767</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>802</v>
+        <v>998</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B30">
         <v>2600000</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B47">
         <v>3000000</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B50">
         <v>2400000</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B51">
         <v>2200000</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B57">
         <v>900000</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B59">
         <v>750000</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B61">
         <v>700000</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B63">
         <v>350000</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B64">
         <v>400000</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B71">
         <v>700000</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B73">
         <v>850000</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B78">
         <v>900000</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B84">
         <v>350000</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B86">
         <v>2300000</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B90">
         <v>2700000</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B94">
         <v>2800000</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B96">
         <v>2600000</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B102">
         <v>4700000</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B106">
         <v>2600000</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B110">
         <v>3300000</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B115">
         <v>3200000</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\AshGray-main (2)\AshGray-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 페이지 - 추가 작업중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF928B6-BB22-4A7D-BFB5-44D5C19EAD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EE1A4-2A0A-459D-99C7-30A5BFAE55E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1035" windowWidth="20295" windowHeight="14985" activeTab="3" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="29085" yWindow="180" windowWidth="21120" windowHeight="14910" firstSheet="4" activeTab="7" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="아레나킹" sheetId="10" r:id="rId5"/>
     <sheet name="고무블럭,마감재" sheetId="7" r:id="rId6"/>
     <sheet name="에버롤" sheetId="8" r:id="rId7"/>
-    <sheet name="덤벨" sheetId="9" r:id="rId8"/>
+    <sheet name="베스코" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,10 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1364">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1237,14 +1234,6 @@
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/RUBBERBLOCK/17.jpg?raw=true</t>
   </si>
   <si>
-    <t>베스코 TPU 덤벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스코 육각 고무 덤벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T824A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3417,6 +3406,1281 @@
   <si>
     <t>(온힘) 힙 어덕션 단일 동작</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB 고급원판 세트(105kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB 고급원판 세트(115kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 20kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 21kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 23kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 25kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 27kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 30kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 35kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 40kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고정 직선바 세트(100kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고정 컬바 세트(100kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 컬러 중량 원판 세트(115kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 컬러 중량 원판 세트(105g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 컬러 중량 원판 2.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 컬러 중량 원판 5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 컬러 중량 원판 10kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 컬러 중량 원판 15kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 컬러 중량 원판 20kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3홀 검정 중량 원판 세트(115kg)</t>
+  </si>
+  <si>
+    <t>3홀 검정 중량 원판 세트(105g)</t>
+  </si>
+  <si>
+    <t>3홀 검정 중량 원판 2.5kg</t>
+  </si>
+  <si>
+    <t>3홀 검정 중량 원판 5kg</t>
+  </si>
+  <si>
+    <t>3홀 검정 중량 원판 10kg</t>
+  </si>
+  <si>
+    <t>3홀 검정 중량 원판 15kg</t>
+  </si>
+  <si>
+    <t>3홀 검정 중량 원판 20kg</t>
+  </si>
+  <si>
+    <t>5홀 검정 중량 원판 세트(115kg)</t>
+  </si>
+  <si>
+    <t>5홀 검정 중량 원판 세트(105g)</t>
+  </si>
+  <si>
+    <t>5홀 검정 중량 원판 2.5kg</t>
+  </si>
+  <si>
+    <t>5홀 검정 중량 원판 5kg</t>
+  </si>
+  <si>
+    <t>5홀 검정 중량 원판 10kg</t>
+  </si>
+  <si>
+    <t>5홀 검정 중량 원판 15kg</t>
+  </si>
+  <si>
+    <t>5홀 검정 중량 원판 20kg</t>
+  </si>
+  <si>
+    <t>7홀 검정 중량 원판 세트(115kg)</t>
+  </si>
+  <si>
+    <t>7홀 검정 중량 원판 2.5kg</t>
+  </si>
+  <si>
+    <t>7홀 검정 중량 원판 5kg</t>
+  </si>
+  <si>
+    <t>7홀 검정 중량 원판 10kg</t>
+  </si>
+  <si>
+    <t>7홀 검정 중량 원판 15kg</t>
+  </si>
+  <si>
+    <t>7홀 검정 중량 원판 20kg</t>
+  </si>
+  <si>
+    <t>검정 중량 범퍼 플레이트 5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 중량 범퍼 플레이트 10kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 중량 범퍼 플레이트 15kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 중량 범퍼 플레이트 20kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 중량 범퍼 플레이트 25kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 4kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 6kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 7kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 8kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 9kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 10kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 11kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 12kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 13kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 14kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 15kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 16kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 17kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 18kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 19kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 20kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 21kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 22kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 23kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 24kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 25kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 26kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 27kg</t>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 28kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 30kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 32kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 35kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 40kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 45kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPU 고급 헬스 아령 50kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무 헬스 아령 3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무 헬스 아령 4kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 5kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 6kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 7kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 8kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 9kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 10kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 11kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 12kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 13kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 14kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 15kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 16kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 17kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 18kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 19kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 20kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 21kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 22kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 23kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 24kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 25kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 26kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 27kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 28kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 29kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 30kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 31kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 32kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 33kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 34kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 35kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 36kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 37kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 38kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 39kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 40kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 41kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 42kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 43kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 44kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 45kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 46kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 47kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 48kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 49kg</t>
+  </si>
+  <si>
+    <t>고무 헬스 아령 50kg</t>
+  </si>
+  <si>
+    <t>육각 아령 1kg</t>
+  </si>
+  <si>
+    <t>육각 아령 2kg</t>
+  </si>
+  <si>
+    <t>육각 아령 3kg</t>
+  </si>
+  <si>
+    <t>육각 아령 4kg</t>
+  </si>
+  <si>
+    <t>육각 아령 5kg</t>
+  </si>
+  <si>
+    <t>육각 아령 6kg</t>
+  </si>
+  <si>
+    <t>육각 아령 7kg</t>
+  </si>
+  <si>
+    <t>육각 아령 8kg</t>
+  </si>
+  <si>
+    <t>육각 아령 9kg</t>
+  </si>
+  <si>
+    <t>육각 아령 10kg</t>
+  </si>
+  <si>
+    <t>육각 아령 11kg</t>
+  </si>
+  <si>
+    <t>육각 아령 12kg</t>
+  </si>
+  <si>
+    <t>육각 아령 12.5kg</t>
+  </si>
+  <si>
+    <t>육각 아령 13kg</t>
+  </si>
+  <si>
+    <t>육각 아령 14kg</t>
+  </si>
+  <si>
+    <t>육각 아령 15kg</t>
+  </si>
+  <si>
+    <t>육각 아령 16kg</t>
+  </si>
+  <si>
+    <t>육각 아령 17.5kg</t>
+  </si>
+  <si>
+    <t>육각 아령 18kg</t>
+  </si>
+  <si>
+    <t>육각 아령 19kg</t>
+  </si>
+  <si>
+    <t>육각 아령 20kg</t>
+  </si>
+  <si>
+    <t>육각 아령 21kg</t>
+  </si>
+  <si>
+    <t>육각 아령 22kg</t>
+  </si>
+  <si>
+    <t>육각 아령 22.5kg</t>
+  </si>
+  <si>
+    <t>육각 아령 23kg</t>
+  </si>
+  <si>
+    <t>육각 아령 25kg</t>
+  </si>
+  <si>
+    <t>육각 아령 27.5kg</t>
+  </si>
+  <si>
+    <t>육각 아령 28kg</t>
+  </si>
+  <si>
+    <t>육각 아령 30kg</t>
+  </si>
+  <si>
+    <t>육각 아령 35kg</t>
+  </si>
+  <si>
+    <t>육각 아령 40kg</t>
+  </si>
+  <si>
+    <t>애플 아령 0.5kg</t>
+  </si>
+  <si>
+    <t>애플 아령 1kg</t>
+  </si>
+  <si>
+    <t>애플 아령 1.5kg</t>
+  </si>
+  <si>
+    <t>애플 아령 2kg</t>
+  </si>
+  <si>
+    <t>애플 아령 3kg</t>
+  </si>
+  <si>
+    <t>애플 아령 4kg</t>
+  </si>
+  <si>
+    <t>애플 아령 5kg</t>
+  </si>
+  <si>
+    <t>애플 아령 6kg</t>
+  </si>
+  <si>
+    <t>애플 아령 7kg</t>
+  </si>
+  <si>
+    <t>애플 아령 8kg</t>
+  </si>
+  <si>
+    <t>애플 아령 9kg</t>
+  </si>
+  <si>
+    <t>애플 아령 10kg</t>
+  </si>
+  <si>
+    <t>애플 네오프렌 아령 1kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플 네오프렌 아령 1.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플 네오프렌 아령 2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플 네오프렌 아령 3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄력봉 2200mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량봉 2200mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량봉 1800mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량봉 1500mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량봉 1300mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량컬바 1300mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량봉마구리(국산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특봉 1700mm(봉두께28mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특봉 1500mm(봉두께28mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특봉 1300mm(봉두께28mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬바 1300mm(봉두께28mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목봉 1800mm(봉두께25mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특봉 마구리(지름29mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반봉마구리(지름26mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특봉마구리(지름29mm)(신형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량스프링마구리(지름51mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀얼퍼포우즈바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라이셉 프레스 다운바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친닝바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터럽핸들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로스타일랫바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량형랫바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량트라이셉바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전직선바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전컬바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로프바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다목적바(쇠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다목적바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티엑서사이즈바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량헥스바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우레탄핸들세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형정바정리대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케틀벨 정리대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급형 덤벨 정리대(B형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플덤벨 정리대(10세트용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플덤벨 정리대(11세트용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 정리대 9개형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디슨볼 정리대(1~5kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목봉 정리대(5개형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 직선바 10kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 직선바 15kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 직선바 20kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 직선바 25kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 직선바 30kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 컬바 10kg</t>
+  </si>
+  <si>
+    <t>고정 컬바 15kg</t>
+  </si>
+  <si>
+    <t>고정 컬바 20kg</t>
+  </si>
+  <si>
+    <t>고정 컬바 25kg</t>
+  </si>
+  <si>
+    <t>고정 컬바 30kg</t>
+  </si>
+  <si>
+    <t>메디슨볼 1kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디슨볼 2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디슨볼 3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디슨볼 4kg</t>
+  </si>
+  <si>
+    <t>메디슨볼 5kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 2kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 3kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 4kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 5kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 6kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 7kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 8kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 10kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 12kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 14kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 16kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 18kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 20kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 24kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 28kg</t>
+  </si>
+  <si>
+    <t>컬러 케틀벨 32kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 4kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 6kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 8kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 10kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 12kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 16kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 20kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 24kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 28kg</t>
+  </si>
+  <si>
+    <t>블랙 케틀벨 30kg</t>
+  </si>
+  <si>
+    <t>에어로빅 전문가용 스탭박스(3단)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바패드(47cm x 9cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨트 마사지끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리오박스 4단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐로프 10인치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러(91cm x 15cm)(그린)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러(91cm x 15cm)(블루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러(91cm x 15cm)(블랙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러(91cm x 15cm)(실버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러(91cm x 15cm)(골드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨이트볼 0.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨이트볼 1kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨이트볼 1.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨이트볼 2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨이트볼 2.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨이트볼 3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타빌리티(그린)(210mm x 370mm x 50mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타빌리티(블루)(240mm x 420mm x 50mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타빌리티(블랙)(250mm x 440mm x 60mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 손잡이(150mm x 190mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 2m(옐로우)(125mm x 2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 2m(레드)(125mm x 2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 2m(그린)(125mm x 2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 2m(블루)(125mm x 2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 2m(블랙)(125mm x 2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 2m(실버)(125mm x 2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 2m(골드)(125mm x 2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜빙밴드 2m(옐로우)(10mm x 2000mm)</t>
+  </si>
+  <si>
+    <t>튜빙밴드 2m(레드)(10mm x 2000mm)</t>
+  </si>
+  <si>
+    <t>튜빙밴드 2m(그린)(10mm x 2000mm)</t>
+  </si>
+  <si>
+    <t>튜빙밴드 2m(블루)(10mm x 2000mm)</t>
+  </si>
+  <si>
+    <t>튜빙밴드 2m(블랙)(10mm x 2000mm)</t>
+  </si>
+  <si>
+    <t>튜빙밴드 2m(실버)(10mm x 2000mm)</t>
+  </si>
+  <si>
+    <t>튜빙밴드 2m(골드)(10mm x 2000mm)</t>
+  </si>
+  <si>
+    <t>풀업밴드(레드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀업밴드(퍼플)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀업밴드(그린)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀업밴드(블루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀업밴드(오렌지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 펌프 세트(원판 1.25x2/2.5x2/5x2개 봉 x1개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가리안백 5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가리안백 8kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가리안백 12kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가리안백 17kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가리안백 22kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRX PRO 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필라테스링(블랙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필라테스링(버건디)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 PVC (퍼플)(175cm x 61cm x 6mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 PVC (블루)(175cm x 61cm x 6mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 TPE (바이올렛)(183cm x 61cm x 6mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 TPE (블루)(183cm x 61cm x 6mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 TPE (핑크)(183cm x 61cm x 6mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 NBR (블루)(183cm x 61cm x 10mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 NBR (레드)(183cm x 61cm x 10mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 NBR (퍼플)(183cm x 61cm x 16mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 NBR (레드)(183cm x 61cm x 16mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 NBR (블루)(183cm x 61cm x 16mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트(그린)(175cm x 61cm x 6.3mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트(퍼플)(175cm x 61cm x 6.3mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트(블루)(175cm x 61cm x 6.3mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트(올리브)(175cm x 61cm x 6.3mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가블럭(블루)(150 x 230 x 80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가블럭(핑크)(150 x 230 x 80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 55cm(블루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 55cm(레드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 65cm(블루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 65cm(레드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 65cm(블랙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 75cm(블루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼 75cm(레드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 짐볼 45cm(옐로우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 짐볼 55cm(레드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 짐볼 65cm(그린)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 짐볼 75cm(블루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라밴드 짐볼 85cm(실버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휠트매트(1200 x 2400 x 60mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어로빅 매트(1500 x 550 x 15mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도매트(1000 x 2000 x 40mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSW 유도매트(국산)(1000 x 2000 40mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSW 유도매트(독일)(1000 x 2000 x 40mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥매트(1000 x 1000 x 20mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄넘기(스텐와이어/PVC합성고무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오프렌 역도벨트 M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오프렌 역도벨트 L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오프렌 역도벨트 XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 역도벨트 M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 역도벨트 L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 역도벨트 XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돔볼(블루)(59cm(지름)*21cm(높이)*78cm(튜브길이) 중량5.5kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돔볼(퍼플)(59cm(지름)*21cm(높이)*78cm(튜브길이) 중량5.5kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸쉬업바(21 x 11 x 13cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 롤러(테이블포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광진 벨트마사지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스 전자저울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전동 거꾸리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD 고급아령 4kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 5kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 6kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 7kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 8kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 9kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 10kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 11kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 12kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 13kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 14kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 15kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 16kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 17kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 18kg</t>
+  </si>
+  <si>
+    <t>IPD 고급아령 19kg</t>
   </si>
 </sst>
 </file>
@@ -3460,7 +4724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3470,6 +4734,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3506,7 +4776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3532,6 +4802,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3915,16 +5191,16 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3933,7 +5209,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4046,11 +5322,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4352,7 +5628,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="7" t="s">
@@ -4482,29 +5758,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4513,1126 +5789,1126 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -5808,7 +7084,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5816,7 +7092,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5824,7 +7100,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5832,7 +7108,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5840,7 +7116,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5848,7 +7124,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5856,7 +7132,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5864,7 +7140,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5872,7 +7148,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5880,7 +7156,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5888,7 +7164,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5896,7 +7172,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5904,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5912,7 +7188,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5920,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5928,7 +7204,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5936,7 +7212,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5944,7 +7220,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5952,7 +7228,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5960,7 +7236,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5968,7 +7244,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5976,7 +7252,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5984,7 +7260,7 @@
         <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5992,7 +7268,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6000,15 +7276,15 @@
         <v>84</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6016,7 +7292,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6024,7 +7300,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6032,7 +7308,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6040,7 +7316,7 @@
         <v>88</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6048,7 +7324,7 @@
         <v>89</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6056,7 +7332,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -6064,7 +7340,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -6072,7 +7348,7 @@
         <v>92</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -6080,7 +7356,7 @@
         <v>93</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -6088,7 +7364,7 @@
         <v>94</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -6096,7 +7372,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -6104,7 +7380,7 @@
         <v>96</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -6112,7 +7388,7 @@
         <v>97</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -6120,7 +7396,7 @@
         <v>98</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -6128,7 +7404,7 @@
         <v>99</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -6136,7 +7412,7 @@
         <v>100</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -6144,7 +7420,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6152,7 +7428,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -6160,7 +7436,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -6168,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -6176,7 +7452,7 @@
         <v>105</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -6184,7 +7460,7 @@
         <v>106</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -6192,7 +7468,7 @@
         <v>107</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -6200,7 +7476,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -6208,7 +7484,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -6216,7 +7492,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -6224,7 +7500,7 @@
         <v>111</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -6232,7 +7508,7 @@
         <v>112</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -6240,7 +7516,7 @@
         <v>113</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -6248,7 +7524,7 @@
         <v>114</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -6256,7 +7532,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6264,7 +7540,7 @@
         <v>116</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -6272,7 +7548,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6280,7 +7556,7 @@
         <v>118</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6288,7 +7564,7 @@
         <v>119</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -6296,7 +7572,7 @@
         <v>120</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -6304,7 +7580,7 @@
         <v>121</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,7 +7588,7 @@
         <v>122</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,7 +7596,7 @@
         <v>123</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -6328,7 +7604,7 @@
         <v>124</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6336,7 +7612,7 @@
         <v>125</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -6344,7 +7620,7 @@
         <v>126</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -6352,7 +7628,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -6360,7 +7636,7 @@
         <v>128</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -6368,7 +7644,7 @@
         <v>129</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -6376,7 +7652,7 @@
         <v>130</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -6384,7 +7660,7 @@
         <v>131</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -6392,7 +7668,7 @@
         <v>132</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -6400,7 +7676,7 @@
         <v>133</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -6408,7 +7684,7 @@
         <v>134</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -6416,7 +7692,7 @@
         <v>135</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -6424,7 +7700,7 @@
         <v>136</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -6432,7 +7708,7 @@
         <v>137</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -6440,7 +7716,7 @@
         <v>138</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -6448,7 +7724,7 @@
         <v>139</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -6456,7 +7732,7 @@
         <v>140</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -6464,7 +7740,7 @@
         <v>141</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -6472,7 +7748,7 @@
         <v>142</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -6480,7 +7756,7 @@
         <v>143</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -6488,7 +7764,7 @@
         <v>144</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -6496,7 +7772,7 @@
         <v>145</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -6504,7 +7780,7 @@
         <v>146</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -6512,7 +7788,7 @@
         <v>147</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -6520,7 +7796,7 @@
         <v>148</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -6528,7 +7804,7 @@
         <v>149</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -6536,7 +7812,7 @@
         <v>150</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -6544,7 +7820,7 @@
         <v>151</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -6552,7 +7828,7 @@
         <v>152</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -6560,7 +7836,7 @@
         <v>153</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -6568,7 +7844,7 @@
         <v>154</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -6576,7 +7852,7 @@
         <v>155</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -6584,7 +7860,7 @@
         <v>156</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -6592,7 +7868,7 @@
         <v>157</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -6600,7 +7876,7 @@
         <v>158</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -6608,7 +7884,7 @@
         <v>159</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -6616,7 +7892,7 @@
         <v>160</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -6624,7 +7900,7 @@
         <v>161</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -6632,7 +7908,7 @@
         <v>162</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -6640,7 +7916,7 @@
         <v>163</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -6648,7 +7924,7 @@
         <v>164</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -6656,7 +7932,7 @@
         <v>165</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -6664,7 +7940,7 @@
         <v>166</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -6672,7 +7948,7 @@
         <v>167</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -6680,7 +7956,7 @@
         <v>168</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -6688,7 +7964,7 @@
         <v>169</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -6696,7 +7972,7 @@
         <v>170</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -6704,7 +7980,7 @@
         <v>171</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -6712,7 +7988,7 @@
         <v>172</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -6720,7 +7996,7 @@
         <v>173</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -6728,7 +8004,7 @@
         <v>174</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -6736,7 +8012,7 @@
         <v>175</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -6744,7 +8020,7 @@
         <v>176</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -6752,7 +8028,7 @@
         <v>177</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -6760,7 +8036,7 @@
         <v>178</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -6768,7 +8044,7 @@
         <v>179</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -6776,7 +8052,7 @@
         <v>180</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -6784,7 +8060,7 @@
         <v>181</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -6792,7 +8068,7 @@
         <v>182</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -6800,7 +8076,7 @@
         <v>183</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -6808,7 +8084,7 @@
         <v>184</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -6816,7 +8092,7 @@
         <v>185</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -6824,7 +8100,7 @@
         <v>186</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -6832,7 +8108,7 @@
         <v>187</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -6840,7 +8116,7 @@
         <v>188</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -6848,7 +8124,7 @@
         <v>189</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -6856,7 +8132,7 @@
         <v>190</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -6864,7 +8140,7 @@
         <v>191</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -6872,7 +8148,7 @@
         <v>192</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -6880,7 +8156,7 @@
         <v>193</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -6888,7 +8164,7 @@
         <v>194</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -6896,7 +8172,7 @@
         <v>195</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -6904,7 +8180,7 @@
         <v>196</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -6912,7 +8188,7 @@
         <v>197</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -6920,7 +8196,7 @@
         <v>198</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -6928,7 +8204,7 @@
         <v>199</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -6936,7 +8212,7 @@
         <v>200</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -6944,7 +8220,7 @@
         <v>201</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -6952,7 +8228,7 @@
         <v>202</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -6960,7 +8236,7 @@
         <v>203</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -6968,7 +8244,7 @@
         <v>204</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -6976,7 +8252,7 @@
         <v>205</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -6984,7 +8260,7 @@
         <v>206</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -6992,7 +8268,7 @@
         <v>207</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -7000,7 +8276,7 @@
         <v>208</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -7008,7 +8284,7 @@
         <v>209</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -7016,7 +8292,7 @@
         <v>210</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -7024,7 +8300,7 @@
         <v>211</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -7032,7 +8308,7 @@
         <v>212</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -7040,7 +8316,7 @@
         <v>213</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -7048,7 +8324,7 @@
         <v>214</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -7056,7 +8332,7 @@
         <v>215</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -7064,7 +8340,7 @@
         <v>216</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -7072,7 +8348,7 @@
         <v>217</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -7080,7 +8356,7 @@
         <v>218</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -7088,7 +8364,7 @@
         <v>219</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -7096,7 +8372,7 @@
         <v>220</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +8549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F22B70-855B-4031-B64A-DB2091E22093}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -7297,1036 +8573,1036 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B11">
         <v>3400000</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B30">
         <v>2600000</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B47">
         <v>3000000</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B50">
         <v>2400000</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B51">
         <v>2200000</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B57">
         <v>900000</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B59">
         <v>750000</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B61">
         <v>700000</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B63">
         <v>350000</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B64">
         <v>400000</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B71">
         <v>700000</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B73">
         <v>850000</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B78">
         <v>900000</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B84">
         <v>350000</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B86">
         <v>2300000</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B90">
         <v>2700000</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B94">
         <v>2800000</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B96">
         <v>2600000</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B102">
         <v>4700000</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B106">
         <v>2600000</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B110">
         <v>3300000</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B115">
         <v>3200000</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -8369,18 +9645,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -8620,15 +9896,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822169-A351-4B2E-8F96-DE188C2AE8CE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="60.375" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="42.375" customWidth="1"/>
   </cols>
@@ -8645,18 +9921,2938 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>319</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="9">
+        <v>690000</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>320</v>
+      <c r="A3" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="B3" s="9">
+        <v>630000</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B5">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B7">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B8">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B9">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B10">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B11">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B12">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B13">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B14">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B15">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B16">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B17">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B18">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B19">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B20">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B21">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B22">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B23">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B24">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B25">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B26">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B27">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B28">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B29">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B30">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B31">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B32">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B34">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B35">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B36">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B37">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B38">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B39">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B42">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B43">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B44">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B45">
+        <v>575000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B46">
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B47">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B48">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B49">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B50">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B51">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B52">
+        <v>402500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B53">
+        <v>367500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B54">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B55">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B56">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B57">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B58">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B59">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B60">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B61">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B62">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B63">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B64">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B65">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B66">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B67">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B68">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B69">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B70">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B71">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B72">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B73">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B74">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B75">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B76">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B77">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B78">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B79">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B80">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B81">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B82">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B83">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B84">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B85">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B86">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B87">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B88">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B89">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B90">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B91">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B92">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B93">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B94">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B95">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B96">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B97">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B98">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B99">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B100">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B101">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B102">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B103">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B104">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B105">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B106">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B107">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B108">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B109">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B110">
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B111">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B112">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B113">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B114">
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B115">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B116">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B117">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B118">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B119">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B120">
+        <v>121500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B121">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B122">
+        <v>130500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B123">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B124">
+        <v>139500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B125">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B126">
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B127">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B128">
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B129">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B130">
+        <v>166500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B131">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B132">
+        <v>175500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B133">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B134">
+        <v>184500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B135">
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B136">
+        <v>193500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B137">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B138">
+        <v>202500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B139">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B140">
+        <v>211500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B141">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B142">
+        <v>220500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B143">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B144">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B145">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B146">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B147">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B148">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B149">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B150">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B151">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B152">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B153">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B154">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B155">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B156">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B157">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B158">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B159">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B160">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B161">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B162">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B163">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B164">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B165">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B166">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B167">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B168">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B169">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B170">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B171">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B172">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B173">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B174">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B175">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B176">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B177">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B178">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B179">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B180">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B181">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B182">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B183">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B184">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B185">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B186">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B187">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B188">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B189">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B190">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B191">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B192">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B193">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B194">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B195">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B196">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B197">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B198">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B199">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B200">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B201">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B202">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B203">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B204">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B205">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B206">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B207">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B208">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B209">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B210">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B211">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B212">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B213">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B214">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B215">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B216">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B217">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B218">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B219">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B220">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B221">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B222">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B223">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B224">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B225">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B226">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B227">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B228">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B229">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B230">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B231">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B232">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B233">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B234">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B235">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B236">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B237">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B238">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B239">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B240">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B241">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B242">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B243">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B244">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B245">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B246">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B247">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B248">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B249">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B250">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B251">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B252">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B253">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B254">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B255">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B256">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B257">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B258">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B259">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B260">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B261">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B262">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B263">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B264">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B265">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B266">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B267">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B268">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B269">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B270">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B271">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B272">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B273">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B274">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B275">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B276">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B277">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B278">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B279">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B280">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B281">
+        <v>293000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B282">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B283">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B284">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B285">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B286">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B287">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B288">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B289">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B290">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B291">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B292">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B293">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B294">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B295">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B296">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B297">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B298">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B299">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B300">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B301">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B302">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B303">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B304">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B305">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B306">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B307">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B308">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B309">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B310">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B311">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B312">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B313">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B314">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B315">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B316">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B317">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B318">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B319">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B320">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B321">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B322">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B323">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B324">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B325">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B326">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B327">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B328">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B329">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B330">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B331">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B332">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B333">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B334">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B335">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B336">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B337">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B338">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B339">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B340">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B341">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B342">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B343">
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B344">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B345">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B346">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B347">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B348">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B349">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B350">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B351">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B352">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B353">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B354">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B355">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B356">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B357">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B358">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B359">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B360">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B361">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B362">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B363">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B364">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B365">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B366">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B367">
+        <v>1450000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/product.xlsx
+++ b/product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 페이지 - 추가 작업중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EE1A4-2A0A-459D-99C7-30A5BFAE55E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C892A-93DC-4B0E-8824-66C4D3C37B92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="180" windowWidth="21120" windowHeight="14910" firstSheet="4" activeTab="7" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="33750" yWindow="360" windowWidth="19635" windowHeight="15015" firstSheet="4" activeTab="9" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="고무블럭,마감재" sheetId="7" r:id="rId6"/>
     <sheet name="에버롤" sheetId="8" r:id="rId7"/>
     <sheet name="베스코" sheetId="9" r:id="rId8"/>
+    <sheet name="아이핏펀" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1867">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4681,6 +4683,1755 @@
   </si>
   <si>
     <t>IPD 고급아령 19kg</t>
+  </si>
+  <si>
+    <t>3홀 고무원판 2.5kg</t>
+  </si>
+  <si>
+    <t>3홀 고무원판 5kg</t>
+  </si>
+  <si>
+    <t>3홀 고무원판 10kg</t>
+  </si>
+  <si>
+    <t>3홀 고무원판 15kg</t>
+  </si>
+  <si>
+    <t>3홀 고무원판 20kg</t>
+  </si>
+  <si>
+    <t>3홀 PEV 원판 2.5kg</t>
+  </si>
+  <si>
+    <t>3홀 PEV 원판 5kg</t>
+  </si>
+  <si>
+    <t>3홀 PEV 원판 10kg</t>
+  </si>
+  <si>
+    <t>3홀 PEV 원판 15kg</t>
+  </si>
+  <si>
+    <t>3홀 PEV 원판 20kg</t>
+  </si>
+  <si>
+    <t>4홀 고무원판 2.5kg</t>
+  </si>
+  <si>
+    <t>4홀 고무원판 5kg</t>
+  </si>
+  <si>
+    <t>4홀 고무원판 10kg</t>
+  </si>
+  <si>
+    <t>4홀 고무원판 15kg</t>
+  </si>
+  <si>
+    <t>4홀 고무원판 20kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 원판 2.5kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 원판 5kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 원판 10kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 원판 15kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 원판 20kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄원판 2.5kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄원판 5kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄원판 10kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄원판 15kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄원판 20kg</t>
+  </si>
+  <si>
+    <t>TPU 우레탄 원판 2.5kg</t>
+  </si>
+  <si>
+    <t>TPU 우레탄 원판 5kg</t>
+  </si>
+  <si>
+    <t>TPU 우레탄 원판 10kg</t>
+  </si>
+  <si>
+    <t>TPU 우레탄 원판 15kg</t>
+  </si>
+  <si>
+    <t>TPU 우레탄 원판 20kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량원판(customized logo, 발주후60일) 2.5kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량원판(customized logo, 발주후60일) 5kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량원판(customized logo, 발주후60일) 10kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량원판(customized logo, 발주후60일) 15kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량원판(customized logo, 발주후60일) 20kg</t>
+  </si>
+  <si>
+    <t>범퍼플레이트 5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범퍼플레이트 10kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범퍼플레이트 15kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범퍼플레이트 20kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범퍼플레이트 25kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 2kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 3kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 4kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 5kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 6kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 7kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 8kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 9kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 10kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 11kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 12kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 13kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 14kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 15kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 16kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 17kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 18kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 19kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 20kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 22kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 24kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 26kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 28kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 30kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 32kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 34kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 36kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 38kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 40kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 42kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 44kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 46kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 48kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 50kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 25kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 35kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 45kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 55kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 60kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 65kg</t>
+  </si>
+  <si>
+    <t>루버 중량 덤벨 70kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 2kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 3kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 4kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 5kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 6kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 7kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 8kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 9kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 10kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 12kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 14kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 16kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 18kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 20kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 22kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 24kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 26kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 28kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 30kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 32kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 34kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 36kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 38kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 40kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 45kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 중량덤벨 50kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 2kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 4kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 6kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 8kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 10kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 12kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 14kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 16kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 18kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 20kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 22kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 24kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 26kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 28kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 30kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 32kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 34kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 36kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 38kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 40kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 42kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 43kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 44kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 45kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 46kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 47kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 48kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 49kg</t>
+  </si>
+  <si>
+    <t>CPU 우레탄중량덤벨 50kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 2kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 3kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 4kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 5kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 6kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 7kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 8kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 9kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 10kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 12kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 14kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 16kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 18kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 20kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 22kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 24kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 26kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 28kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 30kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 32kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 34kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 36kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 38kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 40kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 42kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 43kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 44kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 45kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 46kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 47kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 48kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 49kg</t>
+  </si>
+  <si>
+    <t>12각 우레탄덤벨(커스텀가능) 50kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 2kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 4kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 6kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 8kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 10kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 12kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 14kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 16kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 18kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 20kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 22kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 24kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 26kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 28kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 30kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 32kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 34kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 36kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 38kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 40kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 42kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 44kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 46kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 48kg</t>
+  </si>
+  <si>
+    <t>우레탄 중량덤벨(customized logo, 발주후60일) 50kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(직선바) 10kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(직선바) 15kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(직선바) 20kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(직선바) 25kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(직선바) 30kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(컬바) 10kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(컬바) 15kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(컬바) 20kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(컬바) 25kg</t>
+  </si>
+  <si>
+    <t>고무 고정식바벨(컬바) 30kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(직선바) 10kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(직선바) 15kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(직선바) 20kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(직선바) 25kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(직선바) 30kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(컬바) 10kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(컬바) 15kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(컬바) 20kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(컬바) 25kg</t>
+  </si>
+  <si>
+    <t>PEV 10각 고정식바벨(컬바) 30kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(직선바) 10kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(직선바) 15kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(직선바) 20kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(직선바) 25kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(직선바) 30kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(컬바) 10kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(컬바) 15kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(컬바) 20kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(컬바) 25kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식바벨(컬바) 30kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식 바벨 직선바/컬바(customized logo, 발주 후 60일) 10kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식 바벨 직선바/컬바(customized logo, 발주 후 60일) 15kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식 바벨 직선바/컬바(customized logo, 발주 후 60일) 20kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식 바벨 직선바/컬바(customized logo, 발주 후 60일) 25kg</t>
+  </si>
+  <si>
+    <t>우레탄 고정식 바벨 직선바/컬바(customized logo, 발주 후 60일) 30kg</t>
+  </si>
+  <si>
+    <t>피트니스 벨즈(5,10,15,20,25,30(파운드세트))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피트니스 벨즈 멀티형(5,10,15,20,25,30(파운드세트),정리대,일자바,컬바,케틀벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 1kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 2kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 3kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 4kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 5kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 6kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 7kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 8kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 9kg</t>
+  </si>
+  <si>
+    <t>우레탄 마이크로 덤벨 10kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 1kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 2kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 3kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 4kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 5kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 6kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 7kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 8kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 9kg</t>
+  </si>
+  <si>
+    <t>크롬 뷰티덤벨 10kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 1kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 2kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 3kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 4kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 5kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 6kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 7kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 8kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 9kg</t>
+  </si>
+  <si>
+    <t>뷰티덤벨 10kg</t>
+  </si>
+  <si>
+    <t>루버 케틀벨 4kg</t>
+  </si>
+  <si>
+    <t>루버 케틀벨 6kg</t>
+  </si>
+  <si>
+    <t>루버 컴피티션 케틀벨 18kg</t>
+  </si>
+  <si>
+    <t>루버 컴피티션 케틀벨 26kg</t>
+  </si>
+  <si>
+    <t>루버 컴피티션 케틀벨 28kg</t>
+  </si>
+  <si>
+    <t>중량 단봉 1500mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루버 케틀벨 8kg</t>
+  </si>
+  <si>
+    <t>루버 케틀벨 10kg</t>
+  </si>
+  <si>
+    <t>루버 케틀벨 12kg</t>
+  </si>
+  <si>
+    <t>루버 케틀벨 16kg</t>
+  </si>
+  <si>
+    <t>루버 케틀벨 20kg</t>
+  </si>
+  <si>
+    <t>루버 케틀벨 24kg</t>
+  </si>
+  <si>
+    <t>하드크롬 중량단봉 1800mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량봉(800LB)(2200mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드크롬 탄력봉(1500LB(2200mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙크롬 탄력봉(2000LB)(2200mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량단봉 1200mm(10kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량컬바 1200mm(10kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6각 하드크롬 중량단봉(고급형/12kg/1300mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙크롬 스쿼트바(고급형/30kg/2400mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드크롬 헥스바(고급형/1500mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링컬러(2개 1set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSO 바벨컬러(2개 1set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트바(바디바) 2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트바(바디바) 4kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트바(바디바) 6kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트바(바디바) 8kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트바(바디바) 10kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABS 바벨컬러(2개 1set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디신볼 1kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디신볼 2kg</t>
+  </si>
+  <si>
+    <t>메디신볼 3kg</t>
+  </si>
+  <si>
+    <t>메디신볼 4kg</t>
+  </si>
+  <si>
+    <t>메디신볼 5kg</t>
+  </si>
+  <si>
+    <t>월볼 3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월볼 4kg</t>
+  </si>
+  <si>
+    <t>월볼 5kg</t>
+  </si>
+  <si>
+    <t>월볼 6kg</t>
+  </si>
+  <si>
+    <t>월볼 7kg</t>
+  </si>
+  <si>
+    <t>월볼 8kg</t>
+  </si>
+  <si>
+    <t>월볼 9kg</t>
+  </si>
+  <si>
+    <t>월볼 10kg</t>
+  </si>
+  <si>
+    <t>파워백 5kg</t>
+  </si>
+  <si>
+    <t>파워백 10kg</t>
+  </si>
+  <si>
+    <t>파워백 15kg</t>
+  </si>
+  <si>
+    <t>파워백 20kg</t>
+  </si>
+  <si>
+    <t>파워백 25kg</t>
+  </si>
+  <si>
+    <t>불가리안백 5kg</t>
+  </si>
+  <si>
+    <t>불가리안백 8kg</t>
+  </si>
+  <si>
+    <t>불가리안백 12kg</t>
+  </si>
+  <si>
+    <t>불가리안백 17kg</t>
+  </si>
+  <si>
+    <t>불가리안백 22kg</t>
+  </si>
+  <si>
+    <r>
+      <t>스쿼트 바패드(40*8.5(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Φ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)cm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜드마인(50mm 중량바용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜드마인바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9홀 바 정리대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬링랙(1set x 2ea)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단 덤벨랙 고급형(10pair)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단 덤벨랙 일반형(H타입)(10pair)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단 덤벨랙 하프(5pair)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단 덤벨랙(고급형)(15pair)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단 덤벨랙(일반형)(15pair)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단 덤벨랙(공간절약형)(10pair)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바벨랙(하프)(5hold)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바벨랙(10hold)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케틀벨 정리대(Hold 18 to 20 pieces kettlebell, anti-slip surface can protect the kettlebell)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디신볼 정리대(Holding 5 balls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트백&amp;불가리안백 정리대(Holding 5 bags)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트백&amp;불가리안백 정리대(Holding 10 bags)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롬 뷰티 덤벨랙(Holding 10 pairs of dumbbells, from 1-10kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로 덤벨랙(Holding 10 pairs of dumbbells, from 1-10kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평벤치(1411(L)*647(W)*402(H)mm 25kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각도조절벤치(1362(L)*447(W)*415(H)mm 37kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원판정리대(808(L)*667(W)*1319(H)mm 24kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스그립 정리대(고급형)(원통형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스그립 정리대(일반형)(삼각형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발란스볼(Diameter : 63cm/Height : 22cm/Color : Blue)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가블럭(Size : 23*15*9.8cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트(two holes 정리대용)(1830*610*6mm TPE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 정리대(Height：180cm/Width：60cm/Length：70cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝박스 1.86(L)*36(W)*15/20/25(H)cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트폴리오박스(Size：50*60*75cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우든 폴리오박스(Size：50*61*76cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트폴리오 4단계 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸쉬업바(Height：11cm/Length：27cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헥스 어질리티 링(6 pcs/set, yellow)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘(6 pcs/set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 콘(Diamter : 32cm/Loading capacity : 500kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우든 짐나스틱링(Diamter : 32cm/Loading capacity : 500kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서스펜션 트레이닝 킷(옐로우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레칭 목봉 1800mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB MAT(Size : 37*29*8cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워루프(Size：2080*4.5*64mm（Blue）65-175lb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워루프(Size：2080*4.5*45mm（Green）50-125lb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워루프(Size：2080*4.5*32mm（Purple）35-85lb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워루프(Size：2080*4.5*21mm（Black）20-65lb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워루프(Size：2080*4.5*13mm（Red）15-35lb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워루프(Size：2080*4.5*6.4mm（Radom ) 5-15lb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러 33*14cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러 45*14cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러 30*15cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러 45*15cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러 90*15cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발란스 쿠션(Dia : 35cm/Weight : 1000g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우든 발란스 보드(Diameter : 40cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라텍스 저항밴드(1*100*2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라텍스 저항밴드(0.8*100*2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라텍스 저항밴드(0.6*100*2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라텍스 저항밴드(0.4*100*2000mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 마사지볼(지름 6.5cm, 길이 14cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 마사지볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄넘기(Rope length : 3m, handle length : 15cm, with universal bearings)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발란스 패드(Size : 48*38*6cm/Material : TPE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필라테스링(Size : 36cm/Material : Glass fiber)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼(고급형)(Dia : 75cm, Black)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼(고급형)(Dia : 55cm, Red)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐볼(고급형)(Dia : 65cm, Blue)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니밴드(1*50*600mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니밴드(0.8*50*600mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니밴드(0.6*50*600mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니밴드(0.4*50*600mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜빙(5colors)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저항튜브(25LB, BLUE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저항튜브(20LB, GREEN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저항튜브(15LB, RED)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저항튜브(10LB, YELLOW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUXIAOJUN 프로텍션 스트랩(2개/1SET)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB스트랩(2개/1SET)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우레탄 스트럽그립(2개/1SET)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글그립핸들(1pcs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라이셉프레스 다운바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티엑서사이저바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블 컬바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렛바(고급형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블 일자바(고급형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로스타일 렛바(고급형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브이바(고급형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친닝바(고급형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글핸들그립(고급형)(1pcs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스그립(5종 set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전동거꾸리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블롤러마사지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨트마사지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레칭매트(2m*1m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무동력 트레드밀 C-TRAC 880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무동력 트레드밀 C-TRAC 880SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD 워터로잉 WR-686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XQ70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝밀 STM 5500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-70U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-70R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-70D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>런닝머신 HSK 9900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마운틴 HSK770M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-10S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-10U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-10R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S990U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR-4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-55UN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-55RN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD 입식싸이클 H623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KXR550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-3U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KXR770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB-550R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR500U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR300S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I-SPIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT-990i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VX850I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU80R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNETIC BIKE T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR-55MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-6.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2-Premium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP-550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP-770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC-3300H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VX900M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRPRO3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRMG2700z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB505Climber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD 마그네틱 로잉 HRW-750AL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-540R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-BC06(레그컬 별도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-BC06(레그컬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5.5R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9.5R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각도벤치 MB7700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평벤치 FB5500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD 싯업 2종 H855(평벤치 O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD 싯업 2종 H856(평벤치 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아령정리대(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아령정리대(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니스탭퍼 ST-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바벨정리대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW 스쿼트 T-770(검정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW 스쿼트 T-770(흰색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바벨정리대 각 양면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER TOWER HR-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQUAT RACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니블럭 500*500*25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니블럭 500*500*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니플로어 5mm(5*10*1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니플로어 6mm(6*10*1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니플로어 7mm(7*10*1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU(KG당 3,850원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈미트 12각 중량 원판(2.5/5/10/15/20) 105kg 세트(kg당 2,530원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코 원형 중량 원판(2.5/5/10/15/20) 105kg 세트(kg당 2,530원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12각 아령(kg당 2,860원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육각 아령(kg당 2,640원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 케틀벨(kg당 2,750원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈미트 고정식 바벨세트(kg당 3,300원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드매트(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD-DB212 무게조절 아령(컬러)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD-DBP5W 무게조절 아령(화이트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가매트 6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH033(펜듈럼 스쿼트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC401(힙쓰러스트 머신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC403(스탠딩아웃타이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4690,7 +6441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4722,6 +6473,20 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4768,15 +6533,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4810,9 +6576,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{C4E8ED41-2181-4DF3-A1A7-98FF0D2285F2}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5730,6 +7502,804 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68443C7-BE48-45C7-8147-0B3FF01C84F7}">
+  <dimension ref="A1:C99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2">
+        <v>770000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B3">
+        <v>726000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B4">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B5">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B6">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B7">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B8">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B9">
+        <v>2420000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B10">
+        <v>627000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B11">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B12">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B13">
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B14">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B15">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B16">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B17">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B18">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B19">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B20">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B21">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B22">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B23">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B24">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B25">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B26">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B27">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B28">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B29">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B30">
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B31">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B32">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B33">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B34">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B35">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B36">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B37">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B38">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B39">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B40">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B41">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B42">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B43">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B44">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B45">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B46">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B47">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B48">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B49">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B50">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B51">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B52">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B53">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B54">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B55">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B56">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B57">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B58">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B59">
+        <v>451000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B60">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B61">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B62">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B63">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B64">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B65">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B66">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B67">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B68">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B69">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B70">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B71">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B72">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B73">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B74">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B75">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B76">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B77">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B78">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B79">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B85">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B86">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B87">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B88">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B89">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B92">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B93">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B94">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B95">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B96">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B97">
+        <v>1540000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B98">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B99">
+        <v>990000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B07383-1660-4A79-94B4-136B7CC3B622}">
   <dimension ref="A1:C134"/>
@@ -9898,8 +12468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822169-A351-4B2E-8F96-DE188C2AE8CE}">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="A371" sqref="A371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12855,4 +15425,3365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC49DC-4E24-43F0-913E-5C4CF051B2F2}">
+  <dimension ref="A1:C414"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.25" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B5">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B6">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B7" s="11">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B8" s="11">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B9" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B11" s="11">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B12" s="13">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B13" s="13">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B14" s="13">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B15" s="13">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B16" s="13">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B18">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B19">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B20">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B21">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B22">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B23">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B24">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B25">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B26">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B28">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B29">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B30">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B33">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B34">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B35">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B36">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B37">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B38">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B39">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B40">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B41">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B42">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B43">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B44">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B45">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B46">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B47">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B48">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B49">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B50">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B51">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B52">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B53">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B54">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B55">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B56">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B57">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B58">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B59">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B60">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B61">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B62">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B63">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B64">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B65">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B66">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B67">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B68">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B69">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B70">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B71">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B72">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B73">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B74">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B75">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B76">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B77">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B78">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B79">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B80">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B81">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B82">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B83">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B84">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B85">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B86">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B87">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B88">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B89">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B90">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B91">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B92">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B93">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B94">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B95">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B96">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B97">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B98">
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B99">
+        <v>83200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B100">
+        <v>89600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B101">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B102">
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B103">
+        <v>108800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B104">
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B105">
+        <v>121600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B106">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B107">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B108">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B109">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B110">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B111">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B112">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B113">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B114">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B115">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B116">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B117">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B118">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B119">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B120">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B121">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B122">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B123">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B124">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B125">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B126">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B127">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B128">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B129">
+        <v>189000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B130">
+        <v>193500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B131">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B132">
+        <v>202500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B133">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B134">
+        <v>211500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B135">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B136">
+        <v>220500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B137">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B138">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B139">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B140">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B141">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B142">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B143">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B144">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B145">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B146">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B147">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B148">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B149">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B150">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B151">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B152">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B153">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B154">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B155">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B156">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B157">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B158">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B159">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B160">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B161">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B162">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B163">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B164">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B165">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B166">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B167">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B168">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B169">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B170">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B171">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B172">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B173">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B174">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B175">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B176">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B177">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B178">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B179">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B180">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B181">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B182">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B183">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B184">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B185">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B186">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B187">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B188">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B189">
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B190">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B191">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B192">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B193">
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B194">
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B195">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B196">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B197">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B198">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B199">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B200">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B201">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B202">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B203">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B204">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B205">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B206">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B207">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B208">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B209">
+        <v>87500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B210">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B211">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B212">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B213">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B214">
+        <v>87500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B215">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B216">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B217">
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B218">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B219">
+        <v>117500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B220">
+        <v>141000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B221">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B222">
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B223">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B224">
+        <v>117500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B225">
+        <v>141000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B226">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B227">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B228">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B229">
+        <v>137500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B230">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B231">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B232">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B233">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B234">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B235">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B236">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B237">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B238">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B239">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B240">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B241">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B242">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B243">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B244">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B245">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B246">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B247">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B248">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B249">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B250">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B251">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B252">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B253">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B254">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B255">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B256">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B257">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B258">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B259">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B260">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B261">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B262">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B263">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B264">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B265">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B266">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B267">
+        <v>106700</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B268">
+        <v>12000</v>
+      </c>
+      <c r="C268">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B269">
+        <v>18000</v>
+      </c>
+      <c r="C269">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B270">
+        <v>24000</v>
+      </c>
+      <c r="C270">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B271">
+        <v>30000</v>
+      </c>
+      <c r="C271">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B272">
+        <v>36000</v>
+      </c>
+      <c r="C272">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B273">
+        <v>48000</v>
+      </c>
+      <c r="C273">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B274">
+        <v>60000</v>
+      </c>
+      <c r="C274">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B275">
+        <v>72000</v>
+      </c>
+      <c r="C275">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B276">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B277">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B278">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B279">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B280">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B281">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B282">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B283">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B284">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B285">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B286">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B287">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B288">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B289">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B290">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B291">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B292">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B293">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B294">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B295">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B296">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B297">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B298">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B299">
+        <v>31900</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B300">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B301">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B302">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B303">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B304">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B305">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B306">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B307">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B308">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B309">
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B310">
+        <v>69300</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B311">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B312">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B313">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B314">
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B315">
+        <v>69300</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B316">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B317">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B318">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B319">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B320">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B321">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B322">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B323">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B324">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B325">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B326">
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B327">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B328">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B329">
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B330">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B331">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B332">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B333">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B334">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B335">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B336">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B337">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B338">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B339">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B340">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B341">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B342">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B343">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B344">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B345">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B346">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B347">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B348">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B349">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B350">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B351">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B352">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B353">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B354">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B355">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B356">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B357">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B358">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B359">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B360">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B361">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B362">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B363">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B364">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B365">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B366">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B367">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B368">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B369">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B370">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B371">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B372">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B373">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B374">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B375">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B376">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B377">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B378">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B379">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B380">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B381">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B382">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B383">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B384">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B385">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B386">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B387">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B388">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B389">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B390">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B391">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B392">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B393">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B394">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B395">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B396">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B397">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B398">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B399">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B400">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B401">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B402">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B403">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B404">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B405">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B406">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B407">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B408">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B409">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B410">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B411">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B412">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B413">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B414">
+        <v>250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 페이지 - 추가 작업중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C892A-93DC-4B0E-8824-66C4D3C37B92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D7752-96C3-4EB5-9F46-640E6B89DF14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33750" yWindow="360" windowWidth="19635" windowHeight="15015" firstSheet="4" activeTab="9" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="6285" yWindow="240" windowWidth="19635" windowHeight="15015" firstSheet="4" activeTab="8" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="에버롤" sheetId="8" r:id="rId7"/>
     <sheet name="베스코" sheetId="9" r:id="rId8"/>
     <sheet name="아이핏펀" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
+    <sheet name="한성앤키텍" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="1991">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6432,6 +6432,378 @@
   <si>
     <t>BC403(스탠딩아웃타이)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/1_5.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/6_10.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/11_15.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/16_20.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/21_25.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/26_30.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/31_35.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/36_40.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/41_81.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/82_107.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/108_136.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/137_169.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/170_194.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/195_199.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/200_204.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/205_209.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/210_214.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/215_219.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/220_224.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/225_229.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/230.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/231.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/232_241.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/242_251.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/252_261.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/262_263.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/264_266.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/267_274.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/275_277.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/278.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/279.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/280.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/281.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/282.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/283.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/284.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/285.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/286.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/287_291.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/292.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/293_297.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/298_305.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/306_310.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/311_315.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/316.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/317.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/318.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/319.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/320.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/321.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/322.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/323.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/324.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/325.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/326.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/327.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/328.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/329.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/330.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/331.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/332.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/333.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/334.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/335.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/336.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/337.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/338.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/339.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/340.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/341.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/342.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/343.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/344.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/345.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/346.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/347.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/348.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/349.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/350.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/351.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/352.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/353.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/354.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/355.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/356.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/357_362.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/363.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/364.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/365_367.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/368.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/369.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/370_373.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/374.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/375.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/376.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/377.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/378.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/379_381.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/382_385.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/386.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/387_390.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/391.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/392.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/393.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/394.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/395.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/396.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/397.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/398.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/399.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/400.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/401.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/402.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/403.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/404.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/405.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/406.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/407.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/408.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/409.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/410.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/411.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/412.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/413.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -7506,7 +7878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68443C7-BE48-45C7-8147-0B3FF01C84F7}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -12245,7 +12617,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15431,8 +15803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC49DC-4E24-43F0-913E-5C4CF051B2F2}">
   <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B395" workbookViewId="0">
+      <selection activeCell="F408" sqref="F408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15460,6 +15832,9 @@
       <c r="B2">
         <v>5500</v>
       </c>
+      <c r="C2" t="s">
+        <v>1867</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -15468,6 +15843,9 @@
       <c r="B3">
         <v>11000</v>
       </c>
+      <c r="C3" t="s">
+        <v>1867</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -15476,6 +15854,9 @@
       <c r="B4">
         <v>22000</v>
       </c>
+      <c r="C4" t="s">
+        <v>1867</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -15484,6 +15865,9 @@
       <c r="B5">
         <v>33000</v>
       </c>
+      <c r="C5" t="s">
+        <v>1867</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -15492,6 +15876,9 @@
       <c r="B6">
         <v>44000</v>
       </c>
+      <c r="C6" t="s">
+        <v>1867</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -15500,6 +15887,9 @@
       <c r="B7" s="11">
         <v>7500</v>
       </c>
+      <c r="C7" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -15508,6 +15898,9 @@
       <c r="B8" s="11">
         <v>15000</v>
       </c>
+      <c r="C8" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -15516,6 +15909,9 @@
       <c r="B9" s="11">
         <v>30000</v>
       </c>
+      <c r="C9" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -15524,6 +15920,9 @@
       <c r="B10" s="11">
         <v>45000</v>
       </c>
+      <c r="C10" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -15532,6 +15931,9 @@
       <c r="B11" s="11">
         <v>60000</v>
       </c>
+      <c r="C11" t="s">
+        <v>1868</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -15540,6 +15942,9 @@
       <c r="B12" s="13">
         <v>7500</v>
       </c>
+      <c r="C12" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -15548,6 +15953,9 @@
       <c r="B13" s="13">
         <v>15000</v>
       </c>
+      <c r="C13" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -15556,6 +15964,9 @@
       <c r="B14" s="13">
         <v>30000</v>
       </c>
+      <c r="C14" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -15564,6 +15975,9 @@
       <c r="B15" s="13">
         <v>45000</v>
       </c>
+      <c r="C15" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -15572,1925 +15986,2648 @@
       <c r="B16" s="13">
         <v>60000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1379</v>
       </c>
       <c r="B17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1380</v>
       </c>
       <c r="B18">
         <v>16000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1381</v>
       </c>
       <c r="B19">
         <v>32000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1382</v>
       </c>
       <c r="B20">
         <v>48000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1383</v>
       </c>
       <c r="B21">
         <v>64000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1384</v>
       </c>
       <c r="B22">
         <v>11250</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1385</v>
       </c>
       <c r="B23">
         <v>22500</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1386</v>
       </c>
       <c r="B24">
         <v>45000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1387</v>
       </c>
       <c r="B25">
         <v>67500</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1388</v>
       </c>
       <c r="B26">
         <v>90000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1389</v>
       </c>
       <c r="B27">
         <v>10000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1390</v>
       </c>
       <c r="B28">
         <v>20000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1391</v>
       </c>
       <c r="B29">
         <v>40000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1392</v>
       </c>
       <c r="B30">
         <v>60000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1393</v>
       </c>
       <c r="B31">
         <v>80000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1394</v>
       </c>
       <c r="B32">
         <v>10000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1395</v>
       </c>
       <c r="B33">
         <v>20000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1396</v>
       </c>
       <c r="B34">
         <v>40000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1397</v>
       </c>
       <c r="B35">
         <v>60000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1398</v>
       </c>
       <c r="B36">
         <v>80000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1399</v>
       </c>
       <c r="B37">
         <v>22000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1400</v>
       </c>
       <c r="B38">
         <v>32000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1401</v>
       </c>
       <c r="B39">
         <v>40000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1402</v>
       </c>
       <c r="B40">
         <v>56000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1403</v>
       </c>
       <c r="B41">
         <v>72000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1404</v>
       </c>
       <c r="B42">
         <v>6000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1405</v>
       </c>
       <c r="B43">
         <v>9000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1406</v>
       </c>
       <c r="B44">
         <v>12000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1407</v>
       </c>
       <c r="B45">
         <v>15000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1408</v>
       </c>
       <c r="B46">
         <v>18000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1409</v>
       </c>
       <c r="B47">
         <v>21000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1410</v>
       </c>
       <c r="B48">
         <v>24000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1411</v>
       </c>
       <c r="B49">
         <v>27000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1412</v>
       </c>
       <c r="B50">
         <v>30000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1413</v>
       </c>
       <c r="B51">
         <v>33000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1414</v>
       </c>
       <c r="B52">
         <v>36000</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1415</v>
       </c>
       <c r="B53">
         <v>39000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1416</v>
       </c>
       <c r="B54">
         <v>42000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1417</v>
       </c>
       <c r="B55">
         <v>45000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1418</v>
       </c>
       <c r="B56">
         <v>48000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1419</v>
       </c>
       <c r="B57">
         <v>51000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1420</v>
       </c>
       <c r="B58">
         <v>54000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1421</v>
       </c>
       <c r="B59">
         <v>57000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1422</v>
       </c>
       <c r="B60">
         <v>60000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1423</v>
       </c>
       <c r="B61">
         <v>66000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1424</v>
       </c>
       <c r="B62">
         <v>72000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1425</v>
       </c>
       <c r="B63">
         <v>78000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1426</v>
       </c>
       <c r="B64">
         <v>84000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1427</v>
       </c>
       <c r="B65">
         <v>90000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1428</v>
       </c>
       <c r="B66">
         <v>96000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1429</v>
       </c>
       <c r="B67">
         <v>102000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1430</v>
       </c>
       <c r="B68">
         <v>108000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1431</v>
       </c>
       <c r="B69">
         <v>114000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1432</v>
       </c>
       <c r="B70">
         <v>120000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1433</v>
       </c>
       <c r="B71">
         <v>126000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1434</v>
       </c>
       <c r="B72">
         <v>132000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1435</v>
       </c>
       <c r="B73">
         <v>138000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1436</v>
       </c>
       <c r="B74">
         <v>144000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1437</v>
       </c>
       <c r="B75">
         <v>150000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1438</v>
       </c>
       <c r="B76">
         <v>75000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1439</v>
       </c>
       <c r="B77">
         <v>105000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1440</v>
       </c>
       <c r="B78">
         <v>135000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1441</v>
       </c>
       <c r="B79">
         <v>165000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1442</v>
       </c>
       <c r="B80">
         <v>180000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1443</v>
       </c>
       <c r="B81">
         <v>195000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1444</v>
       </c>
       <c r="B82">
         <v>210000</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1445</v>
       </c>
       <c r="B83">
         <v>6400</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1446</v>
       </c>
       <c r="B84">
         <v>9600</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1447</v>
       </c>
       <c r="B85">
         <v>12800</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1448</v>
       </c>
       <c r="B86">
         <v>16000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1449</v>
       </c>
       <c r="B87">
         <v>19200</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1450</v>
       </c>
       <c r="B88">
         <v>22400</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1451</v>
       </c>
       <c r="B89">
         <v>25600</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1452</v>
       </c>
       <c r="B90">
         <v>28800</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1453</v>
       </c>
       <c r="B91">
         <v>32000</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1454</v>
       </c>
       <c r="B92">
         <v>38400</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1455</v>
       </c>
       <c r="B93">
         <v>44800</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1456</v>
       </c>
       <c r="B94">
         <v>51200</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1457</v>
       </c>
       <c r="B95">
         <v>57600</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1458</v>
       </c>
       <c r="B96">
         <v>64000</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1459</v>
       </c>
       <c r="B97">
         <v>70400</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1460</v>
       </c>
       <c r="B98">
         <v>76800</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1461</v>
       </c>
       <c r="B99">
         <v>83200</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1462</v>
       </c>
       <c r="B100">
         <v>89600</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1463</v>
       </c>
       <c r="B101">
         <v>96000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1464</v>
       </c>
       <c r="B102">
         <v>102400</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1465</v>
       </c>
       <c r="B103">
         <v>108800</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1466</v>
       </c>
       <c r="B104">
         <v>115200</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1467</v>
       </c>
       <c r="B105">
         <v>121600</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1468</v>
       </c>
       <c r="B106">
         <v>128000</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1469</v>
       </c>
       <c r="B107">
         <v>144000</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1470</v>
       </c>
       <c r="B108">
         <v>160000</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1471</v>
       </c>
       <c r="B109">
         <v>9000</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1472</v>
       </c>
       <c r="B110">
         <v>18000</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1473</v>
       </c>
       <c r="B111">
         <v>27000</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1474</v>
       </c>
       <c r="B112">
         <v>36000</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1475</v>
       </c>
       <c r="B113">
         <v>45000</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1476</v>
       </c>
       <c r="B114">
         <v>54000</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1477</v>
       </c>
       <c r="B115">
         <v>63000</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1478</v>
       </c>
       <c r="B116">
         <v>72000</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1479</v>
       </c>
       <c r="B117">
         <v>81000</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1480</v>
       </c>
       <c r="B118">
         <v>90000</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1481</v>
       </c>
       <c r="B119">
         <v>99000</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1482</v>
       </c>
       <c r="B120">
         <v>108000</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1483</v>
       </c>
       <c r="B121">
         <v>117000</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1484</v>
       </c>
       <c r="B122">
         <v>126000</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1485</v>
       </c>
       <c r="B123">
         <v>135000</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1486</v>
       </c>
       <c r="B124">
         <v>144000</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1487</v>
       </c>
       <c r="B125">
         <v>153000</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1488</v>
       </c>
       <c r="B126">
         <v>162000</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1489</v>
       </c>
       <c r="B127">
         <v>171000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1490</v>
       </c>
       <c r="B128">
         <v>180000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1491</v>
       </c>
       <c r="B129">
         <v>189000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1492</v>
       </c>
       <c r="B130">
         <v>193500</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1493</v>
       </c>
       <c r="B131">
         <v>198000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1494</v>
       </c>
       <c r="B132">
         <v>202500</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1495</v>
       </c>
       <c r="B133">
         <v>207000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1496</v>
       </c>
       <c r="B134">
         <v>211500</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1497</v>
       </c>
       <c r="B135">
         <v>216000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1498</v>
       </c>
       <c r="B136">
         <v>220500</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1499</v>
       </c>
       <c r="B137">
         <v>225000</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1500</v>
       </c>
       <c r="B138">
         <v>10000</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1501</v>
       </c>
       <c r="B139">
         <v>15000</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1502</v>
       </c>
       <c r="B140">
         <v>20000</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1503</v>
       </c>
       <c r="B141">
         <v>25000</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1504</v>
       </c>
       <c r="B142">
         <v>30000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1505</v>
       </c>
       <c r="B143">
         <v>35000</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1506</v>
       </c>
       <c r="B144">
         <v>40000</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1507</v>
       </c>
       <c r="B145">
         <v>45000</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1508</v>
       </c>
       <c r="B146">
         <v>50000</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1509</v>
       </c>
       <c r="B147">
         <v>60000</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1510</v>
       </c>
       <c r="B148">
         <v>70000</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1511</v>
       </c>
       <c r="B149">
         <v>80000</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1512</v>
       </c>
       <c r="B150">
         <v>90000</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1513</v>
       </c>
       <c r="B151">
         <v>100000</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1514</v>
       </c>
       <c r="B152">
         <v>110000</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1515</v>
       </c>
       <c r="B153">
         <v>120000</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1516</v>
       </c>
       <c r="B154">
         <v>130000</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1517</v>
       </c>
       <c r="B155">
         <v>140000</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1518</v>
       </c>
       <c r="B156">
         <v>150000</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1519</v>
       </c>
       <c r="B157">
         <v>160000</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1520</v>
       </c>
       <c r="B158">
         <v>170000</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1521</v>
       </c>
       <c r="B159">
         <v>180000</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1522</v>
       </c>
       <c r="B160">
         <v>190000</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1523</v>
       </c>
       <c r="B161">
         <v>200000</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1524</v>
       </c>
       <c r="B162">
         <v>210000</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1525</v>
       </c>
       <c r="B163">
         <v>215000</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1526</v>
       </c>
       <c r="B164">
         <v>220000</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1527</v>
       </c>
       <c r="B165">
         <v>225000</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1528</v>
       </c>
       <c r="B166">
         <v>230000</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1529</v>
       </c>
       <c r="B167">
         <v>235000</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1530</v>
       </c>
       <c r="B168">
         <v>240000</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1531</v>
       </c>
       <c r="B169">
         <v>245000</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1532</v>
       </c>
       <c r="B170">
         <v>250000</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1533</v>
       </c>
       <c r="B171">
         <v>8000</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1534</v>
       </c>
       <c r="B172">
         <v>16000</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1535</v>
       </c>
       <c r="B173">
         <v>24000</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1536</v>
       </c>
       <c r="B174">
         <v>32000</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1537</v>
       </c>
       <c r="B175">
         <v>40000</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1538</v>
       </c>
       <c r="B176">
         <v>48000</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1539</v>
       </c>
       <c r="B177">
         <v>56000</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1540</v>
       </c>
       <c r="B178">
         <v>64000</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1541</v>
       </c>
       <c r="B179">
         <v>72000</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1542</v>
       </c>
       <c r="B180">
         <v>80000</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1543</v>
       </c>
       <c r="B181">
         <v>88000</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1544</v>
       </c>
       <c r="B182">
         <v>96000</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1545</v>
       </c>
       <c r="B183">
         <v>104000</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1546</v>
       </c>
       <c r="B184">
         <v>112000</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1547</v>
       </c>
       <c r="B185">
         <v>120000</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1548</v>
       </c>
       <c r="B186">
         <v>128000</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1549</v>
       </c>
       <c r="B187">
         <v>136000</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1550</v>
       </c>
       <c r="B188">
         <v>144000</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1551</v>
       </c>
       <c r="B189">
         <v>152000</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1552</v>
       </c>
       <c r="B190">
         <v>160000</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1553</v>
       </c>
       <c r="B191">
         <v>168000</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1554</v>
       </c>
       <c r="B192">
         <v>176000</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1555</v>
       </c>
       <c r="B193">
         <v>184000</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1556</v>
       </c>
       <c r="B194">
         <v>192000</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1557</v>
       </c>
       <c r="B195">
         <v>200000</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1558</v>
       </c>
       <c r="B196">
         <v>32000</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1559</v>
       </c>
       <c r="B197">
         <v>48000</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1560</v>
       </c>
       <c r="B198">
         <v>64000</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1561</v>
       </c>
       <c r="B199">
         <v>80000</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1562</v>
       </c>
       <c r="B200">
         <v>96000</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1563</v>
       </c>
       <c r="B201">
         <v>32000</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1564</v>
       </c>
       <c r="B202">
         <v>48000</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1565</v>
       </c>
       <c r="B203">
         <v>64000</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1566</v>
       </c>
       <c r="B204">
         <v>80000</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1567</v>
       </c>
       <c r="B205">
         <v>96000</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1568</v>
       </c>
       <c r="B206">
         <v>35000</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1569</v>
       </c>
       <c r="B207">
         <v>52500</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1570</v>
       </c>
       <c r="B208">
         <v>70000</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1571</v>
       </c>
       <c r="B209">
         <v>87500</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1572</v>
       </c>
       <c r="B210">
         <v>105000</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1573</v>
       </c>
       <c r="B211">
         <v>35000</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1574</v>
       </c>
       <c r="B212">
         <v>52500</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1575</v>
       </c>
       <c r="B213">
         <v>70000</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1576</v>
       </c>
       <c r="B214">
         <v>87500</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1577</v>
       </c>
       <c r="B215">
         <v>105000</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1578</v>
       </c>
       <c r="B216">
         <v>47000</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1579</v>
       </c>
       <c r="B217">
         <v>70500</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1580</v>
       </c>
       <c r="B218">
         <v>94000</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1581</v>
       </c>
       <c r="B219">
         <v>117500</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1582</v>
       </c>
       <c r="B220">
         <v>141000</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1583</v>
       </c>
       <c r="B221">
         <v>47000</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1584</v>
       </c>
       <c r="B222">
         <v>70500</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1585</v>
       </c>
       <c r="B223">
         <v>94000</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1586</v>
       </c>
       <c r="B224">
         <v>117500</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1587</v>
       </c>
       <c r="B225">
         <v>141000</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1588</v>
       </c>
       <c r="B226">
         <v>55000</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1589</v>
       </c>
       <c r="B227">
         <v>82500</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1590</v>
       </c>
       <c r="B228">
         <v>110000</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1591</v>
       </c>
       <c r="B229">
         <v>137500</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1592</v>
       </c>
       <c r="B230">
         <v>165000</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1593</v>
       </c>
       <c r="B231">
         <v>800000</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1594</v>
       </c>
       <c r="B232">
         <v>950000</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1595</v>
       </c>
       <c r="B233">
         <v>5000</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1596</v>
       </c>
       <c r="B234">
         <v>10000</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1597</v>
       </c>
       <c r="B235">
         <v>15000</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1598</v>
       </c>
       <c r="B236">
         <v>20000</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1599</v>
       </c>
       <c r="B237">
         <v>25000</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1600</v>
       </c>
       <c r="B238">
         <v>30000</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1601</v>
       </c>
       <c r="B239">
         <v>35000</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1602</v>
       </c>
       <c r="B240">
         <v>40000</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1603</v>
       </c>
       <c r="B241">
         <v>45000</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1604</v>
       </c>
       <c r="B242">
         <v>50000</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1605</v>
       </c>
       <c r="B243">
         <v>3600</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1606</v>
       </c>
       <c r="B244">
         <v>7200</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1607</v>
       </c>
       <c r="B245">
         <v>10800</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1608</v>
       </c>
       <c r="B246">
         <v>14400</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1609</v>
       </c>
       <c r="B247">
         <v>18000</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1610</v>
       </c>
       <c r="B248">
         <v>21600</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1611</v>
       </c>
       <c r="B249">
         <v>25200</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1612</v>
       </c>
       <c r="B250">
         <v>28800</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1613</v>
       </c>
       <c r="B251">
         <v>32400</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1614</v>
       </c>
       <c r="B252">
         <v>36000</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1615</v>
       </c>
       <c r="B253">
         <v>2400</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1616</v>
       </c>
       <c r="B254">
         <v>4800</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1617</v>
       </c>
       <c r="B255">
         <v>7200</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1618</v>
       </c>
       <c r="B256">
         <v>9600</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -17500,6 +18637,9 @@
       <c r="B257">
         <v>12000</v>
       </c>
+      <c r="C257" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
@@ -17508,6 +18648,9 @@
       <c r="B258">
         <v>14400</v>
       </c>
+      <c r="C258" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
@@ -17516,6 +18659,9 @@
       <c r="B259">
         <v>16800</v>
       </c>
+      <c r="C259" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
@@ -17524,6 +18670,9 @@
       <c r="B260">
         <v>19200</v>
       </c>
+      <c r="C260" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
@@ -17532,6 +18681,9 @@
       <c r="B261">
         <v>21600</v>
       </c>
+      <c r="C261" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
@@ -17540,6 +18692,9 @@
       <c r="B262">
         <v>24000</v>
       </c>
+      <c r="C262" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
@@ -17548,6 +18703,9 @@
       <c r="B263">
         <v>13200</v>
       </c>
+      <c r="C263" t="s">
+        <v>1892</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
@@ -17556,6 +18714,9 @@
       <c r="B264">
         <v>19800</v>
       </c>
+      <c r="C264" t="s">
+        <v>1892</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
@@ -17564,6 +18725,9 @@
       <c r="B265">
         <v>77000</v>
       </c>
+      <c r="C265" t="s">
+        <v>1893</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
@@ -17572,6 +18736,9 @@
       <c r="B266">
         <v>99000</v>
       </c>
+      <c r="C266" t="s">
+        <v>1893</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
@@ -17580,6 +18747,9 @@
       <c r="B267">
         <v>106700</v>
       </c>
+      <c r="C267" t="s">
+        <v>1893</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
@@ -17588,8 +18758,8 @@
       <c r="B268">
         <v>12000</v>
       </c>
-      <c r="C268">
-        <v>12000</v>
+      <c r="C268" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -17599,8 +18769,8 @@
       <c r="B269">
         <v>18000</v>
       </c>
-      <c r="C269">
-        <v>18000</v>
+      <c r="C269" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -17610,8 +18780,8 @@
       <c r="B270">
         <v>24000</v>
       </c>
-      <c r="C270">
-        <v>24000</v>
+      <c r="C270" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -17621,8 +18791,8 @@
       <c r="B271">
         <v>30000</v>
       </c>
-      <c r="C271">
-        <v>30000</v>
+      <c r="C271" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -17632,8 +18802,8 @@
       <c r="B272">
         <v>36000</v>
       </c>
-      <c r="C272">
-        <v>36000</v>
+      <c r="C272" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -17643,8 +18813,8 @@
       <c r="B273">
         <v>48000</v>
       </c>
-      <c r="C273">
-        <v>48000</v>
+      <c r="C273" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -17654,8 +18824,8 @@
       <c r="B274">
         <v>60000</v>
       </c>
-      <c r="C274">
-        <v>60000</v>
+      <c r="C274" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -17665,8 +18835,8 @@
       <c r="B275">
         <v>72000</v>
       </c>
-      <c r="C275">
-        <v>72000</v>
+      <c r="C275" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -17676,6 +18846,9 @@
       <c r="B276">
         <v>90000</v>
       </c>
+      <c r="C276" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
@@ -17684,6 +18857,9 @@
       <c r="B277">
         <v>150000</v>
       </c>
+      <c r="C277" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
@@ -17692,6 +18868,9 @@
       <c r="B278">
         <v>120000</v>
       </c>
+      <c r="C278" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
@@ -17700,6 +18879,9 @@
       <c r="B279">
         <v>220000</v>
       </c>
+      <c r="C279" t="s">
+        <v>1896</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
@@ -17708,6 +18890,9 @@
       <c r="B280">
         <v>250000</v>
       </c>
+      <c r="C280" t="s">
+        <v>1897</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
@@ -17716,6 +18901,9 @@
       <c r="B281">
         <v>80000</v>
       </c>
+      <c r="C281" t="s">
+        <v>1898</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
@@ -17724,6 +18912,9 @@
       <c r="B282">
         <v>80000</v>
       </c>
+      <c r="C282" t="s">
+        <v>1899</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
@@ -17732,6 +18923,9 @@
       <c r="B283">
         <v>130000</v>
       </c>
+      <c r="C283" t="s">
+        <v>1900</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
@@ -17740,6 +18934,9 @@
       <c r="B284">
         <v>250000</v>
       </c>
+      <c r="C284" t="s">
+        <v>1901</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
@@ -17748,6 +18945,9 @@
       <c r="B285">
         <v>230000</v>
       </c>
+      <c r="C285" t="s">
+        <v>1902</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
@@ -17756,6 +18956,9 @@
       <c r="B286">
         <v>6000</v>
       </c>
+      <c r="C286" t="s">
+        <v>1903</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
@@ -17764,6 +18967,9 @@
       <c r="B287">
         <v>16500</v>
       </c>
+      <c r="C287" t="s">
+        <v>1904</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
@@ -17772,1013 +18978,1394 @@
       <c r="B288">
         <v>20000</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1649</v>
       </c>
       <c r="B289">
         <v>25000</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1650</v>
       </c>
       <c r="B290">
         <v>28000</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1651</v>
       </c>
       <c r="B291">
         <v>33000</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1652</v>
       </c>
       <c r="B292">
         <v>39000</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1653</v>
       </c>
       <c r="B293">
         <v>8800</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1654</v>
       </c>
       <c r="B294">
         <v>18700</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1655</v>
       </c>
       <c r="B295">
         <v>24200</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1656</v>
       </c>
       <c r="B296">
         <v>29700</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1657</v>
       </c>
       <c r="B297">
         <v>33000</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1658</v>
       </c>
       <c r="B298">
         <v>36300</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1659</v>
       </c>
       <c r="B299">
         <v>31900</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1660</v>
       </c>
       <c r="B300">
         <v>33000</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1661</v>
       </c>
       <c r="B301">
         <v>35200</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1662</v>
       </c>
       <c r="B302">
         <v>36300</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1663</v>
       </c>
       <c r="B303">
         <v>37400</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1664</v>
       </c>
       <c r="B304">
         <v>39600</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1665</v>
       </c>
       <c r="B305">
         <v>41800</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1666</v>
       </c>
       <c r="B306">
         <v>42900</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1667</v>
       </c>
       <c r="B307">
         <v>39600</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C307" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1668</v>
       </c>
       <c r="B308">
         <v>49500</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C308" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1669</v>
       </c>
       <c r="B309">
         <v>59400</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1670</v>
       </c>
       <c r="B310">
         <v>69300</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1671</v>
       </c>
       <c r="B311">
         <v>79200</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1672</v>
       </c>
       <c r="B312">
         <v>39600</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1673</v>
       </c>
       <c r="B313">
         <v>49500</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1674</v>
       </c>
       <c r="B314">
         <v>59400</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1675</v>
       </c>
       <c r="B315">
         <v>69300</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1676</v>
       </c>
       <c r="B316">
         <v>79200</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1677</v>
       </c>
       <c r="B317">
         <v>10000</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1678</v>
       </c>
       <c r="B318">
         <v>33000</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1679</v>
       </c>
       <c r="B319">
         <v>20000</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1680</v>
       </c>
       <c r="B320">
         <v>198000</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1681</v>
       </c>
       <c r="B321">
         <v>120000</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1682</v>
       </c>
       <c r="B322">
         <v>720000</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1683</v>
       </c>
       <c r="B323">
         <v>440000</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1684</v>
       </c>
       <c r="B324">
         <v>490000</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1685</v>
       </c>
       <c r="B325">
         <v>1150000</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1686</v>
       </c>
       <c r="B326">
         <v>570000</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1687</v>
       </c>
       <c r="B327">
         <v>440000</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1688</v>
       </c>
       <c r="B328">
         <v>320000</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C328" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1689</v>
       </c>
       <c r="B329">
         <v>570000</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1690</v>
       </c>
       <c r="B330">
         <v>490000</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C330" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1691</v>
       </c>
       <c r="B331">
         <v>150000</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1692</v>
       </c>
       <c r="B332">
         <v>160000</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C332" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1693</v>
       </c>
       <c r="B333">
         <v>300000</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C333" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1694</v>
       </c>
       <c r="B334">
         <v>330000</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C334" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1695</v>
       </c>
       <c r="B335">
         <v>330000</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C335" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1696</v>
       </c>
       <c r="B336">
         <v>250000</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C336" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1697</v>
       </c>
       <c r="B337">
         <v>490000</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C337" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1698</v>
       </c>
       <c r="B338">
         <v>250000</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C338" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1699</v>
       </c>
       <c r="B339">
         <v>210000</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C339" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1700</v>
       </c>
       <c r="B340">
         <v>95000</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C340" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1701</v>
       </c>
       <c r="B341">
         <v>88000</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C341" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1702</v>
       </c>
       <c r="B342">
         <v>5500</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C342" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1703</v>
       </c>
       <c r="B343">
         <v>20900</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C343" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1704</v>
       </c>
       <c r="B344">
         <v>165000</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C344" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1705</v>
       </c>
       <c r="B345">
         <v>71500</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C345" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1706</v>
       </c>
       <c r="B346">
         <v>190000</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C346" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1707</v>
       </c>
       <c r="B347">
         <v>180000</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C347" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1708</v>
       </c>
       <c r="B348">
         <v>121000</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1709</v>
       </c>
       <c r="B349">
         <v>380000</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C349" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1710</v>
       </c>
       <c r="B350">
         <v>11000</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C350" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1711</v>
       </c>
       <c r="B351">
         <v>17600</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C351" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1712</v>
       </c>
       <c r="B352">
         <v>5500</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C352" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1713</v>
       </c>
       <c r="B353">
         <v>13200</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C353" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1714</v>
       </c>
       <c r="B354">
         <v>28600</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C354" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1715</v>
       </c>
       <c r="B355">
         <v>27500</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C355" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1716</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C356" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1717</v>
       </c>
       <c r="B357">
         <v>13200</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C357" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1723</v>
       </c>
       <c r="B358">
         <v>2700</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C358" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1722</v>
       </c>
       <c r="B359">
         <v>4600</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C359" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1721</v>
       </c>
       <c r="B360">
         <v>7600</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C360" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1720</v>
       </c>
       <c r="B361">
         <v>11000</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C361" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1719</v>
       </c>
       <c r="B362">
         <v>16500</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C362" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1718</v>
       </c>
       <c r="B363">
         <v>22000</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C363" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1724</v>
       </c>
       <c r="B364">
         <v>9400</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C364" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1725</v>
       </c>
       <c r="B365">
         <v>17600</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C365" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1726</v>
       </c>
       <c r="B366">
         <v>7200</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C366" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1727</v>
       </c>
       <c r="B367">
         <v>12100</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C367" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1728</v>
       </c>
       <c r="B368">
         <v>22000</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C368" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1729</v>
       </c>
       <c r="B369">
         <v>8800</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C369" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1730</v>
       </c>
       <c r="B370">
         <v>16500</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C370" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1734</v>
       </c>
       <c r="B371">
         <v>2500</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C371" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1733</v>
       </c>
       <c r="B372">
         <v>3600</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C372" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1732</v>
       </c>
       <c r="B373">
         <v>4700</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C373" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1731</v>
       </c>
       <c r="B374">
         <v>5500</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C374" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1735</v>
       </c>
       <c r="B375">
         <v>6600</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C375" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1736</v>
       </c>
       <c r="B376">
         <v>4500</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C376" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1737</v>
       </c>
       <c r="B377">
         <v>5000</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C377" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="12" t="s">
         <v>1738</v>
       </c>
       <c r="B378">
         <v>29700</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C378" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1739</v>
       </c>
       <c r="B379">
         <v>6600</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C379" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1741</v>
       </c>
       <c r="B380">
         <v>21000</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C380" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1742</v>
       </c>
       <c r="B381">
         <v>24200</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C381" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1740</v>
       </c>
       <c r="B382">
         <v>26400</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C382" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1746</v>
       </c>
       <c r="B383">
         <v>1600</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C383" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1745</v>
       </c>
       <c r="B384">
         <v>2200</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C384" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1744</v>
       </c>
       <c r="B385">
         <v>2700</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C385" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1743</v>
       </c>
       <c r="B386">
         <v>3300</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C386" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1747</v>
       </c>
       <c r="B387">
         <v>16500</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C387" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1751</v>
       </c>
       <c r="B388">
         <v>4400</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C388" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1750</v>
       </c>
       <c r="B389">
         <v>4900</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C389" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1749</v>
       </c>
       <c r="B390">
         <v>5500</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C390" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1748</v>
       </c>
       <c r="B391">
         <v>6000</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C391" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="12" t="s">
         <v>1752</v>
       </c>
       <c r="B392">
         <v>16500</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C392" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1753</v>
       </c>
       <c r="B393">
         <v>14300</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C393" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1754</v>
       </c>
       <c r="B394">
         <v>13200</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C394" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1196</v>
       </c>
       <c r="B395">
         <v>16500</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C395" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1755</v>
       </c>
       <c r="B396">
         <v>11000</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C396" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1756</v>
       </c>
       <c r="B397">
         <v>16500</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C397" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1757</v>
       </c>
       <c r="B398">
         <v>22000</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C398" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1758</v>
       </c>
       <c r="B399">
         <v>27500</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C399" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1759</v>
       </c>
       <c r="B400">
         <v>22000</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C400" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1189</v>
       </c>
       <c r="B401">
         <v>16500</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C401" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1760</v>
       </c>
       <c r="B402">
         <v>66000</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C402" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1761</v>
       </c>
       <c r="B403">
         <v>74000</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C403" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1762</v>
       </c>
       <c r="B404">
         <v>47000</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C404" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1763</v>
       </c>
       <c r="B405">
         <v>91000</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C405" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1764</v>
       </c>
       <c r="B406">
         <v>61000</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C406" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1765</v>
       </c>
       <c r="B407">
         <v>57000</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C407" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1766</v>
       </c>
       <c r="B408">
         <v>37000</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C408" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1767</v>
       </c>
       <c r="B409">
         <v>165000</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C409" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1768</v>
       </c>
       <c r="B410">
         <v>1100000</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C410" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1769</v>
       </c>
       <c r="B411">
         <v>700000</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C411" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1770</v>
       </c>
       <c r="B412">
         <v>385000</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C412" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1771</v>
       </c>
       <c r="B413">
         <v>180000</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C413" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1772</v>
       </c>
       <c r="B414">
         <v>250000</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1990</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 페이지 - 추가 작업중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D7752-96C3-4EB5-9F46-640E6B89DF14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC45E0-049C-4EAA-AFFD-D354DABD072F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="240" windowWidth="19635" windowHeight="15015" firstSheet="4" activeTab="8" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="33135" yWindow="0" windowWidth="19635" windowHeight="15015" firstSheet="4" activeTab="9" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="2094">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6058,10 +6058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무동력 트레드밀 C-TRAC 880</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6278,18 +6274,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SMT-BC06(레그컬)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K5.5R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MB7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K9.5R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6310,14 +6298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EL920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL910</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아령정리대(대)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6350,10 +6330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SQUAT RACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유니블럭 500*500*25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6804,6 +6780,341 @@
   </si>
   <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/IPHIFUN/413.png?raw=true</t>
+  </si>
+  <si>
+    <t>ST-3300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-10D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-BC06(레그컬 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티벤치 MB7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈미트 SMT-3300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EI920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EI910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQUAT RACK SR-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/1.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/2.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/3.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/5.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/6.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/7.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/8.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/9.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/10.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/11.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/12.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/13.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/14.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/15.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/16.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/17.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/18.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/19.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/20.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/21.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/22.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/23.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/24.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/25.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/26.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/27.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/28.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/29.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/30.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/31.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/32.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/33.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/34.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/35.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/36.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/37.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/38.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/39.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/40.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/41.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/42.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/43.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/44.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/45.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/46.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/47.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/48.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/49.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/50.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/51.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/52.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/53.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/54.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/55.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/56.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/57.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/58.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/59.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/60.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/61.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/62.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/63.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/64.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/65.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/66.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/67.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/68.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/69.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/70.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/71.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/72.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/73.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/74.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/75.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/76.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/77.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/78.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/79.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/80.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/81.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/82.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/83.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/84.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/85.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/86.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/87.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/88.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/89.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/90.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/91.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/92.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/93.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/94.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/95.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/96.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/97.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/98.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/99.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/100.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/101.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -7876,17 +8187,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68443C7-BE48-45C7-8147-0B3FF01C84F7}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.375" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7902,768 +8213,1092 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2">
         <v>770000</v>
       </c>
       <c r="C2" t="s">
-        <v>1773</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B3">
         <v>726000</v>
       </c>
+      <c r="C3" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B4">
         <v>825000</v>
       </c>
+      <c r="C4" t="s">
+        <v>1995</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B5">
         <v>550000</v>
       </c>
+      <c r="C5" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B6">
         <v>1650000</v>
       </c>
+      <c r="C6" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B7">
         <v>495000</v>
       </c>
+      <c r="C7" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B8">
         <v>1430000</v>
       </c>
+      <c r="C8" t="s">
+        <v>1999</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B9">
         <v>2420000</v>
       </c>
+      <c r="C9" t="s">
+        <v>2000</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B10">
         <v>627000</v>
       </c>
+      <c r="C10" t="s">
+        <v>2001</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B11">
         <v>825000</v>
       </c>
+      <c r="C11" t="s">
+        <v>2002</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1784</v>
+        <v>1985</v>
       </c>
       <c r="B12">
-        <v>880000</v>
+        <v>1430000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B13">
-        <v>1870000</v>
+        <v>880000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B14">
-        <v>1430000</v>
+        <v>1870000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2005</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B15">
-        <v>770000</v>
+        <v>1430000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B16">
+        <v>770000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B17">
+        <v>550000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>1788</v>
       </c>
-      <c r="B16">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>693000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>1789</v>
       </c>
-      <c r="B17">
-        <v>693000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>594000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>1790</v>
       </c>
-      <c r="B18">
-        <v>594000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>759000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B21">
+        <v>770000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>1791</v>
-      </c>
-      <c r="B19">
-        <v>759000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B20">
-        <v>693000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B21">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1794</v>
       </c>
       <c r="B22">
         <v>693000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B23">
+        <v>600000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B24">
+        <v>693000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B25">
+        <v>792000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>1795</v>
-      </c>
-      <c r="B23">
-        <v>792000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B24">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B25">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1798</v>
       </c>
       <c r="B26">
         <v>198000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B27">
-        <v>253000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B28">
-        <v>231000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>198000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B29">
         <v>253000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B30">
-        <v>209000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>231000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B31">
         <v>253000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B32">
+        <v>209000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B33">
+        <v>253000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B34">
+        <v>176000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>1804</v>
       </c>
-      <c r="B32">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B35">
+        <v>350000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>1805</v>
       </c>
-      <c r="B33">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B36">
+        <v>154000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>1806</v>
       </c>
-      <c r="B34">
+      <c r="B37">
+        <v>440000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B38">
+        <v>330000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B39">
+        <v>396000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B40">
+        <v>220000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B41">
+        <v>330000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B42">
+        <v>125000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B43">
+        <v>220000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B44">
+        <v>330000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B45">
+        <v>198000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B46">
+        <v>308000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B47">
         <v>154000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B35">
+      <c r="C47" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B48">
+        <v>198000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B49">
+        <v>770000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B50">
+        <v>242000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B51">
+        <v>660000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B52">
+        <v>253000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B53">
+        <v>253000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B54">
+        <v>220000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B55">
+        <v>180000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B56">
+        <v>39600</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B57">
+        <v>242000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B58">
+        <v>312000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B59">
+        <v>231000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B60">
+        <v>198000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B61">
+        <v>451000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B62">
+        <v>220000</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B63">
+        <v>110000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B64">
+        <v>143000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B65">
+        <v>60000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B66">
+        <v>70000</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B67">
+        <v>253000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B68">
+        <v>253000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B69">
         <v>440000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B36">
+      <c r="C69" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B70">
         <v>330000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B37">
-        <v>396000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B38">
+      <c r="C70" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B71">
+        <v>39600</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B72">
+        <v>187000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B73">
+        <v>48400</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B74">
+        <v>48400</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B75">
+        <v>242000</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B76">
+        <v>550000</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B77">
         <v>220000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B39">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B40">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B41">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B42">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B43">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B44">
-        <v>308000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B45">
+      <c r="C77" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B78">
+        <v>8000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B79">
+        <v>7000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B80">
+        <v>132000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B81">
         <v>154000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B46">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B47">
-        <v>770000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B48">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B49">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B50">
-        <v>253000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B51">
-        <v>253000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B52">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B53">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B54">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B55">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B56">
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1829</v>
-      </c>
-      <c r="B57">
-        <v>231000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B58">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B59">
-        <v>451000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B60">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>1833</v>
-      </c>
-      <c r="B61">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B62">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B63">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B64">
-        <v>253000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>1837</v>
-      </c>
-      <c r="B65">
-        <v>253000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B66">
-        <v>440000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B67">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B68">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B69">
+      <c r="C81" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B82">
         <v>187000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B70">
-        <v>48400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B71">
-        <v>48400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B72">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B73">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C82" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>1846</v>
       </c>
-      <c r="B74">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C83" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>1847</v>
       </c>
-      <c r="B75">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C84" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>1848</v>
       </c>
-      <c r="B76">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C85" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>1849</v>
       </c>
-      <c r="B77">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B78">
-        <v>154000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B79">
-        <v>187000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="C87" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>1172</v>
       </c>
-      <c r="B85">
+      <c r="B88">
         <v>90000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="C88" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>1173</v>
-      </c>
-      <c r="B86">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B87">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B88">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>1758</v>
       </c>
       <c r="B89">
         <v>85000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B90">
+        <v>80000</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B91">
+        <v>80000</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B92">
+        <v>85000</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B95">
+        <v>12100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B96">
+        <v>77000</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B97">
+        <v>77000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B98">
+        <v>24200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B99">
+        <v>7700</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B100">
+        <v>1540000</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>1859</v>
       </c>
-      <c r="B92">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B101">
+        <v>1320000</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>1860</v>
       </c>
-      <c r="B93">
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B94">
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B95">
-        <v>24200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B96">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B97">
-        <v>1540000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B98">
-        <v>1320000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B99">
+      <c r="B102">
         <v>990000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2093</v>
       </c>
     </row>
   </sheetData>
@@ -15803,8 +16438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC49DC-4E24-43F0-913E-5C4CF051B2F2}">
   <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B395" workbookViewId="0">
-      <selection activeCell="F408" sqref="F408"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15833,7 +16468,7 @@
         <v>5500</v>
       </c>
       <c r="C2" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -15844,7 +16479,7 @@
         <v>11000</v>
       </c>
       <c r="C3" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -15855,7 +16490,7 @@
         <v>22000</v>
       </c>
       <c r="C4" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15866,7 +16501,7 @@
         <v>33000</v>
       </c>
       <c r="C5" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -15877,7 +16512,7 @@
         <v>44000</v>
       </c>
       <c r="C6" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -15888,7 +16523,7 @@
         <v>7500</v>
       </c>
       <c r="C7" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -15899,7 +16534,7 @@
         <v>15000</v>
       </c>
       <c r="C8" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -15910,7 +16545,7 @@
         <v>30000</v>
       </c>
       <c r="C9" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -15921,7 +16556,7 @@
         <v>45000</v>
       </c>
       <c r="C10" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -15932,7 +16567,7 @@
         <v>60000</v>
       </c>
       <c r="C11" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -15943,7 +16578,7 @@
         <v>7500</v>
       </c>
       <c r="C12" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -15954,7 +16589,7 @@
         <v>15000</v>
       </c>
       <c r="C13" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -15965,7 +16600,7 @@
         <v>30000</v>
       </c>
       <c r="C14" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -15976,7 +16611,7 @@
         <v>45000</v>
       </c>
       <c r="C15" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -15987,7 +16622,7 @@
         <v>60000</v>
       </c>
       <c r="C16" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -15998,7 +16633,7 @@
         <v>8000</v>
       </c>
       <c r="C17" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -16009,7 +16644,7 @@
         <v>16000</v>
       </c>
       <c r="C18" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -16020,7 +16655,7 @@
         <v>32000</v>
       </c>
       <c r="C19" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -16031,7 +16666,7 @@
         <v>48000</v>
       </c>
       <c r="C20" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -16042,7 +16677,7 @@
         <v>64000</v>
       </c>
       <c r="C21" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -16053,7 +16688,7 @@
         <v>11250</v>
       </c>
       <c r="C22" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -16064,7 +16699,7 @@
         <v>22500</v>
       </c>
       <c r="C23" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -16075,7 +16710,7 @@
         <v>45000</v>
       </c>
       <c r="C24" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -16086,7 +16721,7 @@
         <v>67500</v>
       </c>
       <c r="C25" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -16097,7 +16732,7 @@
         <v>90000</v>
       </c>
       <c r="C26" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -16108,7 +16743,7 @@
         <v>10000</v>
       </c>
       <c r="C27" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -16119,7 +16754,7 @@
         <v>20000</v>
       </c>
       <c r="C28" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -16130,7 +16765,7 @@
         <v>40000</v>
       </c>
       <c r="C29" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -16141,7 +16776,7 @@
         <v>60000</v>
       </c>
       <c r="C30" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -16152,7 +16787,7 @@
         <v>80000</v>
       </c>
       <c r="C31" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -16163,7 +16798,7 @@
         <v>10000</v>
       </c>
       <c r="C32" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -16174,7 +16809,7 @@
         <v>20000</v>
       </c>
       <c r="C33" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -16185,7 +16820,7 @@
         <v>40000</v>
       </c>
       <c r="C34" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -16196,7 +16831,7 @@
         <v>60000</v>
       </c>
       <c r="C35" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -16207,7 +16842,7 @@
         <v>80000</v>
       </c>
       <c r="C36" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -16218,7 +16853,7 @@
         <v>22000</v>
       </c>
       <c r="C37" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -16229,7 +16864,7 @@
         <v>32000</v>
       </c>
       <c r="C38" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -16240,7 +16875,7 @@
         <v>40000</v>
       </c>
       <c r="C39" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -16251,7 +16886,7 @@
         <v>56000</v>
       </c>
       <c r="C40" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -16262,7 +16897,7 @@
         <v>72000</v>
       </c>
       <c r="C41" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -16273,7 +16908,7 @@
         <v>6000</v>
       </c>
       <c r="C42" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -16284,7 +16919,7 @@
         <v>9000</v>
       </c>
       <c r="C43" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -16295,7 +16930,7 @@
         <v>12000</v>
       </c>
       <c r="C44" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -16306,7 +16941,7 @@
         <v>15000</v>
       </c>
       <c r="C45" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -16317,7 +16952,7 @@
         <v>18000</v>
       </c>
       <c r="C46" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -16328,7 +16963,7 @@
         <v>21000</v>
       </c>
       <c r="C47" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -16339,7 +16974,7 @@
         <v>24000</v>
       </c>
       <c r="C48" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -16350,7 +16985,7 @@
         <v>27000</v>
       </c>
       <c r="C49" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -16361,7 +16996,7 @@
         <v>30000</v>
       </c>
       <c r="C50" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -16372,7 +17007,7 @@
         <v>33000</v>
       </c>
       <c r="C51" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -16383,7 +17018,7 @@
         <v>36000</v>
       </c>
       <c r="C52" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -16394,7 +17029,7 @@
         <v>39000</v>
       </c>
       <c r="C53" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -16405,7 +17040,7 @@
         <v>42000</v>
       </c>
       <c r="C54" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -16416,7 +17051,7 @@
         <v>45000</v>
       </c>
       <c r="C55" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -16427,7 +17062,7 @@
         <v>48000</v>
       </c>
       <c r="C56" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -16438,7 +17073,7 @@
         <v>51000</v>
       </c>
       <c r="C57" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -16449,7 +17084,7 @@
         <v>54000</v>
       </c>
       <c r="C58" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -16460,7 +17095,7 @@
         <v>57000</v>
       </c>
       <c r="C59" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -16471,7 +17106,7 @@
         <v>60000</v>
       </c>
       <c r="C60" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -16482,7 +17117,7 @@
         <v>66000</v>
       </c>
       <c r="C61" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -16493,7 +17128,7 @@
         <v>72000</v>
       </c>
       <c r="C62" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -16504,7 +17139,7 @@
         <v>78000</v>
       </c>
       <c r="C63" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -16515,7 +17150,7 @@
         <v>84000</v>
       </c>
       <c r="C64" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -16526,7 +17161,7 @@
         <v>90000</v>
       </c>
       <c r="C65" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -16537,7 +17172,7 @@
         <v>96000</v>
       </c>
       <c r="C66" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -16548,7 +17183,7 @@
         <v>102000</v>
       </c>
       <c r="C67" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -16559,7 +17194,7 @@
         <v>108000</v>
       </c>
       <c r="C68" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -16570,7 +17205,7 @@
         <v>114000</v>
       </c>
       <c r="C69" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -16581,7 +17216,7 @@
         <v>120000</v>
       </c>
       <c r="C70" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -16592,7 +17227,7 @@
         <v>126000</v>
       </c>
       <c r="C71" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -16603,7 +17238,7 @@
         <v>132000</v>
       </c>
       <c r="C72" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -16614,7 +17249,7 @@
         <v>138000</v>
       </c>
       <c r="C73" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -16625,7 +17260,7 @@
         <v>144000</v>
       </c>
       <c r="C74" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -16636,7 +17271,7 @@
         <v>150000</v>
       </c>
       <c r="C75" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -16647,7 +17282,7 @@
         <v>75000</v>
       </c>
       <c r="C76" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -16658,7 +17293,7 @@
         <v>105000</v>
       </c>
       <c r="C77" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -16669,7 +17304,7 @@
         <v>135000</v>
       </c>
       <c r="C78" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -16680,7 +17315,7 @@
         <v>165000</v>
       </c>
       <c r="C79" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -16691,7 +17326,7 @@
         <v>180000</v>
       </c>
       <c r="C80" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -16702,7 +17337,7 @@
         <v>195000</v>
       </c>
       <c r="C81" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -16713,7 +17348,7 @@
         <v>210000</v>
       </c>
       <c r="C82" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -16724,7 +17359,7 @@
         <v>6400</v>
       </c>
       <c r="C83" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -16735,7 +17370,7 @@
         <v>9600</v>
       </c>
       <c r="C84" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -16746,7 +17381,7 @@
         <v>12800</v>
       </c>
       <c r="C85" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -16757,7 +17392,7 @@
         <v>16000</v>
       </c>
       <c r="C86" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -16768,7 +17403,7 @@
         <v>19200</v>
       </c>
       <c r="C87" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -16779,7 +17414,7 @@
         <v>22400</v>
       </c>
       <c r="C88" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -16790,7 +17425,7 @@
         <v>25600</v>
       </c>
       <c r="C89" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -16801,7 +17436,7 @@
         <v>28800</v>
       </c>
       <c r="C90" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -16812,7 +17447,7 @@
         <v>32000</v>
       </c>
       <c r="C91" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -16823,7 +17458,7 @@
         <v>38400</v>
       </c>
       <c r="C92" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -16834,7 +17469,7 @@
         <v>44800</v>
       </c>
       <c r="C93" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -16845,7 +17480,7 @@
         <v>51200</v>
       </c>
       <c r="C94" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -16856,7 +17491,7 @@
         <v>57600</v>
       </c>
       <c r="C95" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -16867,7 +17502,7 @@
         <v>64000</v>
       </c>
       <c r="C96" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -16878,7 +17513,7 @@
         <v>70400</v>
       </c>
       <c r="C97" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -16889,7 +17524,7 @@
         <v>76800</v>
       </c>
       <c r="C98" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -16900,7 +17535,7 @@
         <v>83200</v>
       </c>
       <c r="C99" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -16911,7 +17546,7 @@
         <v>89600</v>
       </c>
       <c r="C100" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -16922,7 +17557,7 @@
         <v>96000</v>
       </c>
       <c r="C101" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -16933,7 +17568,7 @@
         <v>102400</v>
       </c>
       <c r="C102" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -16944,7 +17579,7 @@
         <v>108800</v>
       </c>
       <c r="C103" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -16955,7 +17590,7 @@
         <v>115200</v>
       </c>
       <c r="C104" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -16966,7 +17601,7 @@
         <v>121600</v>
       </c>
       <c r="C105" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -16977,7 +17612,7 @@
         <v>128000</v>
       </c>
       <c r="C106" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -16988,7 +17623,7 @@
         <v>144000</v>
       </c>
       <c r="C107" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -16999,7 +17634,7 @@
         <v>160000</v>
       </c>
       <c r="C108" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -17010,7 +17645,7 @@
         <v>9000</v>
       </c>
       <c r="C109" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -17021,7 +17656,7 @@
         <v>18000</v>
       </c>
       <c r="C110" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -17032,7 +17667,7 @@
         <v>27000</v>
       </c>
       <c r="C111" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -17043,7 +17678,7 @@
         <v>36000</v>
       </c>
       <c r="C112" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -17054,7 +17689,7 @@
         <v>45000</v>
       </c>
       <c r="C113" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -17065,7 +17700,7 @@
         <v>54000</v>
       </c>
       <c r="C114" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -17076,7 +17711,7 @@
         <v>63000</v>
       </c>
       <c r="C115" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -17087,7 +17722,7 @@
         <v>72000</v>
       </c>
       <c r="C116" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -17098,7 +17733,7 @@
         <v>81000</v>
       </c>
       <c r="C117" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -17109,7 +17744,7 @@
         <v>90000</v>
       </c>
       <c r="C118" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -17120,7 +17755,7 @@
         <v>99000</v>
       </c>
       <c r="C119" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -17131,7 +17766,7 @@
         <v>108000</v>
       </c>
       <c r="C120" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -17142,7 +17777,7 @@
         <v>117000</v>
       </c>
       <c r="C121" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -17153,7 +17788,7 @@
         <v>126000</v>
       </c>
       <c r="C122" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -17164,7 +17799,7 @@
         <v>135000</v>
       </c>
       <c r="C123" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -17175,7 +17810,7 @@
         <v>144000</v>
       </c>
       <c r="C124" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -17186,7 +17821,7 @@
         <v>153000</v>
       </c>
       <c r="C125" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -17197,7 +17832,7 @@
         <v>162000</v>
       </c>
       <c r="C126" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -17208,7 +17843,7 @@
         <v>171000</v>
       </c>
       <c r="C127" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -17219,7 +17854,7 @@
         <v>180000</v>
       </c>
       <c r="C128" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -17230,7 +17865,7 @@
         <v>189000</v>
       </c>
       <c r="C129" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -17241,7 +17876,7 @@
         <v>193500</v>
       </c>
       <c r="C130" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -17252,7 +17887,7 @@
         <v>198000</v>
       </c>
       <c r="C131" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -17263,7 +17898,7 @@
         <v>202500</v>
       </c>
       <c r="C132" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -17274,7 +17909,7 @@
         <v>207000</v>
       </c>
       <c r="C133" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -17285,7 +17920,7 @@
         <v>211500</v>
       </c>
       <c r="C134" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -17296,7 +17931,7 @@
         <v>216000</v>
       </c>
       <c r="C135" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -17307,7 +17942,7 @@
         <v>220500</v>
       </c>
       <c r="C136" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -17318,7 +17953,7 @@
         <v>225000</v>
       </c>
       <c r="C137" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -17329,7 +17964,7 @@
         <v>10000</v>
       </c>
       <c r="C138" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -17340,7 +17975,7 @@
         <v>15000</v>
       </c>
       <c r="C139" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -17351,7 +17986,7 @@
         <v>20000</v>
       </c>
       <c r="C140" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -17362,7 +17997,7 @@
         <v>25000</v>
       </c>
       <c r="C141" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -17373,7 +18008,7 @@
         <v>30000</v>
       </c>
       <c r="C142" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -17384,7 +18019,7 @@
         <v>35000</v>
       </c>
       <c r="C143" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -17395,7 +18030,7 @@
         <v>40000</v>
       </c>
       <c r="C144" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -17406,7 +18041,7 @@
         <v>45000</v>
       </c>
       <c r="C145" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -17417,7 +18052,7 @@
         <v>50000</v>
       </c>
       <c r="C146" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -17428,7 +18063,7 @@
         <v>60000</v>
       </c>
       <c r="C147" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -17439,7 +18074,7 @@
         <v>70000</v>
       </c>
       <c r="C148" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -17450,7 +18085,7 @@
         <v>80000</v>
       </c>
       <c r="C149" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -17461,7 +18096,7 @@
         <v>90000</v>
       </c>
       <c r="C150" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -17472,7 +18107,7 @@
         <v>100000</v>
       </c>
       <c r="C151" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -17483,7 +18118,7 @@
         <v>110000</v>
       </c>
       <c r="C152" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -17494,7 +18129,7 @@
         <v>120000</v>
       </c>
       <c r="C153" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -17505,7 +18140,7 @@
         <v>130000</v>
       </c>
       <c r="C154" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -17516,7 +18151,7 @@
         <v>140000</v>
       </c>
       <c r="C155" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -17527,7 +18162,7 @@
         <v>150000</v>
       </c>
       <c r="C156" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -17538,7 +18173,7 @@
         <v>160000</v>
       </c>
       <c r="C157" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -17549,7 +18184,7 @@
         <v>170000</v>
       </c>
       <c r="C158" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -17560,7 +18195,7 @@
         <v>180000</v>
       </c>
       <c r="C159" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -17571,7 +18206,7 @@
         <v>190000</v>
       </c>
       <c r="C160" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -17582,7 +18217,7 @@
         <v>200000</v>
       </c>
       <c r="C161" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -17593,7 +18228,7 @@
         <v>210000</v>
       </c>
       <c r="C162" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -17604,7 +18239,7 @@
         <v>215000</v>
       </c>
       <c r="C163" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -17615,7 +18250,7 @@
         <v>220000</v>
       </c>
       <c r="C164" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -17626,7 +18261,7 @@
         <v>225000</v>
       </c>
       <c r="C165" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -17637,7 +18272,7 @@
         <v>230000</v>
       </c>
       <c r="C166" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -17648,7 +18283,7 @@
         <v>235000</v>
       </c>
       <c r="C167" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -17659,7 +18294,7 @@
         <v>240000</v>
       </c>
       <c r="C168" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -17670,7 +18305,7 @@
         <v>245000</v>
       </c>
       <c r="C169" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -17681,7 +18316,7 @@
         <v>250000</v>
       </c>
       <c r="C170" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -17692,7 +18327,7 @@
         <v>8000</v>
       </c>
       <c r="C171" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -17703,7 +18338,7 @@
         <v>16000</v>
       </c>
       <c r="C172" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -17714,7 +18349,7 @@
         <v>24000</v>
       </c>
       <c r="C173" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -17725,7 +18360,7 @@
         <v>32000</v>
       </c>
       <c r="C174" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -17736,7 +18371,7 @@
         <v>40000</v>
       </c>
       <c r="C175" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -17747,7 +18382,7 @@
         <v>48000</v>
       </c>
       <c r="C176" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -17758,7 +18393,7 @@
         <v>56000</v>
       </c>
       <c r="C177" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -17769,7 +18404,7 @@
         <v>64000</v>
       </c>
       <c r="C178" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -17780,7 +18415,7 @@
         <v>72000</v>
       </c>
       <c r="C179" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -17791,7 +18426,7 @@
         <v>80000</v>
       </c>
       <c r="C180" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -17802,7 +18437,7 @@
         <v>88000</v>
       </c>
       <c r="C181" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -17813,7 +18448,7 @@
         <v>96000</v>
       </c>
       <c r="C182" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -17824,7 +18459,7 @@
         <v>104000</v>
       </c>
       <c r="C183" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -17835,7 +18470,7 @@
         <v>112000</v>
       </c>
       <c r="C184" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -17846,7 +18481,7 @@
         <v>120000</v>
       </c>
       <c r="C185" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -17857,7 +18492,7 @@
         <v>128000</v>
       </c>
       <c r="C186" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -17868,7 +18503,7 @@
         <v>136000</v>
       </c>
       <c r="C187" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -17879,7 +18514,7 @@
         <v>144000</v>
       </c>
       <c r="C188" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -17890,7 +18525,7 @@
         <v>152000</v>
       </c>
       <c r="C189" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -17901,7 +18536,7 @@
         <v>160000</v>
       </c>
       <c r="C190" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -17912,7 +18547,7 @@
         <v>168000</v>
       </c>
       <c r="C191" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -17923,7 +18558,7 @@
         <v>176000</v>
       </c>
       <c r="C192" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -17934,7 +18569,7 @@
         <v>184000</v>
       </c>
       <c r="C193" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -17945,7 +18580,7 @@
         <v>192000</v>
       </c>
       <c r="C194" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -17956,7 +18591,7 @@
         <v>200000</v>
       </c>
       <c r="C195" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -17967,7 +18602,7 @@
         <v>32000</v>
       </c>
       <c r="C196" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -17978,7 +18613,7 @@
         <v>48000</v>
       </c>
       <c r="C197" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -17989,7 +18624,7 @@
         <v>64000</v>
       </c>
       <c r="C198" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -18000,7 +18635,7 @@
         <v>80000</v>
       </c>
       <c r="C199" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -18011,7 +18646,7 @@
         <v>96000</v>
       </c>
       <c r="C200" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -18022,7 +18657,7 @@
         <v>32000</v>
       </c>
       <c r="C201" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -18033,7 +18668,7 @@
         <v>48000</v>
       </c>
       <c r="C202" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -18044,7 +18679,7 @@
         <v>64000</v>
       </c>
       <c r="C203" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -18055,7 +18690,7 @@
         <v>80000</v>
       </c>
       <c r="C204" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -18066,7 +18701,7 @@
         <v>96000</v>
       </c>
       <c r="C205" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -18077,7 +18712,7 @@
         <v>35000</v>
       </c>
       <c r="C206" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -18088,7 +18723,7 @@
         <v>52500</v>
       </c>
       <c r="C207" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -18099,7 +18734,7 @@
         <v>70000</v>
       </c>
       <c r="C208" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -18110,7 +18745,7 @@
         <v>87500</v>
       </c>
       <c r="C209" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -18121,7 +18756,7 @@
         <v>105000</v>
       </c>
       <c r="C210" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -18132,7 +18767,7 @@
         <v>35000</v>
       </c>
       <c r="C211" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -18143,7 +18778,7 @@
         <v>52500</v>
       </c>
       <c r="C212" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -18154,7 +18789,7 @@
         <v>70000</v>
       </c>
       <c r="C213" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -18165,7 +18800,7 @@
         <v>87500</v>
       </c>
       <c r="C214" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -18176,7 +18811,7 @@
         <v>105000</v>
       </c>
       <c r="C215" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -18187,7 +18822,7 @@
         <v>47000</v>
       </c>
       <c r="C216" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -18198,7 +18833,7 @@
         <v>70500</v>
       </c>
       <c r="C217" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -18209,7 +18844,7 @@
         <v>94000</v>
       </c>
       <c r="C218" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -18220,7 +18855,7 @@
         <v>117500</v>
       </c>
       <c r="C219" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -18231,7 +18866,7 @@
         <v>141000</v>
       </c>
       <c r="C220" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -18242,7 +18877,7 @@
         <v>47000</v>
       </c>
       <c r="C221" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -18253,7 +18888,7 @@
         <v>70500</v>
       </c>
       <c r="C222" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -18264,7 +18899,7 @@
         <v>94000</v>
       </c>
       <c r="C223" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -18275,7 +18910,7 @@
         <v>117500</v>
       </c>
       <c r="C224" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -18286,7 +18921,7 @@
         <v>141000</v>
       </c>
       <c r="C225" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -18297,7 +18932,7 @@
         <v>55000</v>
       </c>
       <c r="C226" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -18308,7 +18943,7 @@
         <v>82500</v>
       </c>
       <c r="C227" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -18319,7 +18954,7 @@
         <v>110000</v>
       </c>
       <c r="C228" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -18330,7 +18965,7 @@
         <v>137500</v>
       </c>
       <c r="C229" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -18341,7 +18976,7 @@
         <v>165000</v>
       </c>
       <c r="C230" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -18352,7 +18987,7 @@
         <v>800000</v>
       </c>
       <c r="C231" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -18363,7 +18998,7 @@
         <v>950000</v>
       </c>
       <c r="C232" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -18374,7 +19009,7 @@
         <v>5000</v>
       </c>
       <c r="C233" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -18385,7 +19020,7 @@
         <v>10000</v>
       </c>
       <c r="C234" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -18396,7 +19031,7 @@
         <v>15000</v>
       </c>
       <c r="C235" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -18407,7 +19042,7 @@
         <v>20000</v>
       </c>
       <c r="C236" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -18418,7 +19053,7 @@
         <v>25000</v>
       </c>
       <c r="C237" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -18429,7 +19064,7 @@
         <v>30000</v>
       </c>
       <c r="C238" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -18440,7 +19075,7 @@
         <v>35000</v>
       </c>
       <c r="C239" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -18451,7 +19086,7 @@
         <v>40000</v>
       </c>
       <c r="C240" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -18462,7 +19097,7 @@
         <v>45000</v>
       </c>
       <c r="C241" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -18473,7 +19108,7 @@
         <v>50000</v>
       </c>
       <c r="C242" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -18484,7 +19119,7 @@
         <v>3600</v>
       </c>
       <c r="C243" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -18495,7 +19130,7 @@
         <v>7200</v>
       </c>
       <c r="C244" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -18506,7 +19141,7 @@
         <v>10800</v>
       </c>
       <c r="C245" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -18517,7 +19152,7 @@
         <v>14400</v>
       </c>
       <c r="C246" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -18528,7 +19163,7 @@
         <v>18000</v>
       </c>
       <c r="C247" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -18539,7 +19174,7 @@
         <v>21600</v>
       </c>
       <c r="C248" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -18550,7 +19185,7 @@
         <v>25200</v>
       </c>
       <c r="C249" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -18561,7 +19196,7 @@
         <v>28800</v>
       </c>
       <c r="C250" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -18572,7 +19207,7 @@
         <v>32400</v>
       </c>
       <c r="C251" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -18583,7 +19218,7 @@
         <v>36000</v>
       </c>
       <c r="C252" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -18594,7 +19229,7 @@
         <v>2400</v>
       </c>
       <c r="C253" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -18605,7 +19240,7 @@
         <v>4800</v>
       </c>
       <c r="C254" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -18616,7 +19251,7 @@
         <v>7200</v>
       </c>
       <c r="C255" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -18627,7 +19262,7 @@
         <v>9600</v>
       </c>
       <c r="C256" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -18638,7 +19273,7 @@
         <v>12000</v>
       </c>
       <c r="C257" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -18649,7 +19284,7 @@
         <v>14400</v>
       </c>
       <c r="C258" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -18660,7 +19295,7 @@
         <v>16800</v>
       </c>
       <c r="C259" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -18671,7 +19306,7 @@
         <v>19200</v>
       </c>
       <c r="C260" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -18682,7 +19317,7 @@
         <v>21600</v>
       </c>
       <c r="C261" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -18693,7 +19328,7 @@
         <v>24000</v>
       </c>
       <c r="C262" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -18704,7 +19339,7 @@
         <v>13200</v>
       </c>
       <c r="C263" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -18715,7 +19350,7 @@
         <v>19800</v>
       </c>
       <c r="C264" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -18726,7 +19361,7 @@
         <v>77000</v>
       </c>
       <c r="C265" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -18737,7 +19372,7 @@
         <v>99000</v>
       </c>
       <c r="C266" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -18748,7 +19383,7 @@
         <v>106700</v>
       </c>
       <c r="C267" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -18759,7 +19394,7 @@
         <v>12000</v>
       </c>
       <c r="C268" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -18770,7 +19405,7 @@
         <v>18000</v>
       </c>
       <c r="C269" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -18781,7 +19416,7 @@
         <v>24000</v>
       </c>
       <c r="C270" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -18792,7 +19427,7 @@
         <v>30000</v>
       </c>
       <c r="C271" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -18803,7 +19438,7 @@
         <v>36000</v>
       </c>
       <c r="C272" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -18814,7 +19449,7 @@
         <v>48000</v>
       </c>
       <c r="C273" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -18825,7 +19460,7 @@
         <v>60000</v>
       </c>
       <c r="C274" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -18836,7 +19471,7 @@
         <v>72000</v>
       </c>
       <c r="C275" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -18847,7 +19482,7 @@
         <v>90000</v>
       </c>
       <c r="C276" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -18858,7 +19493,7 @@
         <v>150000</v>
       </c>
       <c r="C277" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -18869,7 +19504,7 @@
         <v>120000</v>
       </c>
       <c r="C278" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -18880,7 +19515,7 @@
         <v>220000</v>
       </c>
       <c r="C279" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -18891,7 +19526,7 @@
         <v>250000</v>
       </c>
       <c r="C280" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -18902,7 +19537,7 @@
         <v>80000</v>
       </c>
       <c r="C281" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -18913,7 +19548,7 @@
         <v>80000</v>
       </c>
       <c r="C282" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -18924,7 +19559,7 @@
         <v>130000</v>
       </c>
       <c r="C283" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -18935,7 +19570,7 @@
         <v>250000</v>
       </c>
       <c r="C284" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -18946,7 +19581,7 @@
         <v>230000</v>
       </c>
       <c r="C285" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -18957,7 +19592,7 @@
         <v>6000</v>
       </c>
       <c r="C286" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -18968,7 +19603,7 @@
         <v>16500</v>
       </c>
       <c r="C287" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -18979,7 +19614,7 @@
         <v>20000</v>
       </c>
       <c r="C288" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -18990,7 +19625,7 @@
         <v>25000</v>
       </c>
       <c r="C289" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -19001,7 +19636,7 @@
         <v>28000</v>
       </c>
       <c r="C290" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -19012,7 +19647,7 @@
         <v>33000</v>
       </c>
       <c r="C291" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -19023,7 +19658,7 @@
         <v>39000</v>
       </c>
       <c r="C292" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -19034,7 +19669,7 @@
         <v>8800</v>
       </c>
       <c r="C293" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -19045,7 +19680,7 @@
         <v>18700</v>
       </c>
       <c r="C294" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -19056,7 +19691,7 @@
         <v>24200</v>
       </c>
       <c r="C295" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -19067,7 +19702,7 @@
         <v>29700</v>
       </c>
       <c r="C296" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -19078,7 +19713,7 @@
         <v>33000</v>
       </c>
       <c r="C297" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -19089,7 +19724,7 @@
         <v>36300</v>
       </c>
       <c r="C298" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -19100,7 +19735,7 @@
         <v>31900</v>
       </c>
       <c r="C299" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -19111,7 +19746,7 @@
         <v>33000</v>
       </c>
       <c r="C300" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -19122,7 +19757,7 @@
         <v>35200</v>
       </c>
       <c r="C301" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -19133,7 +19768,7 @@
         <v>36300</v>
       </c>
       <c r="C302" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -19144,7 +19779,7 @@
         <v>37400</v>
       </c>
       <c r="C303" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -19155,7 +19790,7 @@
         <v>39600</v>
       </c>
       <c r="C304" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -19166,7 +19801,7 @@
         <v>41800</v>
       </c>
       <c r="C305" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -19177,7 +19812,7 @@
         <v>42900</v>
       </c>
       <c r="C306" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -19188,7 +19823,7 @@
         <v>39600</v>
       </c>
       <c r="C307" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -19199,7 +19834,7 @@
         <v>49500</v>
       </c>
       <c r="C308" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -19210,7 +19845,7 @@
         <v>59400</v>
       </c>
       <c r="C309" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -19221,7 +19856,7 @@
         <v>69300</v>
       </c>
       <c r="C310" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -19232,7 +19867,7 @@
         <v>79200</v>
       </c>
       <c r="C311" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -19243,7 +19878,7 @@
         <v>39600</v>
       </c>
       <c r="C312" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -19254,7 +19889,7 @@
         <v>49500</v>
       </c>
       <c r="C313" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -19265,7 +19900,7 @@
         <v>59400</v>
       </c>
       <c r="C314" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -19276,7 +19911,7 @@
         <v>69300</v>
       </c>
       <c r="C315" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -19287,7 +19922,7 @@
         <v>79200</v>
       </c>
       <c r="C316" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -19298,7 +19933,7 @@
         <v>10000</v>
       </c>
       <c r="C317" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -19309,7 +19944,7 @@
         <v>33000</v>
       </c>
       <c r="C318" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -19320,7 +19955,7 @@
         <v>20000</v>
       </c>
       <c r="C319" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -19331,7 +19966,7 @@
         <v>198000</v>
       </c>
       <c r="C320" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -19342,7 +19977,7 @@
         <v>120000</v>
       </c>
       <c r="C321" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -19353,7 +19988,7 @@
         <v>720000</v>
       </c>
       <c r="C322" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -19364,7 +19999,7 @@
         <v>440000</v>
       </c>
       <c r="C323" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -19375,7 +20010,7 @@
         <v>490000</v>
       </c>
       <c r="C324" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -19386,7 +20021,7 @@
         <v>1150000</v>
       </c>
       <c r="C325" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -19397,7 +20032,7 @@
         <v>570000</v>
       </c>
       <c r="C326" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -19408,7 +20043,7 @@
         <v>440000</v>
       </c>
       <c r="C327" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -19419,7 +20054,7 @@
         <v>320000</v>
       </c>
       <c r="C328" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -19430,7 +20065,7 @@
         <v>570000</v>
       </c>
       <c r="C329" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -19441,7 +20076,7 @@
         <v>490000</v>
       </c>
       <c r="C330" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -19452,7 +20087,7 @@
         <v>150000</v>
       </c>
       <c r="C331" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -19463,7 +20098,7 @@
         <v>160000</v>
       </c>
       <c r="C332" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -19474,7 +20109,7 @@
         <v>300000</v>
       </c>
       <c r="C333" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -19485,7 +20120,7 @@
         <v>330000</v>
       </c>
       <c r="C334" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -19496,7 +20131,7 @@
         <v>330000</v>
       </c>
       <c r="C335" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -19507,7 +20142,7 @@
         <v>250000</v>
       </c>
       <c r="C336" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -19518,7 +20153,7 @@
         <v>490000</v>
       </c>
       <c r="C337" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -19529,7 +20164,7 @@
         <v>250000</v>
       </c>
       <c r="C338" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -19540,7 +20175,7 @@
         <v>210000</v>
       </c>
       <c r="C339" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -19551,7 +20186,7 @@
         <v>95000</v>
       </c>
       <c r="C340" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -19562,7 +20197,7 @@
         <v>88000</v>
       </c>
       <c r="C341" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -19573,7 +20208,7 @@
         <v>5500</v>
       </c>
       <c r="C342" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -19584,7 +20219,7 @@
         <v>20900</v>
       </c>
       <c r="C343" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -19595,7 +20230,7 @@
         <v>165000</v>
       </c>
       <c r="C344" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -19606,7 +20241,7 @@
         <v>71500</v>
       </c>
       <c r="C345" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -19617,7 +20252,7 @@
         <v>190000</v>
       </c>
       <c r="C346" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -19628,7 +20263,7 @@
         <v>180000</v>
       </c>
       <c r="C347" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -19639,7 +20274,7 @@
         <v>121000</v>
       </c>
       <c r="C348" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -19650,7 +20285,7 @@
         <v>380000</v>
       </c>
       <c r="C349" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -19661,7 +20296,7 @@
         <v>11000</v>
       </c>
       <c r="C350" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -19672,7 +20307,7 @@
         <v>17600</v>
       </c>
       <c r="C351" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -19683,7 +20318,7 @@
         <v>5500</v>
       </c>
       <c r="C352" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -19694,7 +20329,7 @@
         <v>13200</v>
       </c>
       <c r="C353" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -19705,7 +20340,7 @@
         <v>28600</v>
       </c>
       <c r="C354" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -19716,7 +20351,7 @@
         <v>27500</v>
       </c>
       <c r="C355" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -19727,7 +20362,7 @@
         <v>12000</v>
       </c>
       <c r="C356" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -19738,7 +20373,7 @@
         <v>13200</v>
       </c>
       <c r="C357" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -19749,7 +20384,7 @@
         <v>2700</v>
       </c>
       <c r="C358" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -19760,7 +20395,7 @@
         <v>4600</v>
       </c>
       <c r="C359" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -19771,7 +20406,7 @@
         <v>7600</v>
       </c>
       <c r="C360" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -19782,7 +20417,7 @@
         <v>11000</v>
       </c>
       <c r="C361" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -19793,7 +20428,7 @@
         <v>16500</v>
       </c>
       <c r="C362" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -19804,7 +20439,7 @@
         <v>22000</v>
       </c>
       <c r="C363" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -19815,7 +20450,7 @@
         <v>9400</v>
       </c>
       <c r="C364" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -19826,7 +20461,7 @@
         <v>17600</v>
       </c>
       <c r="C365" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -19837,7 +20472,7 @@
         <v>7200</v>
       </c>
       <c r="C366" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -19848,7 +20483,7 @@
         <v>12100</v>
       </c>
       <c r="C367" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -19859,7 +20494,7 @@
         <v>22000</v>
       </c>
       <c r="C368" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -19870,7 +20505,7 @@
         <v>8800</v>
       </c>
       <c r="C369" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -19881,7 +20516,7 @@
         <v>16500</v>
       </c>
       <c r="C370" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -19892,7 +20527,7 @@
         <v>2500</v>
       </c>
       <c r="C371" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -19903,7 +20538,7 @@
         <v>3600</v>
       </c>
       <c r="C372" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -19914,7 +20549,7 @@
         <v>4700</v>
       </c>
       <c r="C373" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -19925,7 +20560,7 @@
         <v>5500</v>
       </c>
       <c r="C374" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -19936,7 +20571,7 @@
         <v>6600</v>
       </c>
       <c r="C375" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -19947,7 +20582,7 @@
         <v>4500</v>
       </c>
       <c r="C376" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -19958,7 +20593,7 @@
         <v>5000</v>
       </c>
       <c r="C377" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -19969,7 +20604,7 @@
         <v>29700</v>
       </c>
       <c r="C378" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -19980,7 +20615,7 @@
         <v>6600</v>
       </c>
       <c r="C379" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -19991,7 +20626,7 @@
         <v>21000</v>
       </c>
       <c r="C380" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -20002,7 +20637,7 @@
         <v>24200</v>
       </c>
       <c r="C381" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -20013,7 +20648,7 @@
         <v>26400</v>
       </c>
       <c r="C382" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -20024,7 +20659,7 @@
         <v>1600</v>
       </c>
       <c r="C383" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -20035,7 +20670,7 @@
         <v>2200</v>
       </c>
       <c r="C384" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -20046,7 +20681,7 @@
         <v>2700</v>
       </c>
       <c r="C385" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -20057,7 +20692,7 @@
         <v>3300</v>
       </c>
       <c r="C386" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -20068,7 +20703,7 @@
         <v>16500</v>
       </c>
       <c r="C387" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -20079,7 +20714,7 @@
         <v>4400</v>
       </c>
       <c r="C388" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -20090,7 +20725,7 @@
         <v>4900</v>
       </c>
       <c r="C389" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -20101,7 +20736,7 @@
         <v>5500</v>
       </c>
       <c r="C390" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -20112,7 +20747,7 @@
         <v>6000</v>
       </c>
       <c r="C391" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -20123,7 +20758,7 @@
         <v>16500</v>
       </c>
       <c r="C392" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -20134,7 +20769,7 @@
         <v>14300</v>
       </c>
       <c r="C393" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -20145,7 +20780,7 @@
         <v>13200</v>
       </c>
       <c r="C394" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -20156,7 +20791,7 @@
         <v>16500</v>
       </c>
       <c r="C395" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -20167,7 +20802,7 @@
         <v>11000</v>
       </c>
       <c r="C396" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -20178,7 +20813,7 @@
         <v>16500</v>
       </c>
       <c r="C397" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -20189,7 +20824,7 @@
         <v>22000</v>
       </c>
       <c r="C398" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -20200,7 +20835,7 @@
         <v>27500</v>
       </c>
       <c r="C399" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -20211,7 +20846,7 @@
         <v>22000</v>
       </c>
       <c r="C400" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -20222,7 +20857,7 @@
         <v>16500</v>
       </c>
       <c r="C401" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -20233,7 +20868,7 @@
         <v>66000</v>
       </c>
       <c r="C402" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -20244,7 +20879,7 @@
         <v>74000</v>
       </c>
       <c r="C403" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -20255,7 +20890,7 @@
         <v>47000</v>
       </c>
       <c r="C404" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -20266,7 +20901,7 @@
         <v>91000</v>
       </c>
       <c r="C405" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -20277,7 +20912,7 @@
         <v>61000</v>
       </c>
       <c r="C406" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -20288,7 +20923,7 @@
         <v>57000</v>
       </c>
       <c r="C407" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -20299,7 +20934,7 @@
         <v>37000</v>
       </c>
       <c r="C408" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -20310,7 +20945,7 @@
         <v>165000</v>
       </c>
       <c r="C409" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -20321,7 +20956,7 @@
         <v>1100000</v>
       </c>
       <c r="C410" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -20332,7 +20967,7 @@
         <v>700000</v>
       </c>
       <c r="C411" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -20343,7 +20978,7 @@
         <v>385000</v>
       </c>
       <c r="C412" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -20354,7 +20989,7 @@
         <v>180000</v>
       </c>
       <c r="C413" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -20365,7 +21000,7 @@
         <v>250000</v>
       </c>
       <c r="C414" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhvlt\Desktop\견적서 페이지 - 추가 작업중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC45E0-049C-4EAA-AFFD-D354DABD072F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401F75E0-A108-48CE-A4A6-0D6AA87572A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33135" yWindow="0" windowWidth="19635" windowHeight="15015" firstSheet="4" activeTab="9" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
+    <workbookView xWindow="31290" yWindow="405" windowWidth="22815" windowHeight="15015" firstSheet="4" activeTab="7" xr2:uid="{7C4005BC-3757-4000-A08F-5E228EF425DD}"/>
   </bookViews>
   <sheets>
     <sheet name="디랙스" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="2193">
   <si>
     <t>제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7115,6 +7115,308 @@
   </si>
   <si>
     <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/KEYTEC/101.png?raw=true</t>
+  </si>
+  <si>
+    <t>짐스틱(그린)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐스틱(블루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐스틱(블랙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐스틱(실버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐스틱(골드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/1_2.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/3_27.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/28.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/29.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/30_36.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/37_43.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/44_50.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/51_57.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/58_62.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/63_94.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/95_142.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/143_173.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/174_185.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/186_189.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/190.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/191_194.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/195.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/196_198.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/199.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/200.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/201.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/202.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/203.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/204.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/205.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/206.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/207.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/208.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/209.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/210.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/211.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/212.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/213.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/214.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/215.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/216.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/217.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/218.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/219.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/220.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/221.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/222.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/223.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/224.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/225.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/226.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/227.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/228.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/229_233.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/234_238.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/239_243.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/244_259.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/260_269.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/270.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/271.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/272.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/273.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/274.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/275_279.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/280_284.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/285.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/286_291.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/292_294.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/295_301.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/302.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/303_309.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/310_314.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/315.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/316_320.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/321.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/322_323.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/324_325.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/326_328.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/329_330.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/331_333.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/334_337.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/338_339.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/340_346.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/347_351.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/352.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/353.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/354.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/355.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/356.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/357.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/358.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/359_361.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/362_364.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/365_366.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/367.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/368.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/369.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/370.jpeg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/AsdDDsa182/AshGray/blob/main/images/BESKO/371.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -8189,7 +8491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68443C7-BE48-45C7-8147-0B3FF01C84F7}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
@@ -13439,7 +13741,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13473,10 +13775,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53822169-A351-4B2E-8F96-DE188C2AE8CE}">
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="A371" sqref="A371"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13504,7 +13806,9 @@
       <c r="B2" s="9">
         <v>690000</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>2099</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -13513,7 +13817,9 @@
       <c r="B3" s="9">
         <v>630000</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>2099</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -13522,6 +13828,9 @@
       <c r="B4">
         <v>18000</v>
       </c>
+      <c r="C4" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13530,6 +13839,9 @@
       <c r="B5">
         <v>24000</v>
       </c>
+      <c r="C5" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -13538,6 +13850,9 @@
       <c r="B6">
         <v>30000</v>
       </c>
+      <c r="C6" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -13546,6 +13861,9 @@
       <c r="B7">
         <v>36000</v>
       </c>
+      <c r="C7" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -13554,6 +13872,9 @@
       <c r="B8">
         <v>42000</v>
       </c>
+      <c r="C8" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -13562,6 +13883,9 @@
       <c r="B9">
         <v>48000</v>
       </c>
+      <c r="C9" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -13570,6 +13894,9 @@
       <c r="B10">
         <v>54000</v>
       </c>
+      <c r="C10" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -13578,6 +13905,9 @@
       <c r="B11">
         <v>60000</v>
       </c>
+      <c r="C11" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -13586,6 +13916,9 @@
       <c r="B12">
         <v>66000</v>
       </c>
+      <c r="C12" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -13594,6 +13927,9 @@
       <c r="B13">
         <v>72000</v>
       </c>
+      <c r="C13" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -13602,6 +13938,9 @@
       <c r="B14">
         <v>78000</v>
       </c>
+      <c r="C14" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13610,6 +13949,9 @@
       <c r="B15">
         <v>84000</v>
       </c>
+      <c r="C15" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -13618,2813 +13960,3924 @@
       <c r="B16">
         <v>90000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1360</v>
       </c>
       <c r="B17">
         <v>96000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1361</v>
       </c>
       <c r="B18">
         <v>102000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1362</v>
       </c>
       <c r="B19">
         <v>108000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1363</v>
       </c>
       <c r="B20">
         <v>114000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1002</v>
       </c>
       <c r="B21">
         <v>120000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1003</v>
       </c>
       <c r="B22">
         <v>126000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1004</v>
       </c>
       <c r="B23">
         <v>138000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1005</v>
       </c>
       <c r="B24">
         <v>150000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1006</v>
       </c>
       <c r="B25">
         <v>162000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1007</v>
       </c>
       <c r="B26">
         <v>180000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1008</v>
       </c>
       <c r="B27">
         <v>210000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1009</v>
       </c>
       <c r="B28">
         <v>240000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1010</v>
       </c>
       <c r="B29">
         <v>700000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1011</v>
       </c>
       <c r="B30">
         <v>700000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1012</v>
       </c>
       <c r="B31">
         <v>379500</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1013</v>
       </c>
       <c r="B32">
         <v>346500</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1014</v>
       </c>
       <c r="B33">
         <v>10000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1015</v>
       </c>
       <c r="B34">
         <v>20000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1016</v>
       </c>
       <c r="B35">
         <v>40000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1017</v>
       </c>
       <c r="B36">
         <v>60000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1018</v>
       </c>
       <c r="B37">
         <v>80000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="B38">
         <v>379500</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>1020</v>
       </c>
       <c r="B39">
         <v>346500</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="B40">
         <v>10000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="B41">
         <v>20000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="B42">
         <v>40000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>1024</v>
       </c>
       <c r="B43">
         <v>60000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="B44">
         <v>80000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>1026</v>
       </c>
       <c r="B45">
         <v>575000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>1027</v>
       </c>
       <c r="B46">
         <v>525000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>1028</v>
       </c>
       <c r="B47">
         <v>12500</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>1029</v>
       </c>
       <c r="B48">
         <v>25000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>1030</v>
       </c>
       <c r="B49">
         <v>50000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>1031</v>
       </c>
       <c r="B50">
         <v>75000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>1032</v>
       </c>
       <c r="B51">
         <v>100000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>1033</v>
       </c>
       <c r="B52">
         <v>402500</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>1033</v>
       </c>
       <c r="B53">
         <v>367500</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>1034</v>
       </c>
       <c r="B54">
         <v>8750</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>1035</v>
       </c>
       <c r="B55">
         <v>17500</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>1036</v>
       </c>
       <c r="B56">
         <v>35000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>1037</v>
       </c>
       <c r="B57">
         <v>52500</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>1038</v>
       </c>
       <c r="B58">
         <v>70000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>1039</v>
       </c>
       <c r="B59">
         <v>30000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>1040</v>
       </c>
       <c r="B60">
         <v>60000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>1041</v>
       </c>
       <c r="B61">
         <v>90000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="B62">
         <v>120000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>1043</v>
       </c>
       <c r="B63">
         <v>150000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>1044</v>
       </c>
       <c r="B64">
         <v>15000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>1046</v>
       </c>
       <c r="B65">
         <v>20000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>1045</v>
       </c>
       <c r="B66">
         <v>25000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>1047</v>
       </c>
       <c r="B67">
         <v>30000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>1048</v>
       </c>
       <c r="B68">
         <v>35000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>1049</v>
       </c>
       <c r="B69">
         <v>40000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>1050</v>
       </c>
       <c r="B70">
         <v>45000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>1051</v>
       </c>
       <c r="B71">
         <v>50000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>1052</v>
       </c>
       <c r="B72">
         <v>55000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>1053</v>
       </c>
       <c r="B73">
         <v>60000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>1054</v>
       </c>
       <c r="B74">
         <v>65000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>1055</v>
       </c>
       <c r="B75">
         <v>70000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>1056</v>
       </c>
       <c r="B76">
         <v>75000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>1057</v>
       </c>
       <c r="B77">
         <v>80000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>1058</v>
       </c>
       <c r="B78">
         <v>85000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>1059</v>
       </c>
       <c r="B79">
         <v>90000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>1060</v>
       </c>
       <c r="B80">
         <v>95000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>1061</v>
       </c>
       <c r="B81">
         <v>100000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>1062</v>
       </c>
       <c r="B82">
         <v>105000</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>1063</v>
       </c>
       <c r="B83">
         <v>110000</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>1064</v>
       </c>
       <c r="B84">
         <v>115000</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>1065</v>
       </c>
       <c r="B85">
         <v>120000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>1066</v>
       </c>
       <c r="B86">
         <v>125000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>1067</v>
       </c>
       <c r="B87">
         <v>130000</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>1068</v>
       </c>
       <c r="B88">
         <v>135000</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>1069</v>
       </c>
       <c r="B89">
         <v>140000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>1070</v>
       </c>
       <c r="B90">
         <v>150000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>1071</v>
       </c>
       <c r="B91">
         <v>160000</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1072</v>
       </c>
       <c r="B92">
         <v>175000</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>1073</v>
       </c>
       <c r="B93">
         <v>200000</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>1074</v>
       </c>
       <c r="B94">
         <v>225000</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>1075</v>
       </c>
       <c r="B95">
         <v>250000</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1076</v>
       </c>
       <c r="B96">
         <v>13500</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>1077</v>
       </c>
       <c r="B97">
         <v>18000</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="B98">
         <v>22500</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>1079</v>
       </c>
       <c r="B99">
         <v>27000</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>1080</v>
       </c>
       <c r="B100">
         <v>31500</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>1081</v>
       </c>
       <c r="B101">
         <v>36000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>1082</v>
       </c>
       <c r="B102">
         <v>40500</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>1083</v>
       </c>
       <c r="B103">
         <v>45000</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>1084</v>
       </c>
       <c r="B104">
         <v>49500</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>1085</v>
       </c>
       <c r="B105">
         <v>54000</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>1086</v>
       </c>
       <c r="B106">
         <v>58500</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>1087</v>
       </c>
       <c r="B107">
         <v>63000</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>1088</v>
       </c>
       <c r="B108">
         <v>67500</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>1089</v>
       </c>
       <c r="B109">
         <v>72000</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>1090</v>
       </c>
       <c r="B110">
         <v>76500</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>1091</v>
       </c>
       <c r="B111">
         <v>81000</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>1092</v>
       </c>
       <c r="B112">
         <v>85500</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>1093</v>
       </c>
       <c r="B113">
         <v>90000</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>1094</v>
       </c>
       <c r="B114">
         <v>94500</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>1095</v>
       </c>
       <c r="B115">
         <v>99000</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>1096</v>
       </c>
       <c r="B116">
         <v>103500</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>1097</v>
       </c>
       <c r="B117">
         <v>108000</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>1098</v>
       </c>
       <c r="B118">
         <v>112500</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>1099</v>
       </c>
       <c r="B119">
         <v>117000</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>1100</v>
       </c>
       <c r="B120">
         <v>121500</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>1101</v>
       </c>
       <c r="B121">
         <v>126000</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>1102</v>
       </c>
       <c r="B122">
         <v>130500</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>1103</v>
       </c>
       <c r="B123">
         <v>135000</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>1104</v>
       </c>
       <c r="B124">
         <v>139500</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>1105</v>
       </c>
       <c r="B125">
         <v>144000</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>1106</v>
       </c>
       <c r="B126">
         <v>148500</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>1107</v>
       </c>
       <c r="B127">
         <v>153000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1108</v>
       </c>
       <c r="B128">
         <v>157500</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>1109</v>
       </c>
       <c r="B129">
         <v>162000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>1110</v>
       </c>
       <c r="B130">
         <v>166500</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>1111</v>
       </c>
       <c r="B131">
         <v>171000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>1112</v>
       </c>
       <c r="B132">
         <v>175500</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>1113</v>
       </c>
       <c r="B133">
         <v>180000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>1114</v>
       </c>
       <c r="B134">
         <v>184500</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="B135">
         <v>189000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>1116</v>
       </c>
       <c r="B136">
         <v>193500</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>11